--- a/02_画面設計書・モックアップ/画面遷移図.xlsx
+++ b/02_画面設計書・モックアップ/画面遷移図.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himeno\Documents\お仕事（単年）\お仕事2022\99_授業準備\前期\システム設計\設計演習2（クラス日誌登録システム）\設計演習2（フロントエンド）_模範例\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\desktop-tutorial\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="341" documentId="13_ncr:1_{D4D651FB-8723-40BB-BEED-CB9DDFB8BE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED359228-87E9-4EC3-BD9C-4A8D00492E6F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D69030-C04D-471B-B03D-511D7FEE4526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="210" windowWidth="15480" windowHeight="11640" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -467,36 +467,58 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>PC周辺機器販売システム</t>
+    <t>麻生情報ビジネス専門学校
+〇〇科2年</t>
+    <rPh sb="0" eb="2">
+      <t>アソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センモン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>通販サイト</t>
+    <t>FuJi掲示板</t>
+    <rPh sb="4" eb="7">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ログイン、商品一覧、商品詳細、カート、注文確定</t>
+    <t>掲示場</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログイン、新規登録、パスワード変更、ホーム、チャット</t>
     <rPh sb="5" eb="7">
-      <t>ショウヒン</t>
+      <t>シンキ</t>
     </rPh>
     <rPh sb="7" eb="9">
-      <t>イチラン</t>
+      <t>トウロク</t>
     </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>チュウモン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カクテイ</t>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>麻生情報ビジネス専門学校
-情報システム専攻科2年　Eクラス</t>
+情報システム専攻科3年　Eクラス</t>
     <rPh sb="0" eb="2">
       <t>アソウ</t>
     </rPh>
@@ -516,32 +538,6 @@
       <t>センコウカ</t>
     </rPh>
     <rPh sb="23" eb="24">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>いｊｎ</t>
-  </si>
-  <si>
-    <t>麻生情報ビジネス専門学校
-〇〇科2年</t>
-    <rPh sb="0" eb="2">
-      <t>アソウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センモン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガッコウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
       <t>ネン</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -918,12 +914,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -935,6 +952,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -956,15 +976,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -983,18 +994,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1088,15 +1093,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2182,7 +2178,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>商品一覧</a:t>
+            <a:t>ホーム</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1050">
             <a:solidFill>
@@ -3575,255 +3571,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>52997</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>143852</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>451013</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>92401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>36634</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>134779</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="177" name="角丸四角形 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AE9970D-667A-443B-A95F-9689D52FC106}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6085497" y="1694717"/>
-          <a:ext cx="1253637" cy="943427"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 9072"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>G1-3-2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>カート１</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>276993</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>36635</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>73269</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>43512</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>402981</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>93622</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="83" name="直線矢印コネクタ 82">
+        <xdr:cNvPr id="88" name="直線矢印コネクタ 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EAAC891-B0A1-4072-AB73-538AE3361227}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98D7D7E-04DD-4A64-BCE9-6BE3A8A18B83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5356993" y="2063750"/>
-          <a:ext cx="748776" cy="6877"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10961077" y="4138491"/>
+          <a:ext cx="578827" cy="1221"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3855,411 +3628,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>131869</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9629</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>270593</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>24528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>195628</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>154937</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="211" name="テキスト ボックス 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE76D1E-AC03-4A40-8A55-FD1C26968E3F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5211869" y="1719244"/>
-          <a:ext cx="1016259" cy="304058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>移行</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>95006</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>99262</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>190256</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85820</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="239" name="テキスト ボックス 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C44D3A2C-6776-42F1-A20E-E9AB115AC333}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5175006" y="2761377"/>
-          <a:ext cx="1047750" cy="304058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>移行</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>313593</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>59837</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>12212</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>61058</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="88" name="直線矢印コネクタ 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98D7D7E-04DD-4A64-BCE9-6BE3A8A18B83}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5393593" y="2245702"/>
-          <a:ext cx="651119" cy="1221"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>221747</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>97797</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>114056</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76643</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19656</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4274,8 +3652,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5301747" y="2283662"/>
-          <a:ext cx="844809" cy="296346"/>
+          <a:off x="10503862" y="342028"/>
+          <a:ext cx="747117" cy="304487"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4419,305 +3797,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>235179</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>122219</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>236090</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>40705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>124313</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>101065</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="テキスト ボックス 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{471CDFBF-C117-4CB6-8686-E09A060A7D3C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5315179" y="3260584"/>
-          <a:ext cx="841634" cy="296346"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>戻る</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>36635</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="フリーフォーム 100">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8777F149-ACF5-4F17-9BF5-3CA21756AFC5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2894135" y="1550865"/>
-          <a:ext cx="6707065" cy="1158875"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 5391150 w 5591175"/>
-            <a:gd name="connsiteY0" fmla="*/ 476250 h 1181100"/>
-            <a:gd name="connsiteX1" fmla="*/ 5591175 w 5591175"/>
-            <a:gd name="connsiteY1" fmla="*/ 485775 h 1181100"/>
-            <a:gd name="connsiteX2" fmla="*/ 5581650 w 5591175"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 1181100"/>
-            <a:gd name="connsiteX3" fmla="*/ 9525 w 5591175"/>
-            <a:gd name="connsiteY3" fmla="*/ 19050 h 1181100"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 5591175"/>
-            <a:gd name="connsiteY4" fmla="*/ 1181100 h 1181100"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="5591175" h="1181100">
-              <a:moveTo>
-                <a:pt x="5391150" y="476250"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="5591175" y="485775"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="5581650" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="9525" y="19050"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="1181100"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>しょうひん</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>219808</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>202956</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>155005</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4732,8 +3821,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2759808" y="1458790"/>
-          <a:ext cx="7041417" cy="1793875"/>
+          <a:off x="10469359" y="1481667"/>
+          <a:ext cx="4004815" cy="1579684"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4825,16 +3914,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>305289</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>64094</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>131561</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23389</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>173893</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>50652</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>320432</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>26230</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4849,8 +3938,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7290289" y="1773709"/>
-          <a:ext cx="821104" cy="304058"/>
+          <a:off x="10088035" y="186210"/>
+          <a:ext cx="742461" cy="312199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5445,239 +4534,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>156551</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>137502</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>360195</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>70990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>140188</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>128429</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="362" name="角丸四角形 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11D8ECF4-39DD-4DC6-BE4C-C697D7F4CF76}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8094051" y="1688367"/>
-          <a:ext cx="1253637" cy="943427"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 9072"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>G1-3-3</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>注文確定１</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>50835</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>103554</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>164611</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>110431</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>416983</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>77867</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5692,8 +4558,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7353335" y="2130669"/>
-          <a:ext cx="748776" cy="6877"/>
+          <a:off x="10870259" y="3791439"/>
+          <a:ext cx="683647" cy="6877"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5725,16 +4591,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>73270</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>109904</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>138398</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>150609</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>256442</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>88321</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>272724</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>129026</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5749,7 +4615,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8051475" y="1062404"/>
+          <a:off x="10371667" y="777468"/>
           <a:ext cx="1037980" cy="304058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5894,23 +4760,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>44658</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85481</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>28295</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76408</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>227369</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>154136</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="342" name="角丸四角形 81">
+        <xdr:cNvPr id="6" name="角丸四角形 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{664EE342-C3E0-4CFA-BC98-CCE650444540}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD6FED9E-FD60-48EC-9151-81EE4960792F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5918,13 +4784,11 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6077158" y="2747596"/>
-          <a:ext cx="1253637" cy="943427"/>
+          <a:off x="496603" y="3866987"/>
+          <a:ext cx="1155445" cy="821700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 9072"/>
-          </a:avLst>
+          <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="bg1"/>
@@ -6056,7 +4920,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1050">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6064,13 +4928,13 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>G1-4-2</a:t>
+            <a:t>G1-1</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6078,9 +4942,9 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>カート２～６</a:t>
+            <a:t>新規登録</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1050">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -6092,7 +4956,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6102,14 +4966,6 @@
             </a:rPr>
             <a:t>画面</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6117,306 +4973,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>268654</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>137014</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>162821</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>24423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>64930</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>143891</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{198786F7-4E28-49A8-8D8C-42BF634A4455}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5348654" y="3116629"/>
-          <a:ext cx="748776" cy="6877"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>305254</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1466</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>3873</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>2687</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{238420A3-9659-4105-A270-FBF541756F3A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5385254" y="3298581"/>
-          <a:ext cx="651119" cy="1221"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>298939</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>8898</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>167543</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>154206</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>178522</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>32020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="249" name="テキスト ボックス 15">
+        <xdr:cNvPr id="7" name="角丸四角形 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7760CB3-F867-46A1-9AB5-F8D62871341F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7283939" y="2829763"/>
-          <a:ext cx="821104" cy="304058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>移行</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>150201</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>82306</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>133838</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>73233</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="360" name="角丸四角形 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{020A124B-E2F1-4F0D-B158-3DF1D19F10B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1D0B57F-11F0-4DCA-A8E8-DDBF8AB8017C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6424,13 +4997,11 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8087701" y="2744421"/>
-          <a:ext cx="1253637" cy="943427"/>
+          <a:off x="162821" y="4884615"/>
+          <a:ext cx="1155445" cy="821700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 9072"/>
-          </a:avLst>
+          <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="bg1"/>
@@ -6562,7 +5133,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1050">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6570,13 +5141,13 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>G1-4-3</a:t>
+            <a:t>G1-1</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6584,9 +5155,9 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>注文確定２～６</a:t>
+            <a:t>パスワード変更</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1050">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -6598,7 +5169,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6608,14 +5179,6 @@
             </a:rPr>
             <a:t>画面</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6623,32 +5186,89 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>44485</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>48358</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>40705</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137133</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>158261</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>55235</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>48846</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>154679</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="直線矢印コネクタ 62">
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{918A5244-AA9D-42E2-8920-DFA91D2D02E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2582B9C4-D070-41C3-B189-A93D67C37E8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7346985" y="3186723"/>
-          <a:ext cx="748776" cy="6877"/>
+        <a:xfrm flipH="1">
+          <a:off x="610577" y="2555018"/>
+          <a:ext cx="8141" cy="1320110"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>16282</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>113973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>24423</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>65129</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D78E34-007D-43A9-8862-EDDB16FEFAE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="301218" y="2531858"/>
+          <a:ext cx="8141" cy="2393463"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6682,7 +5302,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7008,11 +5628,11 @@
       <selection activeCell="F8" sqref="F8:Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="16" customWidth="1"/>
-    <col min="7" max="32" width="4.125" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.08984375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.08984375" style="16" customWidth="1"/>
+    <col min="7" max="32" width="4.08984375" style="1" customWidth="1"/>
     <col min="33" max="36" width="4" style="1" customWidth="1"/>
     <col min="37" max="16384" width="9" style="1"/>
   </cols>
@@ -7252,16 +5872,16 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="68" t="s">
+      <c r="X3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="70">
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="48">
         <v>44830</v>
       </c>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="69"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="47"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="12"/>
@@ -7379,20 +5999,20 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="103" t="s">
+      <c r="F7" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="105"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="61"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -7410,80 +6030,80 @@
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="106" t="s">
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="108"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="77"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="68" t="s">
+      <c r="X8" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="68" t="s">
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="68" t="s">
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AC8" s="69"/>
+      <c r="AC8" s="47"/>
       <c r="AD8" s="31"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15" customHeight="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="111"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="80"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="52" t="s">
+      <c r="X9" s="62"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="AC9" s="53"/>
+      <c r="AC9" s="63"/>
       <c r="AD9" s="31"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="12"/>
@@ -7512,12 +6132,12 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="54"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="55"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="65"/>
       <c r="AD10" s="31"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="12"/>
@@ -7546,12 +6166,12 @@
       <c r="U11" s="29"/>
       <c r="V11" s="29"/>
       <c r="W11" s="29"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="57"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="67"/>
       <c r="AD11" s="31"/>
       <c r="AE11" s="29"/>
       <c r="AF11" s="12"/>
@@ -7592,106 +6212,106 @@
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="58"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="68"/>
       <c r="AF13" s="12"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="11"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="58"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
       <c r="AF14" s="12"/>
     </row>
     <row r="15" spans="1:176" ht="15" customHeight="1">
       <c r="A15" s="11"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="58"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="68"/>
       <c r="AF15" s="12"/>
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
@@ -7830,630 +6450,630 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="46" t="s">
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="46" t="s">
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="46" t="s">
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="48"/>
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="52"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="59">
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="53">
         <v>44830</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="49" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="51"/>
-      <c r="AC21" s="46" t="s">
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="48"/>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="52"/>
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="11"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="51"/>
-      <c r="AC22" s="46"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="48"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="52"/>
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="51"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="48"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="57"/>
+      <c r="AB23" s="58"/>
+      <c r="AC23" s="50"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="52"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="51"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="47"/>
-      <c r="AE24" s="48"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="51"/>
+      <c r="AE24" s="52"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="11"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="46"/>
-      <c r="AD25" s="47"/>
-      <c r="AE25" s="48"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="57"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="52"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="50"/>
-      <c r="Z26" s="50"/>
-      <c r="AA26" s="50"/>
-      <c r="AB26" s="51"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="47"/>
-      <c r="AE26" s="48"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="52"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="11"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="51"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="47"/>
-      <c r="AE27" s="48"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="51"/>
+      <c r="AE27" s="52"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="11"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="51"/>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="47"/>
-      <c r="AE28" s="48"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="52"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="51"/>
-      <c r="AC29" s="46"/>
-      <c r="AD29" s="47"/>
-      <c r="AE29" s="48"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="57"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="52"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="50"/>
-      <c r="AB30" s="51"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="47"/>
-      <c r="AE30" s="48"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="57"/>
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="50"/>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="52"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="11"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="51"/>
-      <c r="AC31" s="46"/>
-      <c r="AD31" s="47"/>
-      <c r="AE31" s="48"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="57"/>
+      <c r="Z31" s="57"/>
+      <c r="AA31" s="57"/>
+      <c r="AB31" s="58"/>
+      <c r="AC31" s="50"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="52"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="11"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
-      <c r="U32" s="50"/>
-      <c r="V32" s="50"/>
-      <c r="W32" s="50"/>
-      <c r="X32" s="50"/>
-      <c r="Y32" s="50"/>
-      <c r="Z32" s="50"/>
-      <c r="AA32" s="50"/>
-      <c r="AB32" s="51"/>
-      <c r="AC32" s="46"/>
-      <c r="AD32" s="47"/>
-      <c r="AE32" s="48"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="57"/>
+      <c r="Z32" s="57"/>
+      <c r="AA32" s="57"/>
+      <c r="AB32" s="58"/>
+      <c r="AC32" s="50"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="52"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="11"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="50"/>
-      <c r="AB33" s="51"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="47"/>
-      <c r="AE33" s="48"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="57"/>
+      <c r="X33" s="57"/>
+      <c r="Y33" s="57"/>
+      <c r="Z33" s="57"/>
+      <c r="AA33" s="57"/>
+      <c r="AB33" s="58"/>
+      <c r="AC33" s="50"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="52"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="11"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="50"/>
-      <c r="Z34" s="50"/>
-      <c r="AA34" s="50"/>
-      <c r="AB34" s="51"/>
-      <c r="AC34" s="46"/>
-      <c r="AD34" s="47"/>
-      <c r="AE34" s="48"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="57"/>
+      <c r="AA34" s="57"/>
+      <c r="AB34" s="58"/>
+      <c r="AC34" s="50"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="52"/>
       <c r="AF34" s="12"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="50"/>
-      <c r="AA35" s="50"/>
-      <c r="AB35" s="51"/>
-      <c r="AC35" s="46"/>
-      <c r="AD35" s="47"/>
-      <c r="AE35" s="48"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="57"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="57"/>
+      <c r="X35" s="57"/>
+      <c r="Y35" s="57"/>
+      <c r="Z35" s="57"/>
+      <c r="AA35" s="57"/>
+      <c r="AB35" s="58"/>
+      <c r="AC35" s="50"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="52"/>
       <c r="AF35" s="12"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="50"/>
-      <c r="U36" s="50"/>
-      <c r="V36" s="50"/>
-      <c r="W36" s="50"/>
-      <c r="X36" s="50"/>
-      <c r="Y36" s="50"/>
-      <c r="Z36" s="50"/>
-      <c r="AA36" s="50"/>
-      <c r="AB36" s="51"/>
-      <c r="AC36" s="46"/>
-      <c r="AD36" s="47"/>
-      <c r="AE36" s="48"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="57"/>
+      <c r="Y36" s="57"/>
+      <c r="Z36" s="57"/>
+      <c r="AA36" s="57"/>
+      <c r="AB36" s="58"/>
+      <c r="AC36" s="50"/>
+      <c r="AD36" s="51"/>
+      <c r="AE36" s="52"/>
       <c r="AF36" s="12"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="50"/>
-      <c r="W37" s="50"/>
-      <c r="X37" s="50"/>
-      <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="51"/>
-      <c r="AC37" s="46"/>
-      <c r="AD37" s="47"/>
-      <c r="AE37" s="48"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="57"/>
+      <c r="T37" s="57"/>
+      <c r="U37" s="57"/>
+      <c r="V37" s="57"/>
+      <c r="W37" s="57"/>
+      <c r="X37" s="57"/>
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57"/>
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="58"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="51"/>
+      <c r="AE37" s="52"/>
       <c r="AF37" s="12"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -8492,53 +7112,27 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="Z9:AA11"/>
+    <mergeCell ref="AB9:AC11"/>
+    <mergeCell ref="B13:AE15"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="J20:AB20"/>
+    <mergeCell ref="J21:AB21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="F8:Q9"/>
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
     <mergeCell ref="AC37:AE37"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="J22:AB22"/>
@@ -8555,27 +7149,53 @@
     <mergeCell ref="J33:AB33"/>
     <mergeCell ref="AC33:AE33"/>
     <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="Z9:AA11"/>
-    <mergeCell ref="AB9:AC11"/>
-    <mergeCell ref="B13:AE15"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="J20:AB20"/>
-    <mergeCell ref="J21:AB21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="B8:E9"/>
-    <mergeCell ref="F8:Q9"/>
-    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -8595,14 +7215,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="33" customWidth="1"/>
-    <col min="2" max="2" width="26.125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="36.5" style="33" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="33" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="50.75" style="33" customWidth="1"/>
+    <col min="1" max="1" width="14.36328125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="26.08984375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="36.453125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.36328125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="50.7265625" style="33" customWidth="1"/>
     <col min="7" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
@@ -8707,179 +7327,179 @@
   <dimension ref="A1:FU44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AL6" sqref="AL6"/>
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="16" customWidth="1"/>
-    <col min="7" max="33" width="4.125" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.08984375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.08984375" style="16" customWidth="1"/>
+    <col min="7" max="33" width="4.08984375" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="73" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="73" t="s">
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="82" t="s">
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="73" t="s">
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="92"/>
+      <c r="AD2" s="92"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="AG2" s="75"/>
+      <c r="AG2" s="84"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="76" t="s">
+      <c r="A3" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="91" t="s">
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="92"/>
-      <c r="U3" s="92"/>
-      <c r="V3" s="92"/>
-      <c r="W3" s="92"/>
-      <c r="X3" s="92"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="85" t="s">
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="86"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="76" t="s">
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="96"/>
+      <c r="AF3" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="AG3" s="77"/>
+      <c r="AG3" s="86"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="78"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="79"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="104"/>
+      <c r="X4" s="104"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="88"/>
     </row>
     <row r="5" spans="1:177" s="7" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="2"/>
@@ -9094,9 +7714,6 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
       <c r="AG6" s="10"/>
-      <c r="AL6" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
       <c r="A7" s="11"/>
@@ -10354,168 +8971,168 @@
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="16" customWidth="1"/>
-    <col min="7" max="33" width="4.125" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.08984375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.08984375" style="16" customWidth="1"/>
+    <col min="7" max="33" width="4.08984375" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="73" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="73" t="s">
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="82" t="s">
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="73" t="s">
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="92"/>
+      <c r="AD2" s="92"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="AG2" s="75"/>
+      <c r="AG2" s="84"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="76"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="85" t="s">
-        <v>47</v>
+      <c r="A3" s="85"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="94" t="s">
+        <v>42</v>
       </c>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="86"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="77"/>
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="96"/>
+      <c r="AF3" s="85"/>
+      <c r="AG3" s="86"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="78"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="101"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="102"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="79"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="111"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="88"/>
     </row>
     <row r="5" spans="1:177" s="7" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="2"/>
@@ -11974,25 +10591,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2B0453A4F97AA4594841E00C62E1F84" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b4ec096b6f6caeabb13d9a32e416b02d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a400ae294e8a05ebb5f0513890681b30" ns2:_="">
     <xsd:import namespace="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
@@ -12164,14 +10762,57 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2943A47C-3A6D-4AAA-B52D-79C0E305302C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82CC02B3-FCE5-4223-8B61-A8382C5BF06A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82CC02B3-FCE5-4223-8B61-A8382C5BF06A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2943A47C-3A6D-4AAA-B52D-79C0E305302C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面遷移図.xlsx
+++ b/02_画面設計書・モックアップ/画面遷移図.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\desktop-tutorial\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D69030-C04D-471B-B03D-511D7FEE4526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FC3CF5-96E5-4B51-BD18-7898A2CBC301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
     <sheet name="記述様式" sheetId="9" r:id="rId2"/>
-    <sheet name="画面遷移図(通販サイト)" sheetId="1" r:id="rId3"/>
+    <sheet name="画面遷移図()" sheetId="1" r:id="rId3"/>
     <sheet name="画面遷移図" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">画面遷移図!$A$1:$AG$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面遷移図(通販サイト)'!$A$1:$AG$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面遷移図()'!$A$1:$AG$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">記述様式!$A$1:$F$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$38</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">画面遷移図!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'画面遷移図(通販サイト)'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'画面遷移図()'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">記述様式!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
@@ -504,19 +504,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ログイン、新規登録、パスワード変更、ホーム、チャット</t>
-    <rPh sb="5" eb="7">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>麻生情報ビジネス専門学校
 情報システム専攻科3年　Eクラス</t>
     <rPh sb="0" eb="2">
@@ -539,6 +526,25 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログイン、新規登録、パスワード変更、ホーム、チャット、ユーザー設定画面</t>
+    <rPh sb="5" eb="7">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1781,16 +1787,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>204107</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>122466</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212249</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219808</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>130063</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>227950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>146346</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1805,8 +1811,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="204107" y="1673331"/>
-          <a:ext cx="1285701" cy="801347"/>
+          <a:off x="1636928" y="2393813"/>
+          <a:ext cx="1155445" cy="821700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1994,16 +2000,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>316452</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>68037</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>24188</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>100602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>268654</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>8140</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>86993</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2018,8 +2024,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903952" y="2730152"/>
-          <a:ext cx="1222202" cy="938891"/>
+          <a:off x="2873547" y="3169769"/>
+          <a:ext cx="1123696" cy="963314"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2217,16 +2223,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>218180</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>62593</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>258885</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>31585</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47971</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>72289</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>113100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2241,8 +2247,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1161155" y="2948668"/>
-          <a:ext cx="1070705" cy="309228"/>
+          <a:off x="1968500" y="3685350"/>
+          <a:ext cx="953148" cy="311019"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2385,16 +2391,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>211958</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>130062</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220101</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>146345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2127</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>61232</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>24189</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>93797</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2413,8 +2419,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="993945" y="2377025"/>
-          <a:ext cx="740795" cy="1047469"/>
+          <a:off x="2326143" y="3104021"/>
+          <a:ext cx="435913" cy="658896"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2446,16 +2452,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219809</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>45302</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>227950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61137</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>292554</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>68037</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>16164</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>100602</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2474,8 +2480,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="1649751" y="1949110"/>
-          <a:ext cx="670435" cy="1015720"/>
+          <a:off x="2931331" y="2665705"/>
+          <a:ext cx="365106" cy="643022"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2507,16 +2513,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>207056</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>20446</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3530</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>282052</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>158042</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>78526</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>27786</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2531,8 +2537,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1794556" y="1730061"/>
-          <a:ext cx="1027496" cy="296346"/>
+          <a:off x="2852889" y="2470896"/>
+          <a:ext cx="929804" cy="300416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2675,16 +2681,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285646</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142840</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65129</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>122115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>258432</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>149646</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>105834</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>113974</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2698,9 +2704,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3143146" y="2011205"/>
-          <a:ext cx="925286" cy="800556"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="919937" y="1725897"/>
+          <a:ext cx="895512" cy="643141"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2732,23 +2738,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>255746</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>135722</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>198759</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91296</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>280866</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>126649</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>223878</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>77688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="163" name="角丸四角形 67">
+        <xdr:cNvPr id="323" name="角丸四角形 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9957543-6B67-49B0-8323-7567F9E1045D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FBBB006-B54C-4631-AC2A-84C75C5C5665}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2756,8 +2762,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4065746" y="1686587"/>
-          <a:ext cx="1295120" cy="943427"/>
+          <a:off x="4472797" y="3160463"/>
+          <a:ext cx="1164863" cy="963315"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2902,7 +2908,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>G1-3-1</a:t>
+            <a:t>G1-5-1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2916,7 +2922,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>商品詳細１</a:t>
+            <a:t>チャット</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1050">
             <a:solidFill>
@@ -2955,689 +2961,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>255746</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>99436</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>107772</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>280866</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85828</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="323" name="角丸四角形 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FBBB006-B54C-4631-AC2A-84C75C5C5665}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4065746" y="2761551"/>
-          <a:ext cx="1295120" cy="938892"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 9072"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>G1-4-1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>商品詳細２～６</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>273540</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38379</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>232718</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>45186</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="直線矢印コネクタ 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB7CF20-D1AC-4A11-99E2-4ACE5BC1FF74}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3131040" y="3176744"/>
-          <a:ext cx="911678" cy="6807"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>157026</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>70687</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>235196</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57245</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="201" name="テキスト ボックス 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7608C8-3564-467D-AA41-D94994FB17E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3014526" y="1939052"/>
-          <a:ext cx="1030670" cy="304058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>移行</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>139211</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>12212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>217381</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>157520</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="229" name="テキスト ボックス 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CCB8F61-F758-419E-8E7E-B339E56C2503}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3314211" y="2833077"/>
-          <a:ext cx="1030670" cy="304058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>移行</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>451013</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>92401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>402981</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>93622</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="88" name="直線矢印コネクタ 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98D7D7E-04DD-4A64-BCE9-6BE3A8A18B83}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="10961077" y="4138491"/>
-          <a:ext cx="578827" cy="1221"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>270593</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>24528</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>114056</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19656</xdr:rowOff>
+      <xdr:colOff>82</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>92926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3652,7 +2985,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10503862" y="342028"/>
+          <a:off x="3811939" y="3997349"/>
           <a:ext cx="747117" cy="304487"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3797,16 +3130,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>236090</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>40705</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>260513</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>138398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>202956</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>155005</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>130258</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>81411</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3821,8 +3154,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10469359" y="1481667"/>
-          <a:ext cx="4004815" cy="1579684"/>
+          <a:off x="3679744" y="2067821"/>
+          <a:ext cx="3573911" cy="1571218"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3914,16 +3247,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>131561</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>23389</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>155984</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>320432</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>26230</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>43638</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9948</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3938,7 +3271,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10088035" y="186210"/>
+          <a:off x="3860151" y="2929736"/>
           <a:ext cx="742461" cy="312199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4083,16 +3416,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>154022</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101066</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>137741</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>231322</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>146539</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236090</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>24423</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4106,9 +3439,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3133725" y="2181137"/>
-          <a:ext cx="907597" cy="786267"/>
+        <a:xfrm>
+          <a:off x="386002" y="1741523"/>
+          <a:ext cx="1274767" cy="700785"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4140,200 +3473,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>70079</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>69465</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>65128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>105263</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>48311</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="テキスト ボックス 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4273FF0E-8B9C-4FEC-A6F0-3C540DE424AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3562579" y="2572830"/>
-          <a:ext cx="670184" cy="296346"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>戻る</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>272073</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>141479</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>255745</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>155087</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>187244</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>81410</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="111" name="直線矢印コネクタ 110">
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2216281E-9645-434E-972C-38C439775289}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9815DC25-6CBE-401A-953E-A59436726BAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3129573" y="3279844"/>
-          <a:ext cx="936172" cy="13608"/>
+        <a:xfrm>
+          <a:off x="3989103" y="3459936"/>
+          <a:ext cx="472179" cy="16282"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4365,242 +3530,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>230</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>115626</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>154679</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142468</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>187814</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>94472</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="115" name="テキスト ボックス 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10B1A622-3B06-48DE-A229-6D4AA72C7CC3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3175230" y="3253991"/>
-          <a:ext cx="822584" cy="296346"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>戻る</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>360195</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>70990</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>416983</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>77867</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9815DC25-6CBE-401A-953E-A59436726BAA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10870259" y="3791439"/>
-          <a:ext cx="683647" cy="6877"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>138398</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>150609</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>272724</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>129026</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>52916</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>120885</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4615,7 +3554,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10371667" y="777468"/>
+          <a:off x="6993141" y="1094968"/>
           <a:ext cx="1037980" cy="304058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4760,16 +3699,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>211667</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>146538</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>179104</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>130255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>227369</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>154136</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>194806</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>131502</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4784,8 +3723,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="496603" y="3866987"/>
-          <a:ext cx="1155445" cy="821700"/>
+          <a:off x="1318848" y="919934"/>
+          <a:ext cx="1155445" cy="815350"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4928,7 +3867,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>G1-1</a:t>
+            <a:t>G1-3</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4974,15 +3913,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>162821</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>24423</xdr:rowOff>
+      <xdr:colOff>130256</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>122116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>178522</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>32020</xdr:rowOff>
+      <xdr:colOff>145957</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123363</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4997,8 +3936,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="162821" y="4884615"/>
-          <a:ext cx="1155445" cy="821700"/>
+          <a:off x="130256" y="911795"/>
+          <a:ext cx="1155445" cy="815350"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5141,7 +4080,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>G1-1</a:t>
+            <a:t>G1-4</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5155,7 +4094,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>パスワード変更</a:t>
+            <a:t>パスワード再設定画面</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
             <a:solidFill>
@@ -5166,36 +4105,22 @@
             <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>画面</a:t>
-          </a:r>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>40705</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>137133</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203238</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>131503</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>48846</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>154679</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138749</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5206,12 +4131,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="610577" y="2555018"/>
-          <a:ext cx="8141" cy="1320110"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2197789" y="1735285"/>
+          <a:ext cx="16862" cy="658528"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5243,16 +4170,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>16282</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>113973</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>183521</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>130256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>24423</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>65129</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>195385</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>48846</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5263,12 +4190,3359 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="105" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="753393" y="3199423"/>
+          <a:ext cx="866671" cy="1383974"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>24423</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>130257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>24424</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154679</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF3C186-0204-4D7E-9418-5BEB9F0967AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="301218" y="2531858"/>
-          <a:ext cx="8141" cy="2393463"/>
+          <a:off x="2018974" y="1734039"/>
+          <a:ext cx="1" cy="675704"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>203525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>154679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228644</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>141071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="角丸四角形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7FB8497-2D4A-484C-B523-75F2F8628770}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4477563" y="4363589"/>
+          <a:ext cx="1164863" cy="963315"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9072"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>G1-5-1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>チャット</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>16164</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>86993</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>203525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>147875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="カギ線コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D9BD86E-E30A-45CD-B053-DE40FE22E145}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="152" idx="2"/>
+          <a:endCxn id="50" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3600397" y="3968081"/>
+          <a:ext cx="712164" cy="1042168"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9116</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>40705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>187243</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>41276</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E604499-2C71-40C7-9319-36A0273306E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3998219" y="3923974"/>
+          <a:ext cx="463062" cy="571"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>32564</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>89551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>57684</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>75943</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="角丸四角形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C5DC49-0093-45EF-8974-5870F9206F57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6016218" y="3158718"/>
+          <a:ext cx="1164863" cy="963315"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9072"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>G1-5-2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>チャット</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>65126</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>81410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>90246</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>67802</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="角丸四角形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B88575-DFB4-429D-8F8C-E81D62791443}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6048780" y="4453141"/>
+          <a:ext cx="1164863" cy="963315"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9072"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>G1-5-2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>チャット</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>227948</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>48847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>32564</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>56987</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直線矢印コネクタ 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F99D53-1581-4264-A57A-D4F1FE107C94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5641730" y="3443655"/>
+          <a:ext cx="374488" cy="8140"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>219808</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>16281</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19132</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="直線矢印コネクタ 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AD6381C-A4D4-4831-BF1C-AAD0EF9B755C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5633590" y="3899551"/>
+          <a:ext cx="366345" cy="2850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>154679</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>56987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8141</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>40705</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線矢印コネクタ 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A1DFFC-C518-4270-86BA-CD0C9F3ACD00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1009487" y="3288974"/>
+          <a:ext cx="708269" cy="1286282"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>170961</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>48846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>196080</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>35238</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="角丸四角形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8252F4C2-505B-4B10-BB78-459F63426C88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="170961" y="4583397"/>
+          <a:ext cx="1164863" cy="963315"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9072"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>G1-6-1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ユーザー設定</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>146539</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>73270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>16282</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>48847</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="フリーフォーム: 図形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{648476C1-1F90-EF9F-4C60-1F22CD4D8886}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9826218" y="5096283"/>
+          <a:ext cx="4461282" cy="1766602"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 4119359 w 4461282"/>
+            <a:gd name="connsiteY0" fmla="*/ 993205 h 1766602"/>
+            <a:gd name="connsiteX1" fmla="*/ 4445000 w 4461282"/>
+            <a:gd name="connsiteY1" fmla="*/ 993205 h 1766602"/>
+            <a:gd name="connsiteX2" fmla="*/ 4461282 w 4461282"/>
+            <a:gd name="connsiteY2" fmla="*/ 1742179 h 1766602"/>
+            <a:gd name="connsiteX3" fmla="*/ 8141 w 4461282"/>
+            <a:gd name="connsiteY3" fmla="*/ 1766602 h 1766602"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 4461282"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 1766602"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="4461282" h="1766602">
+              <a:moveTo>
+                <a:pt x="4119359" y="993205"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="4445000" y="993205"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4461282" y="1742179"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="8141" y="1766602"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="5427" y="1177735"/>
+                <a:pt x="2714" y="588867"/>
+                <a:pt x="0" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>227949</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>138397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>89551</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>40705</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="フリーフォーム: 図形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8949CF7-0BE6-73E8-3859-D6940C37C65A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1937564" y="3207564"/>
+          <a:ext cx="6415128" cy="3484359"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 5658013 w 6415128"/>
+            <a:gd name="connsiteY0" fmla="*/ 1766602 h 3484359"/>
+            <a:gd name="connsiteX1" fmla="*/ 6398846 w 6415128"/>
+            <a:gd name="connsiteY1" fmla="*/ 1766602 h 3484359"/>
+            <a:gd name="connsiteX2" fmla="*/ 6415128 w 6415128"/>
+            <a:gd name="connsiteY2" fmla="*/ 3476218 h 3484359"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 6415128"/>
+            <a:gd name="connsiteY3" fmla="*/ 3484359 h 3484359"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 6415128"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 3484359"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="6415128" h="3484359">
+              <a:moveTo>
+                <a:pt x="5658013" y="1766602"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="6398846" y="1766602"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="6415128" y="3476218"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="3484359"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8141</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180730</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>124955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32E35F7A-4F5E-4941-BAD6-7496204FECE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5421923" y="2881923"/>
+          <a:ext cx="742461" cy="312199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>移行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>97692</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>154679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>286563</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>141237</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D7D5C77-B03A-416A-8719-2C2492CFAAFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10054166" y="4526410"/>
+          <a:ext cx="742461" cy="312199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>移行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>73270</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>40705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>266797</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A389242-A8D5-4482-A937-849525637E32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9752949" y="5389359"/>
+          <a:ext cx="747117" cy="304487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>56987</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>24423</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>234232</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>3269</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AE5D1B-A0D0-4434-88BF-0AE125B08913}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5470769" y="5210256"/>
+          <a:ext cx="747117" cy="304487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>260512</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>81411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>158748</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>59828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D218DCD7-01AD-4B57-A014-E18240062617}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953781" y="6895449"/>
+          <a:ext cx="1037980" cy="304058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ログイン画面へ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>48846</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>8141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>48846</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16282</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="フリーフォーム: 図形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286963F9-F6E1-8CBC-DD74-6E02B1EE595D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2613269" y="1449103"/>
+          <a:ext cx="5413782" cy="2450448"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 4558975 w 5413782"/>
+            <a:gd name="connsiteY0" fmla="*/ 2450448 h 2450448"/>
+            <a:gd name="connsiteX1" fmla="*/ 5405641 w 5413782"/>
+            <a:gd name="connsiteY1" fmla="*/ 2426025 h 2450448"/>
+            <a:gd name="connsiteX2" fmla="*/ 5413782 w 5413782"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 2450448"/>
+            <a:gd name="connsiteX3" fmla="*/ 16282 w 5413782"/>
+            <a:gd name="connsiteY3" fmla="*/ 24423 h 2450448"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 5413782"/>
+            <a:gd name="connsiteY4" fmla="*/ 928076 h 2450448"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="5413782" h="2450448">
+              <a:moveTo>
+                <a:pt x="4558975" y="2450448"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="5405641" y="2426025"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="5408355" y="1617350"/>
+                <a:pt x="5411068" y="808675"/>
+                <a:pt x="5413782" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="16282" y="24423"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="928076"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>154679</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>56987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>56986</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE7A1C1-F20C-4B92-BD9D-4CF830A50F5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5568461" y="4917179"/>
+          <a:ext cx="472179" cy="16282"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>472179</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>16282</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C5A94D6-E06D-4E70-9F6B-1F4FE9BFC1BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11136923" y="2417885"/>
+          <a:ext cx="472179" cy="16282"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>56987</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>56987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>229576</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>43545</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDB72BF9-A80F-4EC3-9322-F83575158772}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5470769" y="4428718"/>
+          <a:ext cx="742461" cy="312199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>移行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>115602</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>149378</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2628FAE4-F670-42AB-B7E7-0C0BBE86CF1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12390641" y="1603782"/>
+          <a:ext cx="742461" cy="312199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>移行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>115602</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>149378</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF9F8E1-A1DB-43FA-A7AA-33F724C23E2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11763782" y="3231987"/>
+          <a:ext cx="742461" cy="312199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>移行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>97692</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>81410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>274937</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>60256</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00D9F5BA-B881-4803-AD83-2B2150D67AD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5511474" y="3964679"/>
+          <a:ext cx="747117" cy="304487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>366345</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27E251EA-8B9E-4C88-9CA3-36FFC8875899}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11136923" y="4371731"/>
+          <a:ext cx="366345" cy="2850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>227948</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>122115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>24421</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>124965</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3E80BC0-41E8-4D1F-870F-BAC6ADD271B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5641730" y="5145128"/>
+          <a:ext cx="366345" cy="2850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5615,7 +7889,42 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t"/>
+      <a:lstStyle>
+        <a:defPPr algn="l">
+          <a:defRPr/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -7327,7 +9636,7 @@
   <dimension ref="A1:FU44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -7439,7 +9748,7 @@
       <c r="K3" s="89"/>
       <c r="L3" s="86"/>
       <c r="M3" s="100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N3" s="101"/>
       <c r="O3" s="101"/>
@@ -7454,7 +9763,7 @@
       <c r="X3" s="101"/>
       <c r="Y3" s="102"/>
       <c r="Z3" s="94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA3" s="95"/>
       <c r="AB3" s="95"/>

--- a/02_画面設計書・モックアップ/画面遷移図.xlsx
+++ b/02_画面設計書・モックアップ/画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\desktop-tutorial\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FC3CF5-96E5-4B51-BD18-7898A2CBC301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3F73E6-15EA-4298-B2FD-0884F0517518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">画面遷移図!$A$1:$AG$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面遷移図()'!$A$1:$AG$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面遷移図()'!$A$1:$AH$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">記述様式!$A$1:$F$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$38</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">画面遷移図!$1:$4</definedName>
@@ -920,18 +920,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -940,15 +928,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -958,9 +940,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -981,6 +960,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1006,6 +994,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5467,13 +5467,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>146539</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>73270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>16282</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>48847</xdr:rowOff>
@@ -5874,13 +5874,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>97692</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>154679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>286563</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>141237</xdr:rowOff>
@@ -6043,13 +6043,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>73270</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>40705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>266797</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>19551</xdr:rowOff>
@@ -6727,13 +6727,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>472179</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>16282</xdr:rowOff>
@@ -6953,13 +6953,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>115602</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>149378</xdr:rowOff>
@@ -7122,13 +7122,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>115602</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>149378</xdr:rowOff>
@@ -7460,13 +7460,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>366345</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>2850</xdr:rowOff>
@@ -8181,16 +8181,16 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="46" t="s">
+      <c r="X3" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="48">
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="79">
         <v>44830</v>
       </c>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="47"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="78"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="12"/>
@@ -8308,20 +8308,20 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="61"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="51"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -8339,80 +8339,80 @@
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="75" t="s">
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="77"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="73"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="46" t="s">
+      <c r="X8" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="46" t="s">
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="46" t="s">
+      <c r="AA8" s="78"/>
+      <c r="AB8" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="AC8" s="47"/>
+      <c r="AC8" s="78"/>
       <c r="AD8" s="31"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15" customHeight="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="80"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="76"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="62" t="s">
+      <c r="X9" s="55"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="AC9" s="63"/>
+      <c r="AC9" s="56"/>
       <c r="AD9" s="31"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="12"/>
@@ -8441,12 +8441,12 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="65"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="58"/>
       <c r="AD10" s="31"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="12"/>
@@ -8475,12 +8475,12 @@
       <c r="U11" s="29"/>
       <c r="V11" s="29"/>
       <c r="W11" s="29"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="67"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="60"/>
       <c r="AD11" s="31"/>
       <c r="AE11" s="29"/>
       <c r="AF11" s="12"/>
@@ -8521,106 +8521,106 @@
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="68"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="61"/>
       <c r="AF13" s="12"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="11"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="68"/>
-      <c r="AC14" s="68"/>
-      <c r="AD14" s="68"/>
-      <c r="AE14" s="68"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="61"/>
       <c r="AF14" s="12"/>
     </row>
     <row r="15" spans="1:176" ht="15" customHeight="1">
       <c r="A15" s="11"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="68"/>
-      <c r="AE15" s="68"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="61"/>
       <c r="AF15" s="12"/>
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
@@ -8759,630 +8759,630 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="50" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="50" t="s">
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="50" t="s">
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AD20" s="51"/>
-      <c r="AE20" s="52"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="48"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53">
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="62">
         <v>44830</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="56" t="s">
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="50" t="s">
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="52"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="48"/>
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="11"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="52"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="46"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="48"/>
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="57"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="57"/>
-      <c r="X23" s="57"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="57"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="50"/>
-      <c r="AD23" s="51"/>
-      <c r="AE23" s="52"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="48"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="57"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="51"/>
-      <c r="AE24" s="52"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="54"/>
+      <c r="AC24" s="46"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="48"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="11"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="50"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="52"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="54"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="48"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="57"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="50"/>
-      <c r="AD26" s="51"/>
-      <c r="AE26" s="52"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="54"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="48"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="11"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="50"/>
-      <c r="AD27" s="51"/>
-      <c r="AE27" s="52"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="54"/>
+      <c r="AC27" s="46"/>
+      <c r="AD27" s="47"/>
+      <c r="AE27" s="48"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="11"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="50"/>
-      <c r="AD28" s="51"/>
-      <c r="AE28" s="52"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="53"/>
+      <c r="AB28" s="54"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="48"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="57"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57"/>
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="52"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="46"/>
+      <c r="AD29" s="47"/>
+      <c r="AE29" s="48"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="57"/>
-      <c r="S30" s="57"/>
-      <c r="T30" s="57"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="57"/>
-      <c r="Y30" s="57"/>
-      <c r="Z30" s="57"/>
-      <c r="AA30" s="57"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="52"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AB30" s="54"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="47"/>
+      <c r="AE30" s="48"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="11"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="57"/>
-      <c r="X31" s="57"/>
-      <c r="Y31" s="57"/>
-      <c r="Z31" s="57"/>
-      <c r="AA31" s="57"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="51"/>
-      <c r="AE31" s="52"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="46"/>
+      <c r="AD31" s="47"/>
+      <c r="AE31" s="48"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="11"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="57"/>
-      <c r="S32" s="57"/>
-      <c r="T32" s="57"/>
-      <c r="U32" s="57"/>
-      <c r="V32" s="57"/>
-      <c r="W32" s="57"/>
-      <c r="X32" s="57"/>
-      <c r="Y32" s="57"/>
-      <c r="Z32" s="57"/>
-      <c r="AA32" s="57"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="50"/>
-      <c r="AD32" s="51"/>
-      <c r="AE32" s="52"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="53"/>
+      <c r="AA32" s="53"/>
+      <c r="AB32" s="54"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="47"/>
+      <c r="AE32" s="48"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="11"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="57"/>
-      <c r="S33" s="57"/>
-      <c r="T33" s="57"/>
-      <c r="U33" s="57"/>
-      <c r="V33" s="57"/>
-      <c r="W33" s="57"/>
-      <c r="X33" s="57"/>
-      <c r="Y33" s="57"/>
-      <c r="Z33" s="57"/>
-      <c r="AA33" s="57"/>
-      <c r="AB33" s="58"/>
-      <c r="AC33" s="50"/>
-      <c r="AD33" s="51"/>
-      <c r="AE33" s="52"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="53"/>
+      <c r="AA33" s="53"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="46"/>
+      <c r="AD33" s="47"/>
+      <c r="AE33" s="48"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="11"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="57"/>
-      <c r="S34" s="57"/>
-      <c r="T34" s="57"/>
-      <c r="U34" s="57"/>
-      <c r="V34" s="57"/>
-      <c r="W34" s="57"/>
-      <c r="X34" s="57"/>
-      <c r="Y34" s="57"/>
-      <c r="Z34" s="57"/>
-      <c r="AA34" s="57"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="50"/>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="52"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="53"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="53"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="53"/>
+      <c r="AA34" s="53"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="46"/>
+      <c r="AD34" s="47"/>
+      <c r="AE34" s="48"/>
       <c r="AF34" s="12"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="57"/>
-      <c r="T35" s="57"/>
-      <c r="U35" s="57"/>
-      <c r="V35" s="57"/>
-      <c r="W35" s="57"/>
-      <c r="X35" s="57"/>
-      <c r="Y35" s="57"/>
-      <c r="Z35" s="57"/>
-      <c r="AA35" s="57"/>
-      <c r="AB35" s="58"/>
-      <c r="AC35" s="50"/>
-      <c r="AD35" s="51"/>
-      <c r="AE35" s="52"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="53"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="53"/>
+      <c r="Y35" s="53"/>
+      <c r="Z35" s="53"/>
+      <c r="AA35" s="53"/>
+      <c r="AB35" s="54"/>
+      <c r="AC35" s="46"/>
+      <c r="AD35" s="47"/>
+      <c r="AE35" s="48"/>
       <c r="AF35" s="12"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="57"/>
-      <c r="S36" s="57"/>
-      <c r="T36" s="57"/>
-      <c r="U36" s="57"/>
-      <c r="V36" s="57"/>
-      <c r="W36" s="57"/>
-      <c r="X36" s="57"/>
-      <c r="Y36" s="57"/>
-      <c r="Z36" s="57"/>
-      <c r="AA36" s="57"/>
-      <c r="AB36" s="58"/>
-      <c r="AC36" s="50"/>
-      <c r="AD36" s="51"/>
-      <c r="AE36" s="52"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="53"/>
+      <c r="AB36" s="54"/>
+      <c r="AC36" s="46"/>
+      <c r="AD36" s="47"/>
+      <c r="AE36" s="48"/>
       <c r="AF36" s="12"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57"/>
-      <c r="S37" s="57"/>
-      <c r="T37" s="57"/>
-      <c r="U37" s="57"/>
-      <c r="V37" s="57"/>
-      <c r="W37" s="57"/>
-      <c r="X37" s="57"/>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57"/>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="58"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="51"/>
-      <c r="AE37" s="52"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="53"/>
+      <c r="W37" s="53"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="53"/>
+      <c r="Z37" s="53"/>
+      <c r="AA37" s="53"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="47"/>
+      <c r="AE37" s="48"/>
       <c r="AF37" s="12"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -9421,6 +9421,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="J22:AB22"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="AC21:AE21"/>
@@ -9437,74 +9505,6 @@
     <mergeCell ref="B8:E9"/>
     <mergeCell ref="F8:Q9"/>
     <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="J22:AB22"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -9633,22 +9633,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:FU44"/>
+  <dimension ref="A1:FV44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+      <selection activeCell="AL7" sqref="AL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="4.08984375" style="1" customWidth="1"/>
     <col min="5" max="6" width="4.08984375" style="16" customWidth="1"/>
-    <col min="7" max="33" width="4.08984375" style="1" customWidth="1"/>
-    <col min="34" max="37" width="4" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9" style="1"/>
+    <col min="7" max="34" width="4.08984375" style="1" customWidth="1"/>
+    <col min="35" max="38" width="4" style="1" customWidth="1"/>
+    <col min="39" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:177" ht="12.75" customHeight="1">
+    <row r="1" spans="1:178" ht="12.75" customHeight="1">
       <c r="A1" s="81" t="s">
         <v>11</v>
       </c>
@@ -9684,8 +9684,9 @@
       <c r="AE1" s="81"/>
       <c r="AF1" s="81"/>
       <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
     </row>
-    <row r="2" spans="1:177" ht="12">
+    <row r="2" spans="1:178" ht="12">
       <c r="A2" s="82" t="s">
         <v>37</v>
       </c>
@@ -9728,9 +9729,10 @@
       <c r="AF2" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="AG2" s="84"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="84"/>
     </row>
-    <row r="3" spans="1:177" ht="12">
+    <row r="3" spans="1:178" ht="12">
       <c r="A3" s="85" t="s">
         <v>43</v>
       </c>
@@ -9773,9 +9775,10 @@
       <c r="AF3" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="AG3" s="86"/>
+      <c r="AG3" s="89"/>
+      <c r="AH3" s="86"/>
     </row>
-    <row r="4" spans="1:177" ht="12">
+    <row r="4" spans="1:178" ht="12">
       <c r="A4" s="87"/>
       <c r="B4" s="90"/>
       <c r="C4" s="90"/>
@@ -9808,9 +9811,10 @@
       <c r="AD4" s="98"/>
       <c r="AE4" s="99"/>
       <c r="AF4" s="87"/>
-      <c r="AG4" s="88"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="88"/>
     </row>
-    <row r="5" spans="1:177" s="7" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" spans="1:178" s="7" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -9843,9 +9847,9 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="6"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="5"/>
       <c r="AJ5" s="6"/>
       <c r="AK5" s="6"/>
       <c r="AL5" s="6"/>
@@ -9988,8 +9992,9 @@
       <c r="FS5" s="6"/>
       <c r="FT5" s="6"/>
       <c r="FU5" s="6"/>
+      <c r="FV5" s="6"/>
     </row>
-    <row r="6" spans="1:177" ht="12.75" customHeight="1">
+    <row r="6" spans="1:178" ht="12.75" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -10022,9 +10027,10 @@
       <c r="AD6" s="9"/>
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
-      <c r="AG6" s="10"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="10"/>
     </row>
-    <row r="7" spans="1:177" ht="12.75" customHeight="1">
+    <row r="7" spans="1:178" ht="12.75" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -10057,9 +10063,10 @@
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
-      <c r="AG7" s="12"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="12"/>
     </row>
-    <row r="8" spans="1:177" ht="12.75" customHeight="1">
+    <row r="8" spans="1:178" ht="12.75" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -10092,9 +10099,10 @@
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
-      <c r="AG8" s="12"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="12"/>
     </row>
-    <row r="9" spans="1:177" ht="12.75" customHeight="1">
+    <row r="9" spans="1:178" ht="12.75" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -10127,9 +10135,10 @@
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
-      <c r="AG9" s="12"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="12"/>
     </row>
-    <row r="10" spans="1:177" ht="12.75" customHeight="1">
+    <row r="10" spans="1:178" ht="12.75" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -10162,9 +10171,10 @@
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
-      <c r="AG10" s="12"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="12"/>
     </row>
-    <row r="11" spans="1:177" ht="12.75" customHeight="1">
+    <row r="11" spans="1:178" ht="12.75" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -10197,9 +10207,10 @@
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
-      <c r="AG11" s="12"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="12"/>
     </row>
-    <row r="12" spans="1:177" ht="12.75" customHeight="1">
+    <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -10232,9 +10243,10 @@
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
-      <c r="AG12" s="12"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="12"/>
     </row>
-    <row r="13" spans="1:177" ht="12.75" customHeight="1">
+    <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -10266,9 +10278,10 @@
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
-      <c r="AG13" s="12"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="12"/>
     </row>
-    <row r="14" spans="1:177" ht="12.75" customHeight="1">
+    <row r="14" spans="1:178" ht="12.75" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -10293,9 +10306,10 @@
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
-      <c r="AG14" s="12"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="12"/>
     </row>
-    <row r="15" spans="1:177" ht="12.75" customHeight="1">
+    <row r="15" spans="1:178" ht="12.75" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -10321,9 +10335,10 @@
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
-      <c r="AG15" s="12"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="12"/>
     </row>
-    <row r="16" spans="1:177" ht="12.75" customHeight="1">
+    <row r="16" spans="1:178" ht="12.75" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -10349,9 +10364,10 @@
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
-      <c r="AG16" s="12"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="12"/>
     </row>
-    <row r="17" spans="1:33" ht="12.75" customHeight="1">
+    <row r="17" spans="1:34" ht="12.75" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -10376,9 +10392,10 @@
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
-      <c r="AG17" s="12"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="12"/>
     </row>
-    <row r="18" spans="1:33" ht="12.75" customHeight="1">
+    <row r="18" spans="1:34" ht="12.75" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -10410,9 +10427,10 @@
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
-      <c r="AG18" s="12"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="12"/>
     </row>
-    <row r="19" spans="1:33" ht="12.75" customHeight="1">
+    <row r="19" spans="1:34" ht="12.75" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -10444,9 +10462,10 @@
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
-      <c r="AG19" s="12"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="12"/>
     </row>
-    <row r="20" spans="1:33" ht="12.75" customHeight="1">
+    <row r="20" spans="1:34" ht="12.75" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -10476,9 +10495,10 @@
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
-      <c r="AG20" s="12"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="12"/>
     </row>
-    <row r="21" spans="1:33" ht="12.75" customHeight="1">
+    <row r="21" spans="1:34" ht="12.75" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -10510,9 +10530,10 @@
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
-      <c r="AG21" s="12"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="12"/>
     </row>
-    <row r="22" spans="1:33" ht="12.75" customHeight="1">
+    <row r="22" spans="1:34" ht="12.75" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -10544,9 +10565,10 @@
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
-      <c r="AG22" s="12"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="12"/>
     </row>
-    <row r="23" spans="1:33" ht="12.75" customHeight="1">
+    <row r="23" spans="1:34" ht="12.75" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -10577,9 +10599,10 @@
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
-      <c r="AG23" s="12"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="12"/>
     </row>
-    <row r="24" spans="1:33" ht="12.75" customHeight="1">
+    <row r="24" spans="1:34" ht="12.75" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -10610,9 +10633,10 @@
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
-      <c r="AG24" s="12"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="12"/>
     </row>
-    <row r="25" spans="1:33" ht="12.75" customHeight="1">
+    <row r="25" spans="1:34" ht="12.75" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -10637,9 +10661,10 @@
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
-      <c r="AG25" s="12"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="12"/>
     </row>
-    <row r="26" spans="1:33" ht="12.75" customHeight="1">
+    <row r="26" spans="1:34" ht="12.75" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -10665,9 +10690,10 @@
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
-      <c r="AG26" s="12"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="12"/>
     </row>
-    <row r="27" spans="1:33" ht="12.75" customHeight="1">
+    <row r="27" spans="1:34" ht="12.75" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -10692,9 +10718,10 @@
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
-      <c r="AG27" s="12"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="12"/>
     </row>
-    <row r="28" spans="1:33" ht="12.75" customHeight="1">
+    <row r="28" spans="1:34" ht="12.75" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -10719,9 +10746,10 @@
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
-      <c r="AG28" s="12"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="12"/>
     </row>
-    <row r="29" spans="1:33" ht="12.75" customHeight="1">
+    <row r="29" spans="1:34" ht="12.75" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -10746,9 +10774,10 @@
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
-      <c r="AG29" s="12"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="12"/>
     </row>
-    <row r="30" spans="1:33" ht="12.75" customHeight="1">
+    <row r="30" spans="1:34" ht="12.75" customHeight="1">
       <c r="A30" s="11"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -10773,9 +10802,10 @@
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
-      <c r="AG30" s="12"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="12"/>
     </row>
-    <row r="31" spans="1:33" ht="12.75" customHeight="1">
+    <row r="31" spans="1:34" ht="12.75" customHeight="1">
       <c r="A31" s="11"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -10800,9 +10830,10 @@
       <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
-      <c r="AG31" s="12"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="12"/>
     </row>
-    <row r="32" spans="1:33" ht="12.75" customHeight="1">
+    <row r="32" spans="1:34" ht="12.75" customHeight="1">
       <c r="A32" s="11"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -10827,9 +10858,10 @@
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
-      <c r="AG32" s="12"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="12"/>
     </row>
-    <row r="33" spans="1:33" ht="12.75" customHeight="1">
+    <row r="33" spans="1:34" ht="12.75" customHeight="1">
       <c r="A33" s="11"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -10862,9 +10894,10 @@
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
-      <c r="AG33" s="12"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="12"/>
     </row>
-    <row r="34" spans="1:33" ht="12.75" customHeight="1">
+    <row r="34" spans="1:34" ht="12.75" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -10897,9 +10930,10 @@
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
-      <c r="AG34" s="12"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="12"/>
     </row>
-    <row r="35" spans="1:33" ht="12.75" customHeight="1">
+    <row r="35" spans="1:34" ht="12.75" customHeight="1">
       <c r="A35" s="11"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -10932,9 +10966,10 @@
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
-      <c r="AG35" s="12"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="12"/>
     </row>
-    <row r="36" spans="1:33" ht="12.75" customHeight="1">
+    <row r="36" spans="1:34" ht="12.75" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -10967,9 +11002,10 @@
       <c r="AD36" s="5"/>
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
-      <c r="AG36" s="12"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="12"/>
     </row>
-    <row r="37" spans="1:33" ht="12.75" customHeight="1">
+    <row r="37" spans="1:34" ht="12.75" customHeight="1">
       <c r="A37" s="11"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -11002,9 +11038,10 @@
       <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
       <c r="AF37" s="5"/>
-      <c r="AG37" s="12"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="12"/>
     </row>
-    <row r="38" spans="1:33" ht="12.75" customHeight="1">
+    <row r="38" spans="1:34" ht="12.75" customHeight="1">
       <c r="A38" s="11"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -11037,9 +11074,10 @@
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
-      <c r="AG38" s="12"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="12"/>
     </row>
-    <row r="39" spans="1:33" ht="12.75" customHeight="1">
+    <row r="39" spans="1:34" ht="12.75" customHeight="1">
       <c r="A39" s="11"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -11072,9 +11110,10 @@
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
-      <c r="AG39" s="12"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="12"/>
     </row>
-    <row r="40" spans="1:33" ht="12.75" customHeight="1">
+    <row r="40" spans="1:34" ht="12.75" customHeight="1">
       <c r="A40" s="11"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -11107,9 +11146,10 @@
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
-      <c r="AG40" s="12"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="12"/>
     </row>
-    <row r="41" spans="1:33" ht="12.75" customHeight="1">
+    <row r="41" spans="1:34" ht="12.75" customHeight="1">
       <c r="A41" s="11"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -11142,9 +11182,10 @@
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
-      <c r="AG41" s="12"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="12"/>
     </row>
-    <row r="42" spans="1:33" ht="12.75" customHeight="1">
+    <row r="42" spans="1:34" ht="12.75" customHeight="1">
       <c r="A42" s="11"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -11177,9 +11218,10 @@
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
-      <c r="AG42" s="12"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="12"/>
     </row>
-    <row r="43" spans="1:33" ht="12.75" customHeight="1">
+    <row r="43" spans="1:34" ht="12.75" customHeight="1">
       <c r="A43" s="11"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -11212,9 +11254,10 @@
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
-      <c r="AG43" s="12"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="12"/>
     </row>
-    <row r="44" spans="1:33" ht="12.75" customHeight="1">
+    <row r="44" spans="1:34" ht="12.75" customHeight="1">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -11247,15 +11290,16 @@
       <c r="AD44" s="14"/>
       <c r="AE44" s="14"/>
       <c r="AF44" s="14"/>
-      <c r="AG44" s="15"/>
+      <c r="AG44" s="14"/>
+      <c r="AH44" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A1:AH1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AF3:AH4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:L4"/>
     <mergeCell ref="Z2:AE2"/>
@@ -12900,6 +12944,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2B0453A4F97AA4594841E00C62E1F84" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b4ec096b6f6caeabb13d9a32e416b02d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a400ae294e8a05ebb5f0513890681b30" ns2:_="">
     <xsd:import namespace="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
@@ -13071,26 +13134,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2943A47C-3A6D-4AAA-B52D-79C0E305302C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82CC02B3-FCE5-4223-8B61-A8382C5BF06A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13106,22 +13168,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2943A47C-3A6D-4AAA-B52D-79C0E305302C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面遷移図.xlsx
+++ b/02_画面設計書・モックアップ/画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\desktop-tutorial\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3F73E6-15EA-4298-B2FD-0884F0517518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EB4164-B0F0-4D40-8EE1-5BA0A21F935A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">画面遷移図!$A$1:$AG$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面遷移図()'!$A$1:$AH$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面遷移図()'!$A$1:$AH$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">記述様式!$A$1:$F$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$38</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">画面遷移図!$1:$4</definedName>
@@ -920,6 +920,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -928,9 +940,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -940,6 +958,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -960,15 +981,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -994,18 +1006,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1021,19 +1021,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2000,16 +2000,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>24188</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>100602</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>195150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>149448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>8140</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>86993</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>138397</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>135838</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2024,8 +2024,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2873547" y="3169769"/>
-          <a:ext cx="1123696" cy="963314"/>
+          <a:off x="10436560" y="1427589"/>
+          <a:ext cx="1123696" cy="1126134"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2225,13 +2225,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>258885</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>127722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>72289</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>113100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2391,16 +2391,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>220101</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>146345</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>276792</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>8140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>24189</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>93797</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>56986</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>154679</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2413,17 +2413,17 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="152" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2326143" y="3104021"/>
-          <a:ext cx="435913" cy="658896"/>
+          <a:off x="9244133" y="2169582"/>
+          <a:ext cx="1774744" cy="333783"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
@@ -2452,16 +2452,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>227950</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>61137</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>56988</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>113974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>16164</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>100602</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>195384</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>118124</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2474,17 +2474,17 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="152" idx="0"/>
-          <a:endCxn id="3" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="2931331" y="2665705"/>
-          <a:ext cx="365106" cy="643022"/>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="10575193" y="5462628"/>
+          <a:ext cx="138396" cy="4150"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2214729"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
@@ -2738,16 +2738,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>198759</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>91296</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>223181</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>42450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>223878</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>77688</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>134326</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28841</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2762,8 +2762,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4472797" y="3160463"/>
-          <a:ext cx="1164863" cy="963315"/>
+          <a:off x="12898758" y="4251360"/>
+          <a:ext cx="1164863" cy="1126135"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2963,13 +2963,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>107772</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>114080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>82</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>92926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3130,15 +3130,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>260513</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>138398</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>504744</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>32564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>130258</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>545448</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>81411</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3154,8 +3154,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3679744" y="2067821"/>
-          <a:ext cx="3573911" cy="1571218"/>
+          <a:off x="11299744" y="4241474"/>
+          <a:ext cx="667563" cy="537309"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3475,13 +3475,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>65128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>187244</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>81410</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3699,16 +3699,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>179104</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>130255</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>40707</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>130254</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>194806</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>131502</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>15703</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>155925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3723,7 +3723,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1318848" y="919934"/>
+          <a:off x="10282117" y="293075"/>
           <a:ext cx="1155445" cy="815350"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3912,16 +3912,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>130256</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>122116</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>195384</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>16283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>145957</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123363</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>97111</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3936,7 +3936,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="130256" y="911795"/>
+          <a:off x="11617243" y="333783"/>
           <a:ext cx="1155445" cy="815350"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4170,16 +4170,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>183521</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>130256</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>260513</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>48846</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>195385</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>48846</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>374487</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>65128</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4190,14 +4190,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="105" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="753393" y="3199423"/>
-          <a:ext cx="866671" cy="1383974"/>
+          <a:off x="10501923" y="2955192"/>
+          <a:ext cx="667564" cy="993205"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4286,16 +4284,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>203525</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>154679</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>138396</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>228644</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>141071</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>49541</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>59661</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4310,7 +4308,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4477563" y="4363589"/>
+          <a:off x="12813973" y="7050128"/>
           <a:ext cx="1164863" cy="963315"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4509,16 +4507,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>16164</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>86993</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>146421</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>143978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>203525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>147875</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>431473</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>74605</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4531,14 +4529,12 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="152" idx="2"/>
-          <a:endCxn id="50" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3600397" y="3968081"/>
-          <a:ext cx="712164" cy="1042168"/>
+          <a:off x="9083377" y="4468753"/>
+          <a:ext cx="4978063" cy="1815565"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4572,13 +4568,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9116</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>40705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>187243</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>41276</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4627,16 +4623,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>32564</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>89551</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>561731</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>32564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>57684</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>75943</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>472876</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>18956</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4651,7 +4647,230 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6016218" y="3158718"/>
+          <a:off x="13237308" y="2124808"/>
+          <a:ext cx="1164863" cy="1126135"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9072"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>G1-5-2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>チャット</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>138395</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>49540</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>59661</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="角丸四角形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B88575-DFB4-429D-8F8C-E81D62791443}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11560254" y="1677051"/>
           <a:ext cx="1164863" cy="963315"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4850,238 +5069,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>65126</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>81410</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>90246</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>67802</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="角丸四角形 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B88575-DFB4-429D-8F8C-E81D62791443}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6048780" y="4453141"/>
-          <a:ext cx="1164863" cy="963315"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 9072"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>G1-5-2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>チャット</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>227948</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>48847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>32564</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>56987</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5132,13 +5128,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>219808</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>16282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>16281</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19132</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5195,7 +5191,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>8141</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>40705</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5244,16 +5240,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>170961</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>48846</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>236089</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>196080</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>35238</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>147234</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5268,7 +5264,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="170961" y="4583397"/>
+          <a:off x="12911666" y="317500"/>
           <a:ext cx="1164863" cy="963315"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5469,13 +5465,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>146539</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>73270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>16282</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>48847</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5587,16 +5583,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>227949</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>138397</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>48845</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>24423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>89551</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>40705</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>284935</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>32563</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5611,8 +5607,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1937564" y="3207564"/>
-          <a:ext cx="6415128" cy="3484359"/>
+          <a:off x="12097563" y="7978205"/>
+          <a:ext cx="2116667" cy="985063"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5876,13 +5872,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>97692</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>154679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>286563</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>141237</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6045,13 +6041,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>73270</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>40705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>266797</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>19551</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6212,16 +6208,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>56987</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>24423</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>32564</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>89551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>234232</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>3269</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>226091</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>68397</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6236,7 +6232,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5470769" y="5210256"/>
+          <a:off x="10273974" y="6415128"/>
           <a:ext cx="747117" cy="304487"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6381,16 +6377,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>260512</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>81411</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>260511</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>158748</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>59828</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>394837</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>141239</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6405,7 +6401,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7953781" y="6895449"/>
+          <a:off x="10778716" y="5023014"/>
           <a:ext cx="1037980" cy="304058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6550,16 +6546,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>48846</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>8141</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>219805</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>122116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>48846</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>16282</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>545447</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>130256</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6574,8 +6570,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2613269" y="1449103"/>
-          <a:ext cx="5413782" cy="2450448"/>
+          <a:off x="9907626" y="7424616"/>
+          <a:ext cx="1432821" cy="1147884"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6670,16 +6666,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>154679</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>56987</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>480320</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>24423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>56986</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>73269</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>325640</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>40705</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6694,7 +6690,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5568461" y="4917179"/>
+          <a:off x="11902179" y="6675641"/>
           <a:ext cx="472179" cy="16282"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6728,15 +6724,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>227948</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>16282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>472179</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>16282</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>73268</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>32564</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6751,7 +6747,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11136923" y="2417885"/>
+          <a:off x="11649807" y="6179038"/>
           <a:ext cx="472179" cy="16282"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6784,16 +6780,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>56987</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>56987</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>113974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>229576</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>43545</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>115602</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>100532</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6808,7 +6804,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5470769" y="4428718"/>
+          <a:off x="10795000" y="6439551"/>
           <a:ext cx="742461" cy="312199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7130,7 +7126,7 @@
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>115602</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>149378</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7291,16 +7287,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>97692</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>81410</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>512885</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>113974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>274937</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>60256</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>6284</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>92820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7315,7 +7311,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5511474" y="3964679"/>
+          <a:off x="11307885" y="3834423"/>
           <a:ext cx="747117" cy="304487"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7462,13 +7458,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>366345</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>2850</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7517,16 +7513,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>227948</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>122115</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>569871</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>32563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>24421</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>124965</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>309357</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>35413</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7541,7 +7537,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5641730" y="5145128"/>
+          <a:off x="12618589" y="6683781"/>
           <a:ext cx="366345" cy="2850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -8181,16 +8177,16 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="77" t="s">
+      <c r="X3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="79">
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="48">
         <v>44830</v>
       </c>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="78"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="47"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="12"/>
@@ -8308,20 +8304,20 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="51"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="61"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -8339,80 +8335,80 @@
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="71" t="s">
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="73"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="77"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="77" t="s">
+      <c r="X8" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="77" t="s">
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="78"/>
-      <c r="AB8" s="77" t="s">
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AC8" s="78"/>
+      <c r="AC8" s="47"/>
       <c r="AD8" s="31"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15" customHeight="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="76"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="80"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="55" t="s">
+      <c r="X9" s="62"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="AC9" s="56"/>
+      <c r="AC9" s="63"/>
       <c r="AD9" s="31"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="12"/>
@@ -8441,12 +8437,12 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="58"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="65"/>
       <c r="AD10" s="31"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="12"/>
@@ -8475,12 +8471,12 @@
       <c r="U11" s="29"/>
       <c r="V11" s="29"/>
       <c r="W11" s="29"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="60"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="67"/>
       <c r="AD11" s="31"/>
       <c r="AE11" s="29"/>
       <c r="AF11" s="12"/>
@@ -8521,106 +8517,106 @@
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="61"/>
-      <c r="AC13" s="61"/>
-      <c r="AD13" s="61"/>
-      <c r="AE13" s="61"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="68"/>
       <c r="AF13" s="12"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="11"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="61"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
       <c r="AF14" s="12"/>
     </row>
     <row r="15" spans="1:176" ht="15" customHeight="1">
       <c r="A15" s="11"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="61"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="61"/>
-      <c r="AB15" s="61"/>
-      <c r="AC15" s="61"/>
-      <c r="AD15" s="61"/>
-      <c r="AE15" s="61"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="68"/>
       <c r="AF15" s="12"/>
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
@@ -8759,630 +8755,630 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="46" t="s">
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="46" t="s">
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="46" t="s">
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="48"/>
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="52"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="62">
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="53">
         <v>44830</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="52" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="46" t="s">
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="48"/>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="52"/>
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="11"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="54"/>
-      <c r="AC22" s="46"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="48"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="52"/>
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="54"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="48"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="57"/>
+      <c r="AB23" s="58"/>
+      <c r="AC23" s="50"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="52"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="54"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="47"/>
-      <c r="AE24" s="48"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="51"/>
+      <c r="AE24" s="52"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="11"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="53"/>
-      <c r="AB25" s="54"/>
-      <c r="AC25" s="46"/>
-      <c r="AD25" s="47"/>
-      <c r="AE25" s="48"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="57"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="52"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="53"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="53"/>
-      <c r="AB26" s="54"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="47"/>
-      <c r="AE26" s="48"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="52"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="11"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="54"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="47"/>
-      <c r="AE27" s="48"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="51"/>
+      <c r="AE27" s="52"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="11"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="53"/>
-      <c r="Z28" s="53"/>
-      <c r="AA28" s="53"/>
-      <c r="AB28" s="54"/>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="47"/>
-      <c r="AE28" s="48"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="52"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="53"/>
-      <c r="AA29" s="53"/>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="46"/>
-      <c r="AD29" s="47"/>
-      <c r="AE29" s="48"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="57"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="52"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="53"/>
-      <c r="AA30" s="53"/>
-      <c r="AB30" s="54"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="47"/>
-      <c r="AE30" s="48"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="57"/>
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="50"/>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="52"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="11"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="54"/>
-      <c r="AC31" s="46"/>
-      <c r="AD31" s="47"/>
-      <c r="AE31" s="48"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="57"/>
+      <c r="Z31" s="57"/>
+      <c r="AA31" s="57"/>
+      <c r="AB31" s="58"/>
+      <c r="AC31" s="50"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="52"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="11"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="53"/>
-      <c r="Z32" s="53"/>
-      <c r="AA32" s="53"/>
-      <c r="AB32" s="54"/>
-      <c r="AC32" s="46"/>
-      <c r="AD32" s="47"/>
-      <c r="AE32" s="48"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="57"/>
+      <c r="Z32" s="57"/>
+      <c r="AA32" s="57"/>
+      <c r="AB32" s="58"/>
+      <c r="AC32" s="50"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="52"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="11"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="53"/>
-      <c r="Z33" s="53"/>
-      <c r="AA33" s="53"/>
-      <c r="AB33" s="54"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="47"/>
-      <c r="AE33" s="48"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="57"/>
+      <c r="X33" s="57"/>
+      <c r="Y33" s="57"/>
+      <c r="Z33" s="57"/>
+      <c r="AA33" s="57"/>
+      <c r="AB33" s="58"/>
+      <c r="AC33" s="50"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="52"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="11"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="53"/>
-      <c r="V34" s="53"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="53"/>
-      <c r="Y34" s="53"/>
-      <c r="Z34" s="53"/>
-      <c r="AA34" s="53"/>
-      <c r="AB34" s="54"/>
-      <c r="AC34" s="46"/>
-      <c r="AD34" s="47"/>
-      <c r="AE34" s="48"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="57"/>
+      <c r="AA34" s="57"/>
+      <c r="AB34" s="58"/>
+      <c r="AC34" s="50"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="52"/>
       <c r="AF34" s="12"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="53"/>
-      <c r="V35" s="53"/>
-      <c r="W35" s="53"/>
-      <c r="X35" s="53"/>
-      <c r="Y35" s="53"/>
-      <c r="Z35" s="53"/>
-      <c r="AA35" s="53"/>
-      <c r="AB35" s="54"/>
-      <c r="AC35" s="46"/>
-      <c r="AD35" s="47"/>
-      <c r="AE35" s="48"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="57"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="57"/>
+      <c r="X35" s="57"/>
+      <c r="Y35" s="57"/>
+      <c r="Z35" s="57"/>
+      <c r="AA35" s="57"/>
+      <c r="AB35" s="58"/>
+      <c r="AC35" s="50"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="52"/>
       <c r="AF35" s="12"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="53"/>
-      <c r="W36" s="53"/>
-      <c r="X36" s="53"/>
-      <c r="Y36" s="53"/>
-      <c r="Z36" s="53"/>
-      <c r="AA36" s="53"/>
-      <c r="AB36" s="54"/>
-      <c r="AC36" s="46"/>
-      <c r="AD36" s="47"/>
-      <c r="AE36" s="48"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="57"/>
+      <c r="Y36" s="57"/>
+      <c r="Z36" s="57"/>
+      <c r="AA36" s="57"/>
+      <c r="AB36" s="58"/>
+      <c r="AC36" s="50"/>
+      <c r="AD36" s="51"/>
+      <c r="AE36" s="52"/>
       <c r="AF36" s="12"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="53"/>
-      <c r="W37" s="53"/>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="53"/>
-      <c r="Z37" s="53"/>
-      <c r="AA37" s="53"/>
-      <c r="AB37" s="54"/>
-      <c r="AC37" s="46"/>
-      <c r="AD37" s="47"/>
-      <c r="AE37" s="48"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="57"/>
+      <c r="T37" s="57"/>
+      <c r="U37" s="57"/>
+      <c r="V37" s="57"/>
+      <c r="W37" s="57"/>
+      <c r="X37" s="57"/>
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57"/>
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="58"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="51"/>
+      <c r="AE37" s="52"/>
       <c r="AF37" s="12"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -9421,53 +9417,27 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="Z9:AA11"/>
+    <mergeCell ref="AB9:AC11"/>
+    <mergeCell ref="B13:AE15"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="J20:AB20"/>
+    <mergeCell ref="J21:AB21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="F8:Q9"/>
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
     <mergeCell ref="AC37:AE37"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="J22:AB22"/>
@@ -9484,27 +9454,53 @@
     <mergeCell ref="J33:AB33"/>
     <mergeCell ref="AC33:AE33"/>
     <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="Z9:AA11"/>
-    <mergeCell ref="AB9:AC11"/>
-    <mergeCell ref="B13:AE15"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="J20:AB20"/>
-    <mergeCell ref="J21:AB21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="B8:E9"/>
-    <mergeCell ref="F8:Q9"/>
-    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -9633,10 +9629,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:FV44"/>
+  <dimension ref="A1:FV45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AL7" sqref="AL7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -9736,19 +9732,19 @@
       <c r="A3" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="86"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87"/>
       <c r="G3" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
       <c r="M3" s="100" t="s">
         <v>46</v>
       </c>
@@ -9775,22 +9771,22 @@
       <c r="AF3" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="AG3" s="89"/>
-      <c r="AH3" s="86"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="87"/>
     </row>
     <row r="4" spans="1:178" ht="12">
-      <c r="A4" s="87"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="88"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
       <c r="M4" s="103"/>
       <c r="N4" s="104"/>
       <c r="O4" s="104"/>
@@ -9810,9 +9806,9 @@
       <c r="AC4" s="98"/>
       <c r="AD4" s="98"/>
       <c r="AE4" s="99"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="90"/>
     </row>
     <row r="5" spans="1:178" s="7" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="2"/>
@@ -10383,7 +10379,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="Q17" s="5"/>
+      <c r="P17" s="5"/>
       <c r="R17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
@@ -10547,8 +10543,6 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -10568,7 +10562,7 @@
       <c r="AG22" s="5"/>
       <c r="AH22" s="12"/>
     </row>
-    <row r="23" spans="1:34" ht="12.75" customHeight="1">
+    <row r="23" spans="1:34" ht="12.5" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -10586,6 +10580,7 @@
       <c r="O23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
@@ -10620,10 +10615,10 @@
       <c r="O24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
@@ -10654,6 +10649,12 @@
       <c r="O25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
@@ -10682,7 +10683,6 @@
       <c r="O26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
@@ -10711,6 +10711,7 @@
       <c r="O27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
@@ -10877,16 +10878,8 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
@@ -11258,40 +11251,76 @@
       <c r="AH43" s="12"/>
     </row>
     <row r="44" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
-      <c r="Y44" s="14"/>
-      <c r="Z44" s="14"/>
-      <c r="AA44" s="14"/>
-      <c r="AB44" s="14"/>
-      <c r="AC44" s="14"/>
-      <c r="AD44" s="14"/>
-      <c r="AE44" s="14"/>
-      <c r="AF44" s="14"/>
-      <c r="AG44" s="14"/>
-      <c r="AH44" s="15"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="12"/>
+    </row>
+    <row r="45" spans="1:34" ht="12.75" customHeight="1">
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="14"/>
+      <c r="Z45" s="14"/>
+      <c r="AA45" s="14"/>
+      <c r="AB45" s="14"/>
+      <c r="AC45" s="14"/>
+      <c r="AD45" s="14"/>
+      <c r="AE45" s="14"/>
+      <c r="AF45" s="14"/>
+      <c r="AG45" s="14"/>
+      <c r="AH45" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11417,17 +11446,17 @@
     </row>
     <row r="3" spans="1:177" ht="12">
       <c r="A3" s="85"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="86"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87"/>
       <c r="G3" s="85"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
       <c r="M3" s="106"/>
       <c r="N3" s="107"/>
       <c r="O3" s="107"/>
@@ -11450,21 +11479,21 @@
       <c r="AD3" s="95"/>
       <c r="AE3" s="96"/>
       <c r="AF3" s="85"/>
-      <c r="AG3" s="86"/>
+      <c r="AG3" s="87"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="87"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="88"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
       <c r="M4" s="109"/>
       <c r="N4" s="110"/>
       <c r="O4" s="110"/>
@@ -11484,8 +11513,8 @@
       <c r="AC4" s="98"/>
       <c r="AD4" s="98"/>
       <c r="AE4" s="99"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="90"/>
     </row>
     <row r="5" spans="1:177" s="7" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="2"/>
@@ -12944,25 +12973,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2B0453A4F97AA4594841E00C62E1F84" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b4ec096b6f6caeabb13d9a32e416b02d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a400ae294e8a05ebb5f0513890681b30" ns2:_="">
     <xsd:import namespace="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
@@ -13134,25 +13144,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2943A47C-3A6D-4AAA-B52D-79C0E305302C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82CC02B3-FCE5-4223-8B61-A8382C5BF06A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13168,4 +13179,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2943A47C-3A6D-4AAA-B52D-79C0E305302C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面遷移図.xlsx
+++ b/02_画面設計書・モックアップ/画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\desktop-tutorial\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EB4164-B0F0-4D40-8EE1-5BA0A21F935A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC29D875-C812-4FAE-8011-FBA10E0EF350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -920,18 +920,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -940,15 +928,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -958,9 +940,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -981,6 +960,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1006,6 +994,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1787,229 +1787,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>212249</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>97456</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>138749</xdr:rowOff>
+      <xdr:rowOff>35473</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>227950</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>146346</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62648A7C-9200-4B5B-A07D-BDFAB533A3EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1636928" y="2393813"/>
-          <a:ext cx="1155445" cy="821700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>G1-1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ログイン</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>195150</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>149448</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>138397</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>135838</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>73268</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>21863</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2024,8 +1811,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10436560" y="1427589"/>
-          <a:ext cx="1123696" cy="1126134"/>
+          <a:off x="2376943" y="2290537"/>
+          <a:ext cx="3679979" cy="1126134"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2170,7 +1957,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>G1-2</a:t>
+            <a:t>G1-1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2223,16 +2010,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>258885</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>356577</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>127722</xdr:rowOff>
+      <xdr:rowOff>95158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>72289</xdr:colOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>56007</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>113100</xdr:rowOff>
+      <xdr:rowOff>80536</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2247,7 +2034,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1968500" y="3685350"/>
+          <a:off x="13659013" y="3815607"/>
           <a:ext cx="953148" cy="311019"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2513,16 +2300,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>3530</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>53011</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>44235</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>77434</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>78526</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>27786</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>347180</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>52209</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2537,7 +2324,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2852889" y="2470896"/>
+          <a:off x="11466094" y="2983780"/>
           <a:ext cx="929804" cy="300416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2681,16 +2468,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>65129</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>122115</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>146539</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>138397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>105834</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>113974</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>415192</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>130256</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2705,7 +2492,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="919937" y="1725897"/>
+          <a:off x="14075834" y="1416538"/>
           <a:ext cx="895512" cy="643141"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2961,16 +2748,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>107772</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114080</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>148477</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>65234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>82</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>92926</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>268735</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>44080</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2985,7 +2772,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3811939" y="3997349"/>
+          <a:off x="12197195" y="5739529"/>
           <a:ext cx="747117" cy="304487"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3247,16 +3034,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>155984</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>23390</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>253677</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>153646</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>43638</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9948</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>92484</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>140204</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3271,7 +3058,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3860151" y="2929736"/>
+          <a:off x="10771882" y="4851018"/>
           <a:ext cx="742461" cy="312199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3416,16 +3203,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>101066</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>137741</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>361578</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>145882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>236090</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>24423</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>382627</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>32565</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3440,7 +3227,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="386002" y="1741523"/>
+          <a:off x="13664014" y="3540690"/>
           <a:ext cx="1274767" cy="700785"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3473,16 +3260,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>65128</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>24424</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>113974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>187244</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>81410</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>496603</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>130256</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3497,7 +3284,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3989103" y="3459936"/>
+          <a:off x="11446283" y="5625448"/>
           <a:ext cx="472179" cy="16282"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3530,16 +3317,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>154679</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142468</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>122116</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>52916</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>120885</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>533237</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>137168</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3554,7 +3341,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6993141" y="1094968"/>
+          <a:off x="12797693" y="1436892"/>
           <a:ext cx="1037980" cy="304058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3699,16 +3486,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>40707</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>130254</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>48848</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>56985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>15703</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>155925</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>64550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>58232</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3723,7 +3510,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10282117" y="293075"/>
+          <a:off x="333784" y="1009485"/>
           <a:ext cx="1155445" cy="815350"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3912,16 +3699,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>195384</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>16283</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>122114</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>122116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>97111</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>33812</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>137816</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123363</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3936,7 +3723,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11617243" y="333783"/>
+          <a:off x="6960576" y="911795"/>
           <a:ext cx="1155445" cy="815350"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4111,16 +3898,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>203238</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>131503</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>244231</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>220100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>138749</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>357917</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>24423</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4131,14 +3918,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2197789" y="1735285"/>
-          <a:ext cx="16862" cy="658528"/>
+        <a:xfrm flipV="1">
+          <a:off x="12919808" y="2793618"/>
+          <a:ext cx="113686" cy="299972"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4227,16 +4012,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>24423</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>130257</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>252372</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>24424</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>154679</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>252373</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>24423</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4251,7 +4036,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2018974" y="1734039"/>
+          <a:off x="12927949" y="2092245"/>
           <a:ext cx="1" cy="675704"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4566,16 +4351,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9116</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>40705</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>359181</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>48846</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>187243</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>41276</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>195384</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>49417</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4590,7 +4375,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3998219" y="3923974"/>
+          <a:off x="12407899" y="6048782"/>
           <a:ext cx="463062" cy="571"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4623,16 +4408,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>561731</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>32564</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>227949</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>24424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>472876</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>18956</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>253068</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>10815</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4647,7 +4432,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13237308" y="2124808"/>
+          <a:off x="4786923" y="3582052"/>
           <a:ext cx="1164863" cy="1126135"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4846,16 +4631,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>138395</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>73269</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>40703</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>48846</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>49540</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>59661</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>65823</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>35238</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4870,7 +4655,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11560254" y="1677051"/>
+          <a:off x="3174998" y="3606474"/>
           <a:ext cx="1164863" cy="963315"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5030,7 +4815,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>チャット</a:t>
+            <a:t>話題作成</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1050">
             <a:solidFill>
@@ -5069,16 +4854,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>227948</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>48847</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>374487</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>32564</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>56987</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>122116</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>8141</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5093,7 +4878,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5641730" y="3443655"/>
+          <a:off x="12423205" y="6325578"/>
           <a:ext cx="374488" cy="8140"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5126,15 +4911,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>219808</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>195385</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>16282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>16281</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>561730</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>19132</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5150,7 +4935,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5633590" y="3899551"/>
+          <a:off x="11617244" y="5853397"/>
           <a:ext cx="366345" cy="2850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5183,16 +4968,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>154679</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>56987</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>219807</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>8141</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>40705</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>301217</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>130256</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5207,8 +4992,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1009487" y="3288974"/>
-          <a:ext cx="708269" cy="1286282"/>
+          <a:off x="14149102" y="2401602"/>
+          <a:ext cx="708269" cy="1449103"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5701,16 +5486,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>8141</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>138397</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>203525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>180730</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>124955</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>319127</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133097</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5725,7 +5510,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5421923" y="2881923"/>
+          <a:off x="11625384" y="5006731"/>
           <a:ext cx="742461" cy="312199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7566,6 +7351,1256 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>73269</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>40705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88971</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>41953</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="角丸四角形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4923059C-E794-4735-AAF2-FBEE9D55ADDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="358205" y="3435513"/>
+          <a:ext cx="1155445" cy="815350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>G1-3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>新規登録</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>56987</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>72689</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="角丸四角形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD9B6D6-8BA1-42B6-854B-B6A3AC52F21B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="341923" y="2238782"/>
+          <a:ext cx="1155445" cy="815350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>G1-3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>新規登録</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4163</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19865</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>35953</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="角丸四角形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D95D95D7-AAB1-4F83-8BFF-6E8584A50BD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3138458" y="980856"/>
+          <a:ext cx="1155445" cy="821700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>G1-1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ログイン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>119835</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>136118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>135537</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>137365</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="角丸四角形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D3AD84-8859-46B1-89F6-042D3379EBFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6958297" y="2065541"/>
+          <a:ext cx="1155445" cy="815350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>G1-4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>パスワード再設定画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>68708</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>150121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>84410</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>151368</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="角丸四角形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A19FAADB-A799-469D-8052-E34AC256AE82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6907170" y="3382108"/>
+          <a:ext cx="1155445" cy="815350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>G1-4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>パスワード再設定画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>221692</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>34217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>237393</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>41814</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="角丸四角形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA2BF92-8DB6-411F-9E2B-9F5299DA38F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495730" y="986717"/>
+          <a:ext cx="1155445" cy="821700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>G1-8</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>完了画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8177,16 +9212,16 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="46" t="s">
+      <c r="X3" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="48">
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="79">
         <v>44830</v>
       </c>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="47"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="78"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="12"/>
@@ -8304,20 +9339,20 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="61"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="51"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -8335,80 +9370,80 @@
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="75" t="s">
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="77"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="73"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="46" t="s">
+      <c r="X8" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="46" t="s">
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="46" t="s">
+      <c r="AA8" s="78"/>
+      <c r="AB8" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="AC8" s="47"/>
+      <c r="AC8" s="78"/>
       <c r="AD8" s="31"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15" customHeight="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="80"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="76"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="62" t="s">
+      <c r="X9" s="55"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="AC9" s="63"/>
+      <c r="AC9" s="56"/>
       <c r="AD9" s="31"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="12"/>
@@ -8437,12 +9472,12 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="65"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="58"/>
       <c r="AD10" s="31"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="12"/>
@@ -8471,12 +9506,12 @@
       <c r="U11" s="29"/>
       <c r="V11" s="29"/>
       <c r="W11" s="29"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="67"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="60"/>
       <c r="AD11" s="31"/>
       <c r="AE11" s="29"/>
       <c r="AF11" s="12"/>
@@ -8517,106 +9552,106 @@
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="68"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="61"/>
       <c r="AF13" s="12"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="11"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="68"/>
-      <c r="AC14" s="68"/>
-      <c r="AD14" s="68"/>
-      <c r="AE14" s="68"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="61"/>
       <c r="AF14" s="12"/>
     </row>
     <row r="15" spans="1:176" ht="15" customHeight="1">
       <c r="A15" s="11"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="68"/>
-      <c r="AE15" s="68"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="61"/>
       <c r="AF15" s="12"/>
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
@@ -8755,630 +9790,630 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="50" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="50" t="s">
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="50" t="s">
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AD20" s="51"/>
-      <c r="AE20" s="52"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="48"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53">
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="62">
         <v>44830</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="56" t="s">
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="50" t="s">
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="52"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="48"/>
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="11"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="52"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="46"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="48"/>
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="57"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="57"/>
-      <c r="X23" s="57"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="57"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="50"/>
-      <c r="AD23" s="51"/>
-      <c r="AE23" s="52"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="48"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="57"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="51"/>
-      <c r="AE24" s="52"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="54"/>
+      <c r="AC24" s="46"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="48"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="11"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="50"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="52"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="54"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="48"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="57"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="50"/>
-      <c r="AD26" s="51"/>
-      <c r="AE26" s="52"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="54"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="48"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="11"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="50"/>
-      <c r="AD27" s="51"/>
-      <c r="AE27" s="52"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="54"/>
+      <c r="AC27" s="46"/>
+      <c r="AD27" s="47"/>
+      <c r="AE27" s="48"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="11"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="50"/>
-      <c r="AD28" s="51"/>
-      <c r="AE28" s="52"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="53"/>
+      <c r="AB28" s="54"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="48"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="57"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57"/>
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="52"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="46"/>
+      <c r="AD29" s="47"/>
+      <c r="AE29" s="48"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="57"/>
-      <c r="S30" s="57"/>
-      <c r="T30" s="57"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="57"/>
-      <c r="Y30" s="57"/>
-      <c r="Z30" s="57"/>
-      <c r="AA30" s="57"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="52"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AB30" s="54"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="47"/>
+      <c r="AE30" s="48"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="11"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="57"/>
-      <c r="X31" s="57"/>
-      <c r="Y31" s="57"/>
-      <c r="Z31" s="57"/>
-      <c r="AA31" s="57"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="51"/>
-      <c r="AE31" s="52"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="46"/>
+      <c r="AD31" s="47"/>
+      <c r="AE31" s="48"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="11"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="57"/>
-      <c r="S32" s="57"/>
-      <c r="T32" s="57"/>
-      <c r="U32" s="57"/>
-      <c r="V32" s="57"/>
-      <c r="W32" s="57"/>
-      <c r="X32" s="57"/>
-      <c r="Y32" s="57"/>
-      <c r="Z32" s="57"/>
-      <c r="AA32" s="57"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="50"/>
-      <c r="AD32" s="51"/>
-      <c r="AE32" s="52"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="53"/>
+      <c r="AA32" s="53"/>
+      <c r="AB32" s="54"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="47"/>
+      <c r="AE32" s="48"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="11"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="57"/>
-      <c r="S33" s="57"/>
-      <c r="T33" s="57"/>
-      <c r="U33" s="57"/>
-      <c r="V33" s="57"/>
-      <c r="W33" s="57"/>
-      <c r="X33" s="57"/>
-      <c r="Y33" s="57"/>
-      <c r="Z33" s="57"/>
-      <c r="AA33" s="57"/>
-      <c r="AB33" s="58"/>
-      <c r="AC33" s="50"/>
-      <c r="AD33" s="51"/>
-      <c r="AE33" s="52"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="53"/>
+      <c r="AA33" s="53"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="46"/>
+      <c r="AD33" s="47"/>
+      <c r="AE33" s="48"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="11"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="57"/>
-      <c r="S34" s="57"/>
-      <c r="T34" s="57"/>
-      <c r="U34" s="57"/>
-      <c r="V34" s="57"/>
-      <c r="W34" s="57"/>
-      <c r="X34" s="57"/>
-      <c r="Y34" s="57"/>
-      <c r="Z34" s="57"/>
-      <c r="AA34" s="57"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="50"/>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="52"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="53"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="53"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="53"/>
+      <c r="AA34" s="53"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="46"/>
+      <c r="AD34" s="47"/>
+      <c r="AE34" s="48"/>
       <c r="AF34" s="12"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="57"/>
-      <c r="T35" s="57"/>
-      <c r="U35" s="57"/>
-      <c r="V35" s="57"/>
-      <c r="W35" s="57"/>
-      <c r="X35" s="57"/>
-      <c r="Y35" s="57"/>
-      <c r="Z35" s="57"/>
-      <c r="AA35" s="57"/>
-      <c r="AB35" s="58"/>
-      <c r="AC35" s="50"/>
-      <c r="AD35" s="51"/>
-      <c r="AE35" s="52"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="53"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="53"/>
+      <c r="Y35" s="53"/>
+      <c r="Z35" s="53"/>
+      <c r="AA35" s="53"/>
+      <c r="AB35" s="54"/>
+      <c r="AC35" s="46"/>
+      <c r="AD35" s="47"/>
+      <c r="AE35" s="48"/>
       <c r="AF35" s="12"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="57"/>
-      <c r="S36" s="57"/>
-      <c r="T36" s="57"/>
-      <c r="U36" s="57"/>
-      <c r="V36" s="57"/>
-      <c r="W36" s="57"/>
-      <c r="X36" s="57"/>
-      <c r="Y36" s="57"/>
-      <c r="Z36" s="57"/>
-      <c r="AA36" s="57"/>
-      <c r="AB36" s="58"/>
-      <c r="AC36" s="50"/>
-      <c r="AD36" s="51"/>
-      <c r="AE36" s="52"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="53"/>
+      <c r="AB36" s="54"/>
+      <c r="AC36" s="46"/>
+      <c r="AD36" s="47"/>
+      <c r="AE36" s="48"/>
       <c r="AF36" s="12"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57"/>
-      <c r="S37" s="57"/>
-      <c r="T37" s="57"/>
-      <c r="U37" s="57"/>
-      <c r="V37" s="57"/>
-      <c r="W37" s="57"/>
-      <c r="X37" s="57"/>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57"/>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="58"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="51"/>
-      <c r="AE37" s="52"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="53"/>
+      <c r="W37" s="53"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="53"/>
+      <c r="Z37" s="53"/>
+      <c r="AA37" s="53"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="47"/>
+      <c r="AE37" s="48"/>
       <c r="AF37" s="12"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -9417,6 +10452,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="J22:AB22"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="AC21:AE21"/>
@@ -9433,74 +10536,6 @@
     <mergeCell ref="B8:E9"/>
     <mergeCell ref="F8:Q9"/>
     <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="J22:AB22"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -9631,8 +10666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:FV45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -12973,6 +14008,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2B0453A4F97AA4594841E00C62E1F84" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b4ec096b6f6caeabb13d9a32e416b02d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a400ae294e8a05ebb5f0513890681b30" ns2:_="">
     <xsd:import namespace="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
@@ -13144,26 +14198,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2943A47C-3A6D-4AAA-B52D-79C0E305302C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82CC02B3-FCE5-4223-8B61-A8382C5BF06A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13179,22 +14232,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2943A47C-3A6D-4AAA-B52D-79C0E305302C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面遷移図.xlsx
+++ b/02_画面設計書・モックアップ/画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\desktop-tutorial\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546851D4-BB78-48F8-BD48-FBFB177066BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C466D3D-9F13-4084-AB03-3748A81236A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">画面遷移図!$A$1:$AG$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面遷移図()'!$A$1:$AJ$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面遷移図()'!$A$1:$AL$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">記述様式!$A$1:$F$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$38</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">画面遷移図!$1:$4</definedName>
@@ -1825,13 +1825,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>178866</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>149447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>276794</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>135838</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2026,13 +2026,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>87922</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>95158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>186263</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>80536</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2192,15 +2192,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>244232</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>32564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>105833</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>36714</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2255,13 +2255,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>84940</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>53011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>159937</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>27786</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2421,15 +2421,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>122115</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>138397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>130257</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>56986</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2478,15 +2478,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>42644</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>130362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>162902</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>109208</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2649,13 +2649,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>245536</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>121083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>133190</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>107641</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2816,16 +2816,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>271652</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>128601</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>239086</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>176824</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>134462</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>144260</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>36769</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2843,8 +2843,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5400498" y="1406742"/>
-          <a:ext cx="475044" cy="5861"/>
+          <a:off x="7077548" y="1138089"/>
+          <a:ext cx="475045" cy="14001"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2878,13 +2878,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>48847</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>122113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>64549</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>123360</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3089,16 +3089,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>284935</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>195383</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>56987</xdr:rowOff>
+      <xdr:rowOff>40705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>15700</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>58234</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>211085</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>130256</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3113,8 +3113,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7408332" y="1009487"/>
-          <a:ext cx="1155445" cy="815350"/>
+          <a:off x="9313332" y="993205"/>
+          <a:ext cx="1155445" cy="1229295"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3257,7 +3257,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>G1-7-3</a:t>
+            <a:t>G1-7-4</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3290,13 +3290,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>162820</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>154680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>170961</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>81410</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3347,13 +3347,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>203526</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>113975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>211526</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>68711</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3406,13 +3406,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>16283</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>154680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>24423</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>154680</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3463,13 +3463,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>65822</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>78720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>34449</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>90889</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3523,13 +3523,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>268655</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>138398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>8838</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>124789</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3746,13 +3746,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>40703</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>97692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>65822</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>84084</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3967,16 +3967,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>192525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>128601</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>179102</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>138397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>284935</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>139021</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>162820</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3987,15 +3987,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="33" idx="3"/>
-          <a:endCxn id="7" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7030987" y="1406742"/>
-          <a:ext cx="377345" cy="10420"/>
+          <a:off x="8727179" y="1253718"/>
+          <a:ext cx="553590" cy="8141"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4029,13 +4026,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>146539</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>130256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>146539</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>146538</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4084,15 +4081,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>398909</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>24423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>407051</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>81410</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4143,13 +4140,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>138396</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>113975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>163515</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>100367</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4366,13 +4363,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>146538</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>122116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>34192</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>108674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4535,13 +4532,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>154679</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>122114</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>42333</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>108672</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4702,16 +4699,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>284936</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>89551</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>195385</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>130256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>405194</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>68397</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>87694</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>109102</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4726,7 +4723,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12276667" y="2833077"/>
+          <a:off x="5324231" y="1896859"/>
           <a:ext cx="747117" cy="304487"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4871,15 +4868,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>317501</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>56987</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>437759</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>35833</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5042,13 +5039,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>130255</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>154680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28491</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>133097</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5211,13 +5208,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>65129</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>146539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>73270</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>154679</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5267,15 +5264,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>109415</xdr:colOff>
+      <xdr:colOff>105833</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>129847</xdr:rowOff>
+      <xdr:rowOff>48846</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>255950</xdr:colOff>
+      <xdr:colOff>252371</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>134462</xdr:rowOff>
+      <xdr:rowOff>65128</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5286,15 +5283,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="32" idx="3"/>
-          <a:endCxn id="34" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3813582" y="1407988"/>
-          <a:ext cx="431471" cy="4615"/>
+          <a:off x="3810000" y="1326987"/>
+          <a:ext cx="431474" cy="16282"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5328,13 +5322,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>89551</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>32564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>262140</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>19122</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5496,15 +5490,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>219808</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>138397</xdr:rowOff>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>122116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>107462</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>124955</xdr:rowOff>
+      <xdr:colOff>99321</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>108673</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5519,7 +5513,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3639039" y="1579359"/>
+          <a:off x="3630898" y="911795"/>
           <a:ext cx="742461" cy="312199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5664,16 +5658,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>130257</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>154679</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>97693</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>16282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>17910</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>141237</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>270283</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5688,8 +5682,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5259103" y="1595641"/>
-          <a:ext cx="742461" cy="475019"/>
+          <a:off x="6936155" y="643141"/>
+          <a:ext cx="742461" cy="475020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5835,13 +5829,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>32565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>177246</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>11411</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6004,13 +5998,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>224085</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>82063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>147840</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>91343</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6062,16 +6056,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>227947</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>97691</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>122114</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>27271</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>317497</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>100541</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>170961</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>65128</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6085,9 +6079,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11316024" y="2189935"/>
-          <a:ext cx="366345" cy="2850"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3826281" y="1793874"/>
+          <a:ext cx="5462629" cy="37857"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6121,13 +6115,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>56987</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>65128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>72689</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>66375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6334,13 +6328,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>56987</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>146538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>72689</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>147786</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6547,13 +6541,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>93714</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>44638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>109415</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>52235</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6758,16 +6752,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>176824</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>46567</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>144260</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>103555</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>192525</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47814</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>159961</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104801</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6782,8 +6776,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5875542" y="999067"/>
-          <a:ext cx="1155445" cy="815350"/>
+          <a:off x="7552593" y="730414"/>
+          <a:ext cx="1155445" cy="815349"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6926,7 +6920,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>G1-7-2</a:t>
+            <a:t>G1-7-3</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6957,16 +6951,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>255950</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>52428</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>223385</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>117556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>271652</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>53675</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>239086</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>118802</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6981,8 +6975,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4245053" y="1004928"/>
-          <a:ext cx="1155445" cy="815350"/>
+          <a:off x="5922103" y="744415"/>
+          <a:ext cx="1155445" cy="815349"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7125,7 +7119,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>G1-7-1</a:t>
+            <a:t>G1-7-2</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7158,13 +7152,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>34449</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>156331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>81411</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>1108</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7371,13 +7365,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>144258</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>111696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>169377</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>98088</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7583,13 +7577,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>198965</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>68711</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>224085</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>113975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7795,13 +7789,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>147840</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>82715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>172959</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>81412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8006,15 +8000,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>282656</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>54707</xdr:rowOff>
+      <xdr:colOff>136117</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>46566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>130256</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>138397</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>122115</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8029,7 +8023,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3416951" y="1821310"/>
+          <a:off x="3270412" y="1975989"/>
           <a:ext cx="2280" cy="401190"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -8062,16 +8056,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>7850</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>58234</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>252081</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>155926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>16282</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>122115</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>260513</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>56986</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8082,13 +8076,11 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7986055" y="1824837"/>
+          <a:off x="11063363" y="1434067"/>
           <a:ext cx="8432" cy="389522"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -8123,13 +8115,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>70990</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>73269</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>73268</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8180,13 +8172,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>166402</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>44286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>168681</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>127976</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8237,13 +8229,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>56698</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>147786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>64838</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>122113</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8297,13 +8289,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>64838</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>66375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>64838</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>146538</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8356,15 +8348,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>72689</xdr:colOff>
+      <xdr:colOff>97112</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>129847</xdr:rowOff>
+      <xdr:rowOff>146130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>93714</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>147162</xdr:rowOff>
+      <xdr:colOff>118137</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>624</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8375,14 +8367,11 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="32" idx="1"/>
-          <a:endCxn id="8" idx="3"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1497368" y="1407988"/>
+          <a:off x="1521791" y="1424271"/>
           <a:ext cx="1160769" cy="17315"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -8417,13 +8406,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>64549</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>113975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>252371</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>41326</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8476,13 +8465,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>81411</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>50184</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>268655</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>78720</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8536,13 +8525,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>138397</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>150956</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>113975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8595,13 +8584,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>150956</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>100367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>156818</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>111696</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8655,13 +8644,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>156818</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>98088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>160400</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>82715</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8715,13 +8704,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>76799</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>61152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>151795</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>35927</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8883,13 +8872,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>50097</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>10027</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>125093</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>147622</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9051,13 +9040,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>48846</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>105833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>221435</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>92391</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9220,13 +9209,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>170962</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>130256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>58615</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>116814</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9387,16 +9376,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>32564</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>97692</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>203525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>65128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>205154</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>84250</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>91178</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>51686</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9411,7 +9400,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6871026" y="1701474"/>
+          <a:off x="8751602" y="691987"/>
           <a:ext cx="742461" cy="312199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9558,13 +9547,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>89551</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>105833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>262140</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>92391</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9727,13 +9716,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>8141</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>16282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>180730</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>2840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9896,13 +9885,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>244231</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>146539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>131884</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>133097</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10065,13 +10054,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>203527</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>40705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>91180</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>27263</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10234,13 +10223,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>24424</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>197013</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>149378</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10403,13 +10392,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>48846</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>8141</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>221435</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>157519</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10572,13 +10561,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>8141</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>73269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180731</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>59827</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10595,6 +10584,447 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1147885" y="3305256"/>
+          <a:ext cx="742461" cy="312199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>移行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>240252</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>126047</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>255954</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>130255</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="角丸四角形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33F4B21D-C6C9-4D53-946D-1EB4B3EED119}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229355" y="752906"/>
+          <a:ext cx="1155445" cy="981131"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>G1-7-1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>パスワード再設定ユーザー確認</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>255954</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>113973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>128151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61ACBC78-8A2E-43E4-ADF3-07189B1983FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5384800" y="1229294"/>
+          <a:ext cx="525585" cy="14178"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>127976</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>15629</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>147098</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4785B42C-0E4C-4E9A-940E-4B9C68D159B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5256822" y="787399"/>
           <a:ext cx="742461" cy="312199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12814,22 +13244,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:FX50"/>
+  <dimension ref="A1:AL51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:Y4"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="4.08984375" style="1" customWidth="1"/>
     <col min="5" max="6" width="4.08984375" style="16" customWidth="1"/>
-    <col min="7" max="36" width="4.08984375" style="1" customWidth="1"/>
-    <col min="37" max="40" width="4" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="9" style="1"/>
+    <col min="7" max="38" width="4.08984375" style="1" customWidth="1"/>
+    <col min="39" max="42" width="4" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:180" ht="12.75" customHeight="1">
+    <row r="1" spans="1:38" ht="12.75" customHeight="1">
       <c r="A1" s="81" t="s">
         <v>10</v>
       </c>
@@ -12868,8 +13298,10 @@
       <c r="AH1" s="81"/>
       <c r="AI1" s="81"/>
       <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
     </row>
-    <row r="2" spans="1:180" ht="12">
+    <row r="2" spans="1:38" ht="12">
       <c r="A2" s="82" t="s">
         <v>35</v>
       </c>
@@ -12915,9 +13347,11 @@
       <c r="AG2" s="83"/>
       <c r="AH2" s="83"/>
       <c r="AI2" s="83"/>
-      <c r="AJ2" s="84"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="84"/>
     </row>
-    <row r="3" spans="1:180" ht="12">
+    <row r="3" spans="1:38" ht="12">
       <c r="A3" s="85" t="s">
         <v>41</v>
       </c>
@@ -12963,9 +13397,11 @@
       <c r="AG3" s="86"/>
       <c r="AH3" s="86"/>
       <c r="AI3" s="86"/>
-      <c r="AJ3" s="87"/>
+      <c r="AJ3" s="86"/>
+      <c r="AK3" s="86"/>
+      <c r="AL3" s="87"/>
     </row>
-    <row r="4" spans="1:180" ht="12">
+    <row r="4" spans="1:38" ht="12">
       <c r="A4" s="88"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
@@ -13001,229 +13437,91 @@
       <c r="AG4" s="89"/>
       <c r="AH4" s="89"/>
       <c r="AI4" s="89"/>
-      <c r="AJ4" s="90"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="89"/>
+      <c r="AL4" s="90"/>
     </row>
-    <row r="5" spans="1:180" s="7" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="6"/>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="6"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="6"/>
-      <c r="AQ5" s="6"/>
-      <c r="AR5" s="6"/>
-      <c r="AS5" s="6"/>
-      <c r="AT5" s="6"/>
-      <c r="AU5" s="6"/>
-      <c r="AV5" s="6"/>
-      <c r="AW5" s="6"/>
-      <c r="AX5" s="6"/>
-      <c r="AY5" s="6"/>
-      <c r="AZ5" s="6"/>
-      <c r="BA5" s="6"/>
-      <c r="BB5" s="6"/>
-      <c r="BC5" s="6"/>
-      <c r="BD5" s="6"/>
-      <c r="BE5" s="6"/>
-      <c r="BF5" s="6"/>
-      <c r="BG5" s="6"/>
-      <c r="BH5" s="6"/>
-      <c r="BI5" s="6"/>
-      <c r="BJ5" s="6"/>
-      <c r="BK5" s="6"/>
-      <c r="BL5" s="6"/>
-      <c r="BM5" s="6"/>
-      <c r="BN5" s="6"/>
-      <c r="BO5" s="6"/>
-      <c r="BP5" s="6"/>
-      <c r="BQ5" s="6"/>
-      <c r="BR5" s="6"/>
-      <c r="BS5" s="6"/>
-      <c r="BT5" s="6"/>
-      <c r="BU5" s="6"/>
-      <c r="BV5" s="6"/>
-      <c r="BW5" s="6"/>
-      <c r="BX5" s="6"/>
-      <c r="BY5" s="6"/>
-      <c r="BZ5" s="6"/>
-      <c r="CA5" s="6"/>
-      <c r="CB5" s="6"/>
-      <c r="CC5" s="6"/>
-      <c r="CD5" s="6"/>
-      <c r="CE5" s="6"/>
-      <c r="CF5" s="6"/>
-      <c r="CG5" s="6"/>
-      <c r="CH5" s="6"/>
-      <c r="CI5" s="6"/>
-      <c r="CJ5" s="6"/>
-      <c r="CK5" s="6"/>
-      <c r="CL5" s="6"/>
-      <c r="CM5" s="6"/>
-      <c r="CN5" s="6"/>
-      <c r="CO5" s="6"/>
-      <c r="CP5" s="6"/>
-      <c r="CQ5" s="6"/>
-      <c r="CR5" s="6"/>
-      <c r="CS5" s="6"/>
-      <c r="CT5" s="6"/>
-      <c r="CU5" s="6"/>
-      <c r="CV5" s="6"/>
-      <c r="CW5" s="6"/>
-      <c r="CX5" s="6"/>
-      <c r="CY5" s="6"/>
-      <c r="CZ5" s="6"/>
-      <c r="DA5" s="6"/>
-      <c r="DB5" s="6"/>
-      <c r="DC5" s="6"/>
-      <c r="DD5" s="6"/>
-      <c r="DE5" s="6"/>
-      <c r="DF5" s="6"/>
-      <c r="DG5" s="6"/>
-      <c r="DH5" s="6"/>
-      <c r="DI5" s="6"/>
-      <c r="DJ5" s="6"/>
-      <c r="DK5" s="6"/>
-      <c r="DL5" s="6"/>
-      <c r="DM5" s="6"/>
-      <c r="DN5" s="6"/>
-      <c r="DO5" s="6"/>
-      <c r="DP5" s="6"/>
-      <c r="DQ5" s="6"/>
-      <c r="DR5" s="6"/>
-      <c r="DS5" s="6"/>
-      <c r="DT5" s="6"/>
-      <c r="DU5" s="6"/>
-      <c r="DV5" s="6"/>
-      <c r="DW5" s="6"/>
-      <c r="DX5" s="6"/>
-      <c r="DY5" s="6"/>
-      <c r="DZ5" s="6"/>
-      <c r="EA5" s="6"/>
-      <c r="EB5" s="6"/>
-      <c r="EC5" s="6"/>
-      <c r="ED5" s="6"/>
-      <c r="EE5" s="6"/>
-      <c r="EF5" s="6"/>
-      <c r="EG5" s="6"/>
-      <c r="EH5" s="6"/>
-      <c r="EI5" s="6"/>
-      <c r="EJ5" s="6"/>
-      <c r="EK5" s="6"/>
-      <c r="EL5" s="6"/>
-      <c r="EM5" s="6"/>
-      <c r="EN5" s="6"/>
-      <c r="EO5" s="6"/>
-      <c r="EP5" s="6"/>
-      <c r="EQ5" s="6"/>
-      <c r="ER5" s="6"/>
-      <c r="ES5" s="6"/>
-      <c r="ET5" s="6"/>
-      <c r="EU5" s="6"/>
-      <c r="EV5" s="6"/>
-      <c r="EW5" s="6"/>
-      <c r="EX5" s="6"/>
-      <c r="EY5" s="6"/>
-      <c r="EZ5" s="6"/>
-      <c r="FA5" s="6"/>
-      <c r="FB5" s="6"/>
-      <c r="FC5" s="6"/>
-      <c r="FD5" s="6"/>
-      <c r="FE5" s="6"/>
-      <c r="FF5" s="6"/>
-      <c r="FG5" s="6"/>
-      <c r="FH5" s="6"/>
-      <c r="FI5" s="6"/>
-      <c r="FJ5" s="6"/>
-      <c r="FK5" s="6"/>
-      <c r="FL5" s="6"/>
-      <c r="FM5" s="6"/>
-      <c r="FN5" s="6"/>
-      <c r="FO5" s="6"/>
-      <c r="FP5" s="6"/>
-      <c r="FQ5" s="6"/>
-      <c r="FR5" s="6"/>
-      <c r="FS5" s="6"/>
-      <c r="FT5" s="6"/>
-      <c r="FU5" s="6"/>
-      <c r="FV5" s="6"/>
-      <c r="FW5" s="6"/>
-      <c r="FX5" s="6"/>
+    <row r="5" spans="1:38" ht="12.75" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="10"/>
     </row>
-    <row r="6" spans="1:180" ht="12.75" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="10"/>
+    <row r="6" spans="1:38" ht="12.75" customHeight="1">
+      <c r="A6" s="11"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="12"/>
     </row>
-    <row r="7" spans="1:180" ht="12.75" customHeight="1">
+    <row r="7" spans="1:38" ht="12.75" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -13259,9 +13557,11 @@
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
-      <c r="AJ7" s="12"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="12"/>
     </row>
-    <row r="8" spans="1:180" ht="12.75" customHeight="1">
+    <row r="8" spans="1:38" ht="12.5" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -13297,9 +13597,11 @@
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
-      <c r="AJ8" s="12"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="12"/>
     </row>
-    <row r="9" spans="1:180" ht="12.75" customHeight="1">
+    <row r="9" spans="1:38" ht="12.75" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -13335,9 +13637,11 @@
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
-      <c r="AJ9" s="12"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="12"/>
     </row>
-    <row r="10" spans="1:180" ht="12.75" customHeight="1">
+    <row r="10" spans="1:38" ht="12.75" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -13373,9 +13677,11 @@
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
-      <c r="AJ10" s="12"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="12"/>
     </row>
-    <row r="11" spans="1:180" ht="12.75" customHeight="1">
+    <row r="11" spans="1:38" ht="12.75" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -13411,9 +13717,11 @@
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
-      <c r="AJ11" s="12"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="12"/>
     </row>
-    <row r="12" spans="1:180" ht="12.75" customHeight="1">
+    <row r="12" spans="1:38" ht="12.75" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -13449,9 +13757,11 @@
       <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
-      <c r="AJ12" s="12"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="12"/>
     </row>
-    <row r="13" spans="1:180" ht="12.75" customHeight="1">
+    <row r="13" spans="1:38" ht="12.75" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -13467,6 +13777,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
@@ -13486,9 +13797,11 @@
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
-      <c r="AJ13" s="12"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="12"/>
     </row>
-    <row r="14" spans="1:180" ht="12.75" customHeight="1">
+    <row r="14" spans="1:38" ht="12.75" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -13506,6 +13819,13 @@
       <c r="O14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
@@ -13516,9 +13836,11 @@
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
-      <c r="AJ14" s="12"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="12"/>
     </row>
-    <row r="15" spans="1:180" ht="12.75" customHeight="1">
+    <row r="15" spans="1:38" ht="12.75" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -13536,7 +13858,6 @@
       <c r="O15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
@@ -13547,9 +13868,11 @@
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
-      <c r="AJ15" s="12"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="12"/>
     </row>
-    <row r="16" spans="1:180" ht="12.75" customHeight="1">
+    <row r="16" spans="1:38" ht="12.75" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -13578,9 +13901,11 @@
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
-      <c r="AJ16" s="12"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="12"/>
     </row>
-    <row r="17" spans="1:36" ht="12.75" customHeight="1">
+    <row r="17" spans="1:38" ht="12.75" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -13596,8 +13921,9 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
@@ -13608,9 +13934,11 @@
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
-      <c r="AJ17" s="12"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="12"/>
     </row>
-    <row r="18" spans="1:36" ht="12.75" customHeight="1">
+    <row r="18" spans="1:38" ht="12.75" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -13626,15 +13954,8 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="Q18" s="5"/>
+      <c r="P18" s="5"/>
       <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
@@ -13645,9 +13966,11 @@
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
       <c r="AI18" s="5"/>
-      <c r="AJ18" s="12"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="12"/>
     </row>
-    <row r="19" spans="1:36" ht="12.75" customHeight="1">
+    <row r="19" spans="1:38" ht="12.75" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -13682,9 +14005,11 @@
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
-      <c r="AJ19" s="12"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="12"/>
     </row>
-    <row r="20" spans="1:36" ht="12.75" customHeight="1">
+    <row r="20" spans="1:38" ht="12.75" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -13705,6 +14030,8 @@
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
@@ -13717,9 +14044,11 @@
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
-      <c r="AJ20" s="12"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="12"/>
     </row>
-    <row r="21" spans="1:36" ht="12.75" customHeight="1">
+    <row r="21" spans="1:38" ht="12.75" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -13740,8 +14069,6 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
@@ -13754,9 +14081,11 @@
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
-      <c r="AJ21" s="12"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="12"/>
     </row>
-    <row r="22" spans="1:36" ht="12.75" customHeight="1">
+    <row r="22" spans="1:38" ht="12.75" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -13770,6 +14099,8 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -13789,9 +14120,11 @@
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
-      <c r="AJ22" s="12"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="12"/>
     </row>
-    <row r="23" spans="1:36" ht="12.5" customHeight="1">
+    <row r="23" spans="1:38" ht="12.75" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -13805,8 +14138,6 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
@@ -13826,9 +14157,11 @@
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
-      <c r="AJ23" s="12"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="12"/>
     </row>
-    <row r="24" spans="1:36" ht="12.75" customHeight="1">
+    <row r="24" spans="1:38" ht="12.5" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -13846,6 +14179,7 @@
       <c r="O24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
@@ -13862,9 +14196,11 @@
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
-      <c r="AJ24" s="12"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="12"/>
     </row>
-    <row r="25" spans="1:36" ht="12.75" customHeight="1">
+    <row r="25" spans="1:38" ht="12.75" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -13882,10 +14218,10 @@
       <c r="O25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
@@ -13898,9 +14234,11 @@
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
-      <c r="AJ25" s="12"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="12"/>
     </row>
-    <row r="26" spans="1:36" ht="12.75" customHeight="1">
+    <row r="26" spans="1:38" ht="12.75" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -13918,6 +14256,12 @@
       <c r="O26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
@@ -13928,9 +14272,11 @@
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
-      <c r="AJ26" s="12"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="12"/>
     </row>
-    <row r="27" spans="1:36" ht="12.75" customHeight="1">
+    <row r="27" spans="1:38" ht="12.75" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -13948,7 +14294,6 @@
       <c r="O27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
@@ -13959,9 +14304,11 @@
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
-      <c r="AJ27" s="12"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="12"/>
     </row>
-    <row r="28" spans="1:36" ht="12.75" customHeight="1">
+    <row r="28" spans="1:38" ht="12.75" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -13979,6 +14326,7 @@
       <c r="O28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
@@ -13989,9 +14337,11 @@
       <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
-      <c r="AJ28" s="12"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="12"/>
     </row>
-    <row r="29" spans="1:36" ht="12.75" customHeight="1">
+    <row r="29" spans="1:38" ht="12.75" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -14019,9 +14369,11 @@
       <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
-      <c r="AJ29" s="12"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="12"/>
     </row>
-    <row r="30" spans="1:36" ht="12.75" customHeight="1">
+    <row r="30" spans="1:38" ht="12.75" customHeight="1">
       <c r="A30" s="11"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -14049,9 +14401,11 @@
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
-      <c r="AJ30" s="12"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="12"/>
     </row>
-    <row r="31" spans="1:36" ht="12.75" customHeight="1">
+    <row r="31" spans="1:38" ht="12.75" customHeight="1">
       <c r="A31" s="11"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -14079,9 +14433,11 @@
       <c r="AG31" s="5"/>
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
-      <c r="AJ31" s="12"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="12"/>
     </row>
-    <row r="32" spans="1:36" ht="12.75" customHeight="1">
+    <row r="32" spans="1:38" ht="12.75" customHeight="1">
       <c r="A32" s="11"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -14109,9 +14465,11 @@
       <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
       <c r="AI32" s="5"/>
-      <c r="AJ32" s="12"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="12"/>
     </row>
-    <row r="33" spans="1:36" ht="12.75" customHeight="1">
+    <row r="33" spans="1:38" ht="12.75" customHeight="1">
       <c r="A33" s="11"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -14139,9 +14497,11 @@
       <c r="AG33" s="5"/>
       <c r="AH33" s="5"/>
       <c r="AI33" s="5"/>
-      <c r="AJ33" s="12"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="12"/>
     </row>
-    <row r="34" spans="1:36" ht="12.75" customHeight="1">
+    <row r="34" spans="1:38" ht="12.75" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -14157,16 +14517,8 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
@@ -14177,9 +14529,11 @@
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
       <c r="AI34" s="5"/>
-      <c r="AJ34" s="12"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="12"/>
     </row>
-    <row r="35" spans="1:36" ht="12.75" customHeight="1">
+    <row r="35" spans="1:38" ht="12.75" customHeight="1">
       <c r="A35" s="11"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -14215,9 +14569,11 @@
       <c r="AG35" s="5"/>
       <c r="AH35" s="5"/>
       <c r="AI35" s="5"/>
-      <c r="AJ35" s="12"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="12"/>
     </row>
-    <row r="36" spans="1:36" ht="12.75" customHeight="1">
+    <row r="36" spans="1:38" ht="12.75" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -14253,9 +14609,11 @@
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
-      <c r="AJ36" s="12"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="12"/>
     </row>
-    <row r="37" spans="1:36" ht="12.75" customHeight="1">
+    <row r="37" spans="1:38" ht="12.75" customHeight="1">
       <c r="A37" s="11"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -14291,9 +14649,11 @@
       <c r="AG37" s="5"/>
       <c r="AH37" s="5"/>
       <c r="AI37" s="5"/>
-      <c r="AJ37" s="12"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="12"/>
     </row>
-    <row r="38" spans="1:36" ht="12.75" customHeight="1">
+    <row r="38" spans="1:38" ht="12.75" customHeight="1">
       <c r="A38" s="11"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -14329,9 +14689,11 @@
       <c r="AG38" s="5"/>
       <c r="AH38" s="5"/>
       <c r="AI38" s="5"/>
-      <c r="AJ38" s="12"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="12"/>
     </row>
-    <row r="39" spans="1:36" ht="12.75" customHeight="1">
+    <row r="39" spans="1:38" ht="12.75" customHeight="1">
       <c r="A39" s="11"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -14367,9 +14729,11 @@
       <c r="AG39" s="5"/>
       <c r="AH39" s="5"/>
       <c r="AI39" s="5"/>
-      <c r="AJ39" s="12"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="12"/>
     </row>
-    <row r="40" spans="1:36" ht="12.75" customHeight="1">
+    <row r="40" spans="1:38" ht="12.75" customHeight="1">
       <c r="A40" s="11"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -14405,9 +14769,11 @@
       <c r="AG40" s="5"/>
       <c r="AH40" s="5"/>
       <c r="AI40" s="5"/>
-      <c r="AJ40" s="12"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="12"/>
     </row>
-    <row r="41" spans="1:36" ht="12.75" customHeight="1">
+    <row r="41" spans="1:38" ht="12.75" customHeight="1">
       <c r="A41" s="11"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -14443,9 +14809,11 @@
       <c r="AG41" s="5"/>
       <c r="AH41" s="5"/>
       <c r="AI41" s="5"/>
-      <c r="AJ41" s="12"/>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="12"/>
     </row>
-    <row r="42" spans="1:36" ht="12.75" customHeight="1">
+    <row r="42" spans="1:38" ht="12.75" customHeight="1">
       <c r="A42" s="11"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -14481,9 +14849,11 @@
       <c r="AG42" s="5"/>
       <c r="AH42" s="5"/>
       <c r="AI42" s="5"/>
-      <c r="AJ42" s="12"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="12"/>
     </row>
-    <row r="43" spans="1:36" ht="12.5" customHeight="1">
+    <row r="43" spans="1:38" ht="12.75" customHeight="1">
       <c r="A43" s="11"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -14519,9 +14889,11 @@
       <c r="AG43" s="5"/>
       <c r="AH43" s="5"/>
       <c r="AI43" s="5"/>
-      <c r="AJ43" s="12"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="12"/>
     </row>
-    <row r="44" spans="1:36" ht="12.75" customHeight="1">
+    <row r="44" spans="1:38" ht="12.5" customHeight="1">
       <c r="A44" s="11"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -14557,9 +14929,11 @@
       <c r="AG44" s="5"/>
       <c r="AH44" s="5"/>
       <c r="AI44" s="5"/>
-      <c r="AJ44" s="12"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="12"/>
     </row>
-    <row r="45" spans="1:36" ht="12.75" customHeight="1">
+    <row r="45" spans="1:38" ht="12.75" customHeight="1">
       <c r="A45" s="11"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -14595,9 +14969,11 @@
       <c r="AG45" s="5"/>
       <c r="AH45" s="5"/>
       <c r="AI45" s="5"/>
-      <c r="AJ45" s="12"/>
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="5"/>
+      <c r="AL45" s="12"/>
     </row>
-    <row r="46" spans="1:36" ht="12.75" customHeight="1">
+    <row r="46" spans="1:38" ht="12.75" customHeight="1">
       <c r="A46" s="11"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -14633,9 +15009,11 @@
       <c r="AG46" s="5"/>
       <c r="AH46" s="5"/>
       <c r="AI46" s="5"/>
-      <c r="AJ46" s="12"/>
+      <c r="AJ46" s="5"/>
+      <c r="AK46" s="5"/>
+      <c r="AL46" s="12"/>
     </row>
-    <row r="47" spans="1:36" ht="12.75" customHeight="1">
+    <row r="47" spans="1:38" ht="12.75" customHeight="1">
       <c r="A47" s="11"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -14671,9 +15049,11 @@
       <c r="AG47" s="5"/>
       <c r="AH47" s="5"/>
       <c r="AI47" s="5"/>
-      <c r="AJ47" s="12"/>
+      <c r="AJ47" s="5"/>
+      <c r="AK47" s="5"/>
+      <c r="AL47" s="12"/>
     </row>
-    <row r="48" spans="1:36" ht="12.75" customHeight="1">
+    <row r="48" spans="1:38" ht="12.75" customHeight="1">
       <c r="A48" s="11"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -14709,9 +15089,11 @@
       <c r="AG48" s="5"/>
       <c r="AH48" s="5"/>
       <c r="AI48" s="5"/>
-      <c r="AJ48" s="12"/>
+      <c r="AJ48" s="5"/>
+      <c r="AK48" s="5"/>
+      <c r="AL48" s="12"/>
     </row>
-    <row r="49" spans="1:36" ht="12.75" customHeight="1">
+    <row r="49" spans="1:38" ht="12.75" customHeight="1">
       <c r="A49" s="11"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -14747,53 +15129,97 @@
       <c r="AG49" s="5"/>
       <c r="AH49" s="5"/>
       <c r="AI49" s="5"/>
-      <c r="AJ49" s="12"/>
+      <c r="AJ49" s="5"/>
+      <c r="AK49" s="5"/>
+      <c r="AL49" s="12"/>
     </row>
-    <row r="50" spans="1:36" ht="12.75" customHeight="1">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="14"/>
-      <c r="T50" s="14"/>
-      <c r="U50" s="14"/>
-      <c r="V50" s="14"/>
-      <c r="W50" s="14"/>
-      <c r="X50" s="14"/>
-      <c r="Y50" s="14"/>
-      <c r="Z50" s="14"/>
-      <c r="AA50" s="14"/>
-      <c r="AB50" s="14"/>
-      <c r="AC50" s="14"/>
-      <c r="AD50" s="14"/>
-      <c r="AE50" s="14"/>
-      <c r="AF50" s="14"/>
-      <c r="AG50" s="14"/>
-      <c r="AH50" s="14"/>
-      <c r="AI50" s="14"/>
-      <c r="AJ50" s="15"/>
+    <row r="50" spans="1:38" ht="12.75" customHeight="1">
+      <c r="A50" s="11"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="5"/>
+      <c r="AI50" s="5"/>
+      <c r="AJ50" s="5"/>
+      <c r="AK50" s="5"/>
+      <c r="AL50" s="12"/>
+    </row>
+    <row r="51" spans="1:38" ht="12.75" customHeight="1">
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="14"/>
+      <c r="X51" s="14"/>
+      <c r="Y51" s="14"/>
+      <c r="Z51" s="14"/>
+      <c r="AA51" s="14"/>
+      <c r="AB51" s="14"/>
+      <c r="AC51" s="14"/>
+      <c r="AD51" s="14"/>
+      <c r="AE51" s="14"/>
+      <c r="AF51" s="14"/>
+      <c r="AG51" s="14"/>
+      <c r="AH51" s="14"/>
+      <c r="AI51" s="14"/>
+      <c r="AJ51" s="14"/>
+      <c r="AK51" s="14"/>
+      <c r="AL51" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="A1:AL1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
-    <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="AF3:AJ4"/>
+    <mergeCell ref="AF2:AL2"/>
+    <mergeCell ref="AF3:AL4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:L4"/>
     <mergeCell ref="Z2:AE2"/>

--- a/02_画面設計書・モックアップ/画面遷移図.xlsx
+++ b/02_画面設計書・モックアップ/画面遷移図.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\desktop-tutorial\02_画面設計書・モックアップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konoh\Documents\GitHub\2023Dev3Early\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C466D3D-9F13-4084-AB03-3748A81236A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E06C933-12BC-40AC-9E91-E9504EC601AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -956,6 +956,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -964,9 +976,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -976,6 +994,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -996,15 +1017,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1030,18 +1042,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1847,8 +1847,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1888481" y="2241691"/>
-          <a:ext cx="8076134" cy="1126134"/>
+          <a:off x="1888481" y="2404511"/>
+          <a:ext cx="8076134" cy="1126135"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3521,16 +3521,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>268655</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>138398</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>24424</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>8838</xdr:colOff>
+      <xdr:colOff>49543</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>124789</xdr:rowOff>
+      <xdr:rowOff>149212</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3545,8 +3545,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5682437" y="3696026"/>
-          <a:ext cx="1164863" cy="1126135"/>
+          <a:off x="5723142" y="3883270"/>
+          <a:ext cx="1164863" cy="1126134"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5974,7 +5974,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>戻る</a:t>
+            <a:t>作成</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
@@ -8466,13 +8466,13 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>81411</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>50184</xdr:rowOff>
+      <xdr:rowOff>74606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>268655</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>24424</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>78720</xdr:rowOff>
+      <xdr:rowOff>78719</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8490,8 +8490,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4925321" y="4259094"/>
-          <a:ext cx="757116" cy="28536"/>
+          <a:off x="4925321" y="4446337"/>
+          <a:ext cx="797821" cy="4113"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11148,6 +11148,471 @@
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>移行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>53263</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>84084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>36984</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>149212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3A1447A-B4E2-49E2-87C2-F3CAF1050ED0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="60" idx="2"/>
+          <a:endCxn id="61" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="4429066" y="3132896"/>
+          <a:ext cx="65128" cy="3687888"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -351001"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:alpha val="97000"/>
+            </a:sysClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142814</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>92225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>254512</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>155073</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0EA3613-AA94-4A3F-865D-1A03697E0FB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4441278" y="2933440"/>
+          <a:ext cx="62848" cy="4100801"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1215039"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:alpha val="97000"/>
+            </a:sysClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>130256</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>81411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>17910</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>67969</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF52E541-7649-4ED4-AFD2-1645566FDC8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4119359" y="4941603"/>
+          <a:ext cx="742461" cy="312199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>移行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>130257</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>81411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>22567</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>60257</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B0B012-AA11-4AFA-8DFD-A916D52FC607}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4119360" y="5430065"/>
+          <a:ext cx="747117" cy="304487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>作成</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
@@ -11776,16 +12241,16 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="77" t="s">
+      <c r="X3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="79">
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="48">
         <v>45042</v>
       </c>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="78"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="47"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="12"/>
@@ -11903,20 +12368,20 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="51"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="61"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -11934,80 +12399,80 @@
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="71" t="s">
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="73"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="77"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="77" t="s">
+      <c r="X8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="77" t="s">
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AA8" s="78"/>
-      <c r="AB8" s="77" t="s">
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AC8" s="78"/>
+      <c r="AC8" s="47"/>
       <c r="AD8" s="31"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15" customHeight="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="76"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="80"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="55" t="s">
+      <c r="X9" s="62"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="AC9" s="56"/>
+      <c r="AC9" s="63"/>
       <c r="AD9" s="31"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="12"/>
@@ -12036,12 +12501,12 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="58"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="65"/>
       <c r="AD10" s="31"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="12"/>
@@ -12070,12 +12535,12 @@
       <c r="U11" s="29"/>
       <c r="V11" s="29"/>
       <c r="W11" s="29"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="60"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="67"/>
       <c r="AD11" s="31"/>
       <c r="AE11" s="29"/>
       <c r="AF11" s="12"/>
@@ -12116,106 +12581,106 @@
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="61"/>
-      <c r="AC13" s="61"/>
-      <c r="AD13" s="61"/>
-      <c r="AE13" s="61"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="68"/>
       <c r="AF13" s="12"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="11"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="61"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
       <c r="AF14" s="12"/>
     </row>
     <row r="15" spans="1:176" ht="15" customHeight="1">
       <c r="A15" s="11"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="61"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="61"/>
-      <c r="AB15" s="61"/>
-      <c r="AC15" s="61"/>
-      <c r="AD15" s="61"/>
-      <c r="AE15" s="61"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="68"/>
       <c r="AF15" s="12"/>
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
@@ -12354,646 +12819,646 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="46" t="s">
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="46" t="s">
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="46" t="s">
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="48"/>
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="52"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="62">
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="53">
         <v>45042</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="52" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="46" t="s">
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="48"/>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="52"/>
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="11"/>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="62">
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53">
         <v>45047</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="52" t="s">
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="54"/>
-      <c r="AC22" s="46" t="s">
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="48"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="52"/>
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="62">
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53">
         <v>45057</v>
       </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="52" t="s">
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="54"/>
-      <c r="AC23" s="46" t="s">
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="57"/>
+      <c r="AB23" s="58"/>
+      <c r="AC23" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="48"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="52"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="54"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="47"/>
-      <c r="AE24" s="48"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="51"/>
+      <c r="AE24" s="52"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="11"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="53"/>
-      <c r="AB25" s="54"/>
-      <c r="AC25" s="46"/>
-      <c r="AD25" s="47"/>
-      <c r="AE25" s="48"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="57"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="52"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="53"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="53"/>
-      <c r="AB26" s="54"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="47"/>
-      <c r="AE26" s="48"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="52"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="11"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="54"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="47"/>
-      <c r="AE27" s="48"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="51"/>
+      <c r="AE27" s="52"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="11"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="53"/>
-      <c r="Z28" s="53"/>
-      <c r="AA28" s="53"/>
-      <c r="AB28" s="54"/>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="47"/>
-      <c r="AE28" s="48"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="52"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="53"/>
-      <c r="AA29" s="53"/>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="46"/>
-      <c r="AD29" s="47"/>
-      <c r="AE29" s="48"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="57"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="52"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="53"/>
-      <c r="AA30" s="53"/>
-      <c r="AB30" s="54"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="47"/>
-      <c r="AE30" s="48"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="57"/>
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="50"/>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="52"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="11"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="54"/>
-      <c r="AC31" s="46"/>
-      <c r="AD31" s="47"/>
-      <c r="AE31" s="48"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="57"/>
+      <c r="Z31" s="57"/>
+      <c r="AA31" s="57"/>
+      <c r="AB31" s="58"/>
+      <c r="AC31" s="50"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="52"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="11"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="53"/>
-      <c r="Z32" s="53"/>
-      <c r="AA32" s="53"/>
-      <c r="AB32" s="54"/>
-      <c r="AC32" s="46"/>
-      <c r="AD32" s="47"/>
-      <c r="AE32" s="48"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="57"/>
+      <c r="Z32" s="57"/>
+      <c r="AA32" s="57"/>
+      <c r="AB32" s="58"/>
+      <c r="AC32" s="50"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="52"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="11"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="53"/>
-      <c r="Z33" s="53"/>
-      <c r="AA33" s="53"/>
-      <c r="AB33" s="54"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="47"/>
-      <c r="AE33" s="48"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="57"/>
+      <c r="X33" s="57"/>
+      <c r="Y33" s="57"/>
+      <c r="Z33" s="57"/>
+      <c r="AA33" s="57"/>
+      <c r="AB33" s="58"/>
+      <c r="AC33" s="50"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="52"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="11"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="53"/>
-      <c r="V34" s="53"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="53"/>
-      <c r="Y34" s="53"/>
-      <c r="Z34" s="53"/>
-      <c r="AA34" s="53"/>
-      <c r="AB34" s="54"/>
-      <c r="AC34" s="46"/>
-      <c r="AD34" s="47"/>
-      <c r="AE34" s="48"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="57"/>
+      <c r="AA34" s="57"/>
+      <c r="AB34" s="58"/>
+      <c r="AC34" s="50"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="52"/>
       <c r="AF34" s="12"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="53"/>
-      <c r="V35" s="53"/>
-      <c r="W35" s="53"/>
-      <c r="X35" s="53"/>
-      <c r="Y35" s="53"/>
-      <c r="Z35" s="53"/>
-      <c r="AA35" s="53"/>
-      <c r="AB35" s="54"/>
-      <c r="AC35" s="46"/>
-      <c r="AD35" s="47"/>
-      <c r="AE35" s="48"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="57"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="57"/>
+      <c r="X35" s="57"/>
+      <c r="Y35" s="57"/>
+      <c r="Z35" s="57"/>
+      <c r="AA35" s="57"/>
+      <c r="AB35" s="58"/>
+      <c r="AC35" s="50"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="52"/>
       <c r="AF35" s="12"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="53"/>
-      <c r="W36" s="53"/>
-      <c r="X36" s="53"/>
-      <c r="Y36" s="53"/>
-      <c r="Z36" s="53"/>
-      <c r="AA36" s="53"/>
-      <c r="AB36" s="54"/>
-      <c r="AC36" s="46"/>
-      <c r="AD36" s="47"/>
-      <c r="AE36" s="48"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="57"/>
+      <c r="Y36" s="57"/>
+      <c r="Z36" s="57"/>
+      <c r="AA36" s="57"/>
+      <c r="AB36" s="58"/>
+      <c r="AC36" s="50"/>
+      <c r="AD36" s="51"/>
+      <c r="AE36" s="52"/>
       <c r="AF36" s="12"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="53"/>
-      <c r="W37" s="53"/>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="53"/>
-      <c r="Z37" s="53"/>
-      <c r="AA37" s="53"/>
-      <c r="AB37" s="54"/>
-      <c r="AC37" s="46"/>
-      <c r="AD37" s="47"/>
-      <c r="AE37" s="48"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="57"/>
+      <c r="T37" s="57"/>
+      <c r="U37" s="57"/>
+      <c r="V37" s="57"/>
+      <c r="W37" s="57"/>
+      <c r="X37" s="57"/>
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57"/>
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="58"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="51"/>
+      <c r="AE37" s="52"/>
       <c r="AF37" s="12"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -13032,53 +13497,27 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="Z9:AA11"/>
+    <mergeCell ref="AB9:AC11"/>
+    <mergeCell ref="B13:AE15"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="J20:AB20"/>
+    <mergeCell ref="J21:AB21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="F8:Q9"/>
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
     <mergeCell ref="AC37:AE37"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="J22:AB22"/>
@@ -13095,27 +13534,53 @@
     <mergeCell ref="J33:AB33"/>
     <mergeCell ref="AC33:AE33"/>
     <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="Z9:AA11"/>
-    <mergeCell ref="AB9:AC11"/>
-    <mergeCell ref="B13:AE15"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="J20:AB20"/>
-    <mergeCell ref="J21:AB21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="B8:E9"/>
-    <mergeCell ref="F8:Q9"/>
-    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -13246,8 +13711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AL6" sqref="AL6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AN20" sqref="AN20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -16864,25 +17329,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2B0453A4F97AA4594841E00C62E1F84" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b4ec096b6f6caeabb13d9a32e416b02d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a400ae294e8a05ebb5f0513890681b30" ns2:_="">
     <xsd:import namespace="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
@@ -17054,25 +17500,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2943A47C-3A6D-4AAA-B52D-79C0E305302C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82CC02B3-FCE5-4223-8B61-A8382C5BF06A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17088,4 +17535,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2943A47C-3A6D-4AAA-B52D-79C0E305302C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面遷移図.xlsx
+++ b/02_画面設計書・モックアップ/画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konoh\Documents\GitHub\2023Dev3Early\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E06C933-12BC-40AC-9E91-E9504EC601AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677ADE82-4D62-48CA-97DB-5D8581C7B630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -29,24 +29,11 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="191028" calcMode="manual"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -584,6 +571,27 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>v1.3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>矢印追加</t>
+    <rPh sb="0" eb="2">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>岩﨑</t>
+    <rPh sb="0" eb="2">
+      <t>イワサキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -956,18 +964,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -976,15 +972,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -994,9 +984,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1017,6 +1004,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1042,6 +1038,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11993,8 +12001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT38"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AK10" sqref="AK10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC24" sqref="AC24:AE24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -12241,16 +12249,16 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="46" t="s">
+      <c r="X3" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="48">
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="79">
         <v>45042</v>
       </c>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="47"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="78"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="12"/>
@@ -12368,20 +12376,20 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="61"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="51"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -12399,80 +12407,80 @@
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="75" t="s">
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="77"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="73"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="46" t="s">
+      <c r="X8" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="46" t="s">
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="46" t="s">
+      <c r="AA8" s="78"/>
+      <c r="AB8" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="AC8" s="47"/>
+      <c r="AC8" s="78"/>
       <c r="AD8" s="31"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15" customHeight="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="80"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="76"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="62" t="s">
+      <c r="X9" s="55"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AC9" s="63"/>
+      <c r="AC9" s="56"/>
       <c r="AD9" s="31"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="12"/>
@@ -12501,12 +12509,12 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="65"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="58"/>
       <c r="AD10" s="31"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="12"/>
@@ -12535,12 +12543,12 @@
       <c r="U11" s="29"/>
       <c r="V11" s="29"/>
       <c r="W11" s="29"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="67"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="60"/>
       <c r="AD11" s="31"/>
       <c r="AE11" s="29"/>
       <c r="AF11" s="12"/>
@@ -12581,106 +12589,106 @@
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="68"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="61"/>
       <c r="AF13" s="12"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="11"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="68"/>
-      <c r="AC14" s="68"/>
-      <c r="AD14" s="68"/>
-      <c r="AE14" s="68"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="61"/>
       <c r="AF14" s="12"/>
     </row>
     <row r="15" spans="1:176" ht="15" customHeight="1">
       <c r="A15" s="11"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="68"/>
-      <c r="AE15" s="68"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="61"/>
       <c r="AF15" s="12"/>
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
@@ -12819,646 +12827,654 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="50" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="50" t="s">
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="50" t="s">
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AD20" s="51"/>
-      <c r="AE20" s="52"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="48"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53">
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="62">
         <v>45042</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="56" t="s">
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="50" t="s">
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="52"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="48"/>
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="11"/>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53">
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="62">
         <v>45047</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="56" t="s">
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="50" t="s">
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="52"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="48"/>
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53">
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="62">
         <v>45057</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="56" t="s">
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="57"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="57"/>
-      <c r="X23" s="57"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="57"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="50" t="s">
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AD23" s="51"/>
-      <c r="AE23" s="52"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="48"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="57"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="51"/>
-      <c r="AE24" s="52"/>
+      <c r="B24" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="62">
+        <v>45068</v>
+      </c>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="54"/>
+      <c r="AC24" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="48"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="11"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="50"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="52"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="54"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="48"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="57"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="50"/>
-      <c r="AD26" s="51"/>
-      <c r="AE26" s="52"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="54"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="48"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="11"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="50"/>
-      <c r="AD27" s="51"/>
-      <c r="AE27" s="52"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="54"/>
+      <c r="AC27" s="46"/>
+      <c r="AD27" s="47"/>
+      <c r="AE27" s="48"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="11"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="50"/>
-      <c r="AD28" s="51"/>
-      <c r="AE28" s="52"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="53"/>
+      <c r="AB28" s="54"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="48"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="57"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57"/>
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="52"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="46"/>
+      <c r="AD29" s="47"/>
+      <c r="AE29" s="48"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="57"/>
-      <c r="S30" s="57"/>
-      <c r="T30" s="57"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="57"/>
-      <c r="Y30" s="57"/>
-      <c r="Z30" s="57"/>
-      <c r="AA30" s="57"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="52"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AB30" s="54"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="47"/>
+      <c r="AE30" s="48"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="11"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="57"/>
-      <c r="X31" s="57"/>
-      <c r="Y31" s="57"/>
-      <c r="Z31" s="57"/>
-      <c r="AA31" s="57"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="51"/>
-      <c r="AE31" s="52"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="46"/>
+      <c r="AD31" s="47"/>
+      <c r="AE31" s="48"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="11"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="57"/>
-      <c r="S32" s="57"/>
-      <c r="T32" s="57"/>
-      <c r="U32" s="57"/>
-      <c r="V32" s="57"/>
-      <c r="W32" s="57"/>
-      <c r="X32" s="57"/>
-      <c r="Y32" s="57"/>
-      <c r="Z32" s="57"/>
-      <c r="AA32" s="57"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="50"/>
-      <c r="AD32" s="51"/>
-      <c r="AE32" s="52"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="53"/>
+      <c r="AA32" s="53"/>
+      <c r="AB32" s="54"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="47"/>
+      <c r="AE32" s="48"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="11"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="57"/>
-      <c r="S33" s="57"/>
-      <c r="T33" s="57"/>
-      <c r="U33" s="57"/>
-      <c r="V33" s="57"/>
-      <c r="W33" s="57"/>
-      <c r="X33" s="57"/>
-      <c r="Y33" s="57"/>
-      <c r="Z33" s="57"/>
-      <c r="AA33" s="57"/>
-      <c r="AB33" s="58"/>
-      <c r="AC33" s="50"/>
-      <c r="AD33" s="51"/>
-      <c r="AE33" s="52"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="53"/>
+      <c r="AA33" s="53"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="46"/>
+      <c r="AD33" s="47"/>
+      <c r="AE33" s="48"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="11"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="57"/>
-      <c r="S34" s="57"/>
-      <c r="T34" s="57"/>
-      <c r="U34" s="57"/>
-      <c r="V34" s="57"/>
-      <c r="W34" s="57"/>
-      <c r="X34" s="57"/>
-      <c r="Y34" s="57"/>
-      <c r="Z34" s="57"/>
-      <c r="AA34" s="57"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="50"/>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="52"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="53"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="53"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="53"/>
+      <c r="AA34" s="53"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="46"/>
+      <c r="AD34" s="47"/>
+      <c r="AE34" s="48"/>
       <c r="AF34" s="12"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="57"/>
-      <c r="T35" s="57"/>
-      <c r="U35" s="57"/>
-      <c r="V35" s="57"/>
-      <c r="W35" s="57"/>
-      <c r="X35" s="57"/>
-      <c r="Y35" s="57"/>
-      <c r="Z35" s="57"/>
-      <c r="AA35" s="57"/>
-      <c r="AB35" s="58"/>
-      <c r="AC35" s="50"/>
-      <c r="AD35" s="51"/>
-      <c r="AE35" s="52"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="53"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="53"/>
+      <c r="Y35" s="53"/>
+      <c r="Z35" s="53"/>
+      <c r="AA35" s="53"/>
+      <c r="AB35" s="54"/>
+      <c r="AC35" s="46"/>
+      <c r="AD35" s="47"/>
+      <c r="AE35" s="48"/>
       <c r="AF35" s="12"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="57"/>
-      <c r="S36" s="57"/>
-      <c r="T36" s="57"/>
-      <c r="U36" s="57"/>
-      <c r="V36" s="57"/>
-      <c r="W36" s="57"/>
-      <c r="X36" s="57"/>
-      <c r="Y36" s="57"/>
-      <c r="Z36" s="57"/>
-      <c r="AA36" s="57"/>
-      <c r="AB36" s="58"/>
-      <c r="AC36" s="50"/>
-      <c r="AD36" s="51"/>
-      <c r="AE36" s="52"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="53"/>
+      <c r="AB36" s="54"/>
+      <c r="AC36" s="46"/>
+      <c r="AD36" s="47"/>
+      <c r="AE36" s="48"/>
       <c r="AF36" s="12"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57"/>
-      <c r="S37" s="57"/>
-      <c r="T37" s="57"/>
-      <c r="U37" s="57"/>
-      <c r="V37" s="57"/>
-      <c r="W37" s="57"/>
-      <c r="X37" s="57"/>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57"/>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="58"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="51"/>
-      <c r="AE37" s="52"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="53"/>
+      <c r="W37" s="53"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="53"/>
+      <c r="Z37" s="53"/>
+      <c r="AA37" s="53"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="47"/>
+      <c r="AE37" s="48"/>
       <c r="AF37" s="12"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -13497,6 +13513,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="J22:AB22"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="AC21:AE21"/>
@@ -13513,74 +13597,6 @@
     <mergeCell ref="B8:E9"/>
     <mergeCell ref="F8:Q9"/>
     <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="J22:AB22"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -13596,9 +13612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
@@ -13711,8 +13725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AN20" sqref="AN20"/>
+    <sheetView zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:AL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -17329,6 +17343,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2B0453A4F97AA4594841E00C62E1F84" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b4ec096b6f6caeabb13d9a32e416b02d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a400ae294e8a05ebb5f0513890681b30" ns2:_="">
     <xsd:import namespace="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
@@ -17500,26 +17533,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2943A47C-3A6D-4AAA-B52D-79C0E305302C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82CC02B3-FCE5-4223-8B61-A8382C5BF06A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17535,22 +17567,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2943A47C-3A6D-4AAA-B52D-79C0E305302C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面遷移図.xlsx
+++ b/02_画面設計書・モックアップ/画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konoh\Documents\GitHub\2023Dev3Early\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677ADE82-4D62-48CA-97DB-5D8581C7B630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F62593-05FB-4D1C-8E40-4CE43418A422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -964,6 +964,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -972,9 +984,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -984,6 +1002,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1004,15 +1025,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1038,18 +1050,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2824,16 +2824,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>239086</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>279792</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>22768</xdr:rowOff>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>144260</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>203525</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>36769</xdr:rowOff>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2845,14 +2845,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="34" idx="3"/>
-          <a:endCxn id="33" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7077548" y="1138089"/>
-          <a:ext cx="475045" cy="14001"/>
+          <a:off x="7688125" y="1221154"/>
+          <a:ext cx="1633349" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3303,7 +3303,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>170961</xdr:colOff>
+      <xdr:colOff>162820</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>81410</xdr:rowOff>
     </xdr:to>
@@ -3320,8 +3320,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2727243" y="3386667"/>
-          <a:ext cx="8141" cy="415192"/>
+          <a:off x="2727243" y="3549488"/>
+          <a:ext cx="0" cy="415191"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3354,9 +3354,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>203526</xdr:colOff>
+      <xdr:colOff>211526</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>113975</xdr:rowOff>
+      <xdr:rowOff>138397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
@@ -3378,9 +3378,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7611859" y="3345962"/>
-          <a:ext cx="8000" cy="2885505"/>
+        <a:xfrm flipV="1">
+          <a:off x="7619859" y="3533205"/>
+          <a:ext cx="0" cy="2861083"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3478,7 +3478,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>34449</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>90889</xdr:rowOff>
+      <xdr:rowOff>78720</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3496,8 +3496,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3200117" y="4287630"/>
-          <a:ext cx="823435" cy="12169"/>
+          <a:off x="3200117" y="4450451"/>
+          <a:ext cx="823435" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3971,63 +3971,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>179102</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>138397</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>162820</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>146538</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="直線矢印コネクタ 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F99D53-1581-4264-A57A-D4F1FE107C94}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8727179" y="1253718"/>
-          <a:ext cx="553590" cy="8141"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -5221,7 +5164,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>73270</xdr:colOff>
+      <xdr:colOff>65129</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>154679</xdr:rowOff>
     </xdr:to>
@@ -5238,8 +5181,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4339167" y="3378526"/>
-          <a:ext cx="8141" cy="496602"/>
+          <a:off x="4339167" y="3541347"/>
+          <a:ext cx="0" cy="496601"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5280,7 +5223,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>252371</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>65128</xdr:rowOff>
+      <xdr:rowOff>48846</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5296,7 +5239,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3810000" y="1326987"/>
-          <a:ext cx="431474" cy="16282"/>
+          <a:ext cx="431474" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5666,175 +5609,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>97693</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>16282</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>270283</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>2840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="テキスト ボックス 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF9F8E1-A1DB-43FA-A7AA-33F724C23E2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6936155" y="643141"/>
-          <a:ext cx="742461" cy="475020"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>移行</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>22</xdr:row>
@@ -6013,7 +5787,7 @@
       <xdr:col>30</xdr:col>
       <xdr:colOff>147840</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>91343</xdr:rowOff>
+      <xdr:rowOff>82063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6031,8 +5805,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8202290" y="6733281"/>
-          <a:ext cx="493627" cy="9280"/>
+          <a:off x="8202290" y="6896101"/>
+          <a:ext cx="493627" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6073,7 +5847,7 @@
       <xdr:col>32</xdr:col>
       <xdr:colOff>170961</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>65128</xdr:rowOff>
+      <xdr:rowOff>27271</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6089,7 +5863,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="3826281" y="1793874"/>
-          <a:ext cx="5462629" cy="37857"/>
+          <a:ext cx="5462629" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6760,215 +6534,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>144260</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>103555</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>264090</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>44287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>159961</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104801</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="角丸四角形 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D3AD84-8859-46B1-89F6-042D3379EBFF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7552593" y="730414"/>
-          <a:ext cx="1155445" cy="815349"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>G1-7-3</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>パスワード再設定確認画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>223385</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>117556</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>239086</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>118802</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>279792</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>45533</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6983,7 +6558,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5922103" y="744415"/>
+          <a:off x="6532680" y="833966"/>
           <a:ext cx="1155445" cy="815349"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -8128,7 +7703,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>73269</xdr:colOff>
+      <xdr:colOff>70990</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>73268</xdr:rowOff>
     </xdr:to>
@@ -8145,8 +7720,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2920349" y="3384386"/>
-          <a:ext cx="2279" cy="409331"/>
+          <a:off x="2920349" y="3547207"/>
+          <a:ext cx="0" cy="409330"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8242,7 +7817,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>64838</xdr:colOff>
+      <xdr:colOff>56698</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>122113</xdr:rowOff>
     </xdr:to>
@@ -8262,8 +7837,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="911506" y="3054132"/>
-          <a:ext cx="8140" cy="625609"/>
+          <a:off x="911506" y="3216953"/>
+          <a:ext cx="0" cy="625609"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8356,15 +7931,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>97112</xdr:colOff>
+      <xdr:colOff>64547</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>146130</xdr:rowOff>
+      <xdr:rowOff>154272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>118137</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>624</xdr:rowOff>
+      <xdr:colOff>87603</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>154272</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8379,8 +7954,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1521791" y="1424271"/>
-          <a:ext cx="1160769" cy="17315"/>
+          <a:off x="1489226" y="1432413"/>
+          <a:ext cx="1162800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8480,7 +8055,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>24424</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>78719</xdr:rowOff>
+      <xdr:rowOff>74606</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8499,7 +8074,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="4925321" y="4446337"/>
-          <a:ext cx="797821" cy="4113"/>
+          <a:ext cx="797821" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8532,13 +8107,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>138397</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>146538</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>150956</xdr:colOff>
+      <xdr:colOff>146538</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>113975</xdr:rowOff>
     </xdr:to>
@@ -8557,8 +8132,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9256346" y="3394808"/>
-          <a:ext cx="12559" cy="276795"/>
+          <a:off x="9264487" y="3533205"/>
+          <a:ext cx="0" cy="301219"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8597,7 +8172,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>156818</xdr:colOff>
+      <xdr:colOff>150956</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>111696</xdr:rowOff>
     </xdr:to>
@@ -8617,8 +8192,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9268905" y="4634918"/>
-          <a:ext cx="5862" cy="336970"/>
+          <a:off x="9268905" y="4797739"/>
+          <a:ext cx="0" cy="336970"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8657,7 +8232,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>160400</xdr:colOff>
+      <xdr:colOff>156818</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>82715</xdr:rowOff>
     </xdr:to>
@@ -8677,8 +8252,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9274767" y="5935203"/>
-          <a:ext cx="3582" cy="310268"/>
+          <a:off x="9274767" y="6098024"/>
+          <a:ext cx="0" cy="310268"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10952,13 +10527,13 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>255954</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>113973</xdr:rowOff>
+      <xdr:rowOff>126320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>211667</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>264090</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>128151</xdr:rowOff>
+      <xdr:rowOff>126320</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10971,12 +10546,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="31" idx="3"/>
+          <a:endCxn id="34" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5384800" y="1229294"/>
-          <a:ext cx="525585" cy="14178"/>
+          <a:off x="5384800" y="1241641"/>
+          <a:ext cx="1147880" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12001,7 +11577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AC24" sqref="AC24:AE24"/>
     </sheetView>
   </sheetViews>
@@ -12249,16 +11825,16 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="77" t="s">
+      <c r="X3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="79">
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="48">
         <v>45042</v>
       </c>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="78"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="47"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="12"/>
@@ -12376,20 +11952,20 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="51"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="61"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -12407,80 +11983,80 @@
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="71" t="s">
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="73"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="77"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="77" t="s">
+      <c r="X8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="77" t="s">
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AA8" s="78"/>
-      <c r="AB8" s="77" t="s">
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AC8" s="78"/>
+      <c r="AC8" s="47"/>
       <c r="AD8" s="31"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15" customHeight="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="76"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="80"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="55" t="s">
+      <c r="X9" s="62"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="AC9" s="56"/>
+      <c r="AC9" s="63"/>
       <c r="AD9" s="31"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="12"/>
@@ -12509,12 +12085,12 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="58"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="65"/>
       <c r="AD10" s="31"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="12"/>
@@ -12543,12 +12119,12 @@
       <c r="U11" s="29"/>
       <c r="V11" s="29"/>
       <c r="W11" s="29"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="60"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="67"/>
       <c r="AD11" s="31"/>
       <c r="AE11" s="29"/>
       <c r="AF11" s="12"/>
@@ -12589,106 +12165,106 @@
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="61"/>
-      <c r="AC13" s="61"/>
-      <c r="AD13" s="61"/>
-      <c r="AE13" s="61"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="68"/>
       <c r="AF13" s="12"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="11"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="61"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
       <c r="AF14" s="12"/>
     </row>
     <row r="15" spans="1:176" ht="15" customHeight="1">
       <c r="A15" s="11"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="61"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="61"/>
-      <c r="AB15" s="61"/>
-      <c r="AC15" s="61"/>
-      <c r="AD15" s="61"/>
-      <c r="AE15" s="61"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="68"/>
       <c r="AF15" s="12"/>
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
@@ -12827,654 +12403,654 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="46" t="s">
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="46" t="s">
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="46" t="s">
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="48"/>
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="52"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="62">
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="53">
         <v>45042</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="52" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="46" t="s">
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="48"/>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="52"/>
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="11"/>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="62">
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53">
         <v>45047</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="52" t="s">
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="54"/>
-      <c r="AC22" s="46" t="s">
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="48"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="52"/>
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="62">
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53">
         <v>45057</v>
       </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="52" t="s">
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="54"/>
-      <c r="AC23" s="46" t="s">
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="57"/>
+      <c r="AB23" s="58"/>
+      <c r="AC23" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="48"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="52"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="62">
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53">
         <v>45068</v>
       </c>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="52" t="s">
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="54"/>
-      <c r="AC24" s="46" t="s">
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AD24" s="47"/>
-      <c r="AE24" s="48"/>
+      <c r="AD24" s="51"/>
+      <c r="AE24" s="52"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="11"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="53"/>
-      <c r="AB25" s="54"/>
-      <c r="AC25" s="46"/>
-      <c r="AD25" s="47"/>
-      <c r="AE25" s="48"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="57"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="52"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="53"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="53"/>
-      <c r="AB26" s="54"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="47"/>
-      <c r="AE26" s="48"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="52"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="11"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="54"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="47"/>
-      <c r="AE27" s="48"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="51"/>
+      <c r="AE27" s="52"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="11"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="53"/>
-      <c r="Z28" s="53"/>
-      <c r="AA28" s="53"/>
-      <c r="AB28" s="54"/>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="47"/>
-      <c r="AE28" s="48"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="52"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="53"/>
-      <c r="AA29" s="53"/>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="46"/>
-      <c r="AD29" s="47"/>
-      <c r="AE29" s="48"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="57"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="52"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="53"/>
-      <c r="AA30" s="53"/>
-      <c r="AB30" s="54"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="47"/>
-      <c r="AE30" s="48"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="57"/>
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="50"/>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="52"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="11"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="54"/>
-      <c r="AC31" s="46"/>
-      <c r="AD31" s="47"/>
-      <c r="AE31" s="48"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="57"/>
+      <c r="Z31" s="57"/>
+      <c r="AA31" s="57"/>
+      <c r="AB31" s="58"/>
+      <c r="AC31" s="50"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="52"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="11"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="53"/>
-      <c r="Z32" s="53"/>
-      <c r="AA32" s="53"/>
-      <c r="AB32" s="54"/>
-      <c r="AC32" s="46"/>
-      <c r="AD32" s="47"/>
-      <c r="AE32" s="48"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="57"/>
+      <c r="Z32" s="57"/>
+      <c r="AA32" s="57"/>
+      <c r="AB32" s="58"/>
+      <c r="AC32" s="50"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="52"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="11"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="53"/>
-      <c r="Z33" s="53"/>
-      <c r="AA33" s="53"/>
-      <c r="AB33" s="54"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="47"/>
-      <c r="AE33" s="48"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="57"/>
+      <c r="X33" s="57"/>
+      <c r="Y33" s="57"/>
+      <c r="Z33" s="57"/>
+      <c r="AA33" s="57"/>
+      <c r="AB33" s="58"/>
+      <c r="AC33" s="50"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="52"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="11"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="53"/>
-      <c r="V34" s="53"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="53"/>
-      <c r="Y34" s="53"/>
-      <c r="Z34" s="53"/>
-      <c r="AA34" s="53"/>
-      <c r="AB34" s="54"/>
-      <c r="AC34" s="46"/>
-      <c r="AD34" s="47"/>
-      <c r="AE34" s="48"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="57"/>
+      <c r="AA34" s="57"/>
+      <c r="AB34" s="58"/>
+      <c r="AC34" s="50"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="52"/>
       <c r="AF34" s="12"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="53"/>
-      <c r="V35" s="53"/>
-      <c r="W35" s="53"/>
-      <c r="X35" s="53"/>
-      <c r="Y35" s="53"/>
-      <c r="Z35" s="53"/>
-      <c r="AA35" s="53"/>
-      <c r="AB35" s="54"/>
-      <c r="AC35" s="46"/>
-      <c r="AD35" s="47"/>
-      <c r="AE35" s="48"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="57"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="57"/>
+      <c r="X35" s="57"/>
+      <c r="Y35" s="57"/>
+      <c r="Z35" s="57"/>
+      <c r="AA35" s="57"/>
+      <c r="AB35" s="58"/>
+      <c r="AC35" s="50"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="52"/>
       <c r="AF35" s="12"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="53"/>
-      <c r="W36" s="53"/>
-      <c r="X36" s="53"/>
-      <c r="Y36" s="53"/>
-      <c r="Z36" s="53"/>
-      <c r="AA36" s="53"/>
-      <c r="AB36" s="54"/>
-      <c r="AC36" s="46"/>
-      <c r="AD36" s="47"/>
-      <c r="AE36" s="48"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="57"/>
+      <c r="Y36" s="57"/>
+      <c r="Z36" s="57"/>
+      <c r="AA36" s="57"/>
+      <c r="AB36" s="58"/>
+      <c r="AC36" s="50"/>
+      <c r="AD36" s="51"/>
+      <c r="AE36" s="52"/>
       <c r="AF36" s="12"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="53"/>
-      <c r="W37" s="53"/>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="53"/>
-      <c r="Z37" s="53"/>
-      <c r="AA37" s="53"/>
-      <c r="AB37" s="54"/>
-      <c r="AC37" s="46"/>
-      <c r="AD37" s="47"/>
-      <c r="AE37" s="48"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="57"/>
+      <c r="T37" s="57"/>
+      <c r="U37" s="57"/>
+      <c r="V37" s="57"/>
+      <c r="W37" s="57"/>
+      <c r="X37" s="57"/>
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57"/>
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="58"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="51"/>
+      <c r="AE37" s="52"/>
       <c r="AF37" s="12"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -13513,53 +13089,27 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="Z9:AA11"/>
+    <mergeCell ref="AB9:AC11"/>
+    <mergeCell ref="B13:AE15"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="J20:AB20"/>
+    <mergeCell ref="J21:AB21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="F8:Q9"/>
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
     <mergeCell ref="AC37:AE37"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="J22:AB22"/>
@@ -13576,27 +13126,53 @@
     <mergeCell ref="J33:AB33"/>
     <mergeCell ref="AC33:AE33"/>
     <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="Z9:AA11"/>
-    <mergeCell ref="AB9:AC11"/>
-    <mergeCell ref="B13:AE15"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="J20:AB20"/>
-    <mergeCell ref="J21:AB21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="B8:E9"/>
-    <mergeCell ref="F8:Q9"/>
-    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -13725,8 +13301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL51"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:AL1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AK25" sqref="AK25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -17343,25 +16919,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2B0453A4F97AA4594841E00C62E1F84" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b4ec096b6f6caeabb13d9a32e416b02d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a400ae294e8a05ebb5f0513890681b30" ns2:_="">
     <xsd:import namespace="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
@@ -17533,25 +17090,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2943A47C-3A6D-4AAA-B52D-79C0E305302C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82CC02B3-FCE5-4223-8B61-A8382C5BF06A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17567,4 +17125,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2943A47C-3A6D-4AAA-B52D-79C0E305302C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面遷移図.xlsx
+++ b/02_画面設計書・モックアップ/画面遷移図.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konoh\Documents\GitHub\2023Dev3Early\02_画面設計書・モックアップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2101201\Documents\GitHub\2023Dev3Early\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E06C933-12BC-40AC-9E91-E9504EC601AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0200DE0E-819E-48F0-B9A3-24DA5BE35D45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -35,10 +35,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -956,18 +956,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -976,15 +964,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -994,9 +976,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1017,6 +996,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1042,6 +1030,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7533,7 +7533,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>G1-8-1</a:t>
+            <a:t>G1-8-2</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7745,7 +7745,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>G1-8-1</a:t>
+            <a:t>G1-8-4</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7957,7 +7957,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>G1-8-1</a:t>
+            <a:t>G1-8-3</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -11999,9 +11999,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.08984375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.08984375" style="16" customWidth="1"/>
-    <col min="7" max="32" width="4.08984375" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="16" customWidth="1"/>
+    <col min="7" max="32" width="4.125" style="1" customWidth="1"/>
     <col min="33" max="36" width="4" style="1" customWidth="1"/>
     <col min="37" max="16384" width="9" style="1"/>
   </cols>
@@ -12241,16 +12241,16 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="46" t="s">
+      <c r="X3" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="48">
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="79">
         <v>45042</v>
       </c>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="47"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="78"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="12"/>
@@ -12368,20 +12368,20 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="61"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="51"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -12399,80 +12399,80 @@
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="75" t="s">
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="77"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="73"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="46" t="s">
+      <c r="X8" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="46" t="s">
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="46" t="s">
+      <c r="AA8" s="78"/>
+      <c r="AB8" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="AC8" s="47"/>
+      <c r="AC8" s="78"/>
       <c r="AD8" s="31"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15" customHeight="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="80"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="76"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="62" t="s">
+      <c r="X9" s="55"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AC9" s="63"/>
+      <c r="AC9" s="56"/>
       <c r="AD9" s="31"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="12"/>
@@ -12501,12 +12501,12 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="65"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="58"/>
       <c r="AD10" s="31"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="12"/>
@@ -12535,12 +12535,12 @@
       <c r="U11" s="29"/>
       <c r="V11" s="29"/>
       <c r="W11" s="29"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="67"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="60"/>
       <c r="AD11" s="31"/>
       <c r="AE11" s="29"/>
       <c r="AF11" s="12"/>
@@ -12581,106 +12581,106 @@
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="68"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="61"/>
       <c r="AF13" s="12"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="11"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="68"/>
-      <c r="AC14" s="68"/>
-      <c r="AD14" s="68"/>
-      <c r="AE14" s="68"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="61"/>
       <c r="AF14" s="12"/>
     </row>
     <row r="15" spans="1:176" ht="15" customHeight="1">
       <c r="A15" s="11"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="68"/>
-      <c r="AE15" s="68"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="61"/>
       <c r="AF15" s="12"/>
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
@@ -12819,646 +12819,646 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="50" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="50" t="s">
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="50" t="s">
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AD20" s="51"/>
-      <c r="AE20" s="52"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="48"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53">
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="62">
         <v>45042</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="56" t="s">
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="50" t="s">
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="52"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="48"/>
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="11"/>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53">
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="62">
         <v>45047</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="56" t="s">
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="50" t="s">
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="52"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="48"/>
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53">
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="62">
         <v>45057</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="56" t="s">
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="57"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="57"/>
-      <c r="X23" s="57"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="57"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="50" t="s">
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AD23" s="51"/>
-      <c r="AE23" s="52"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="48"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="57"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="51"/>
-      <c r="AE24" s="52"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="54"/>
+      <c r="AC24" s="46"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="48"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="11"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="50"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="52"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="54"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="48"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="57"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="50"/>
-      <c r="AD26" s="51"/>
-      <c r="AE26" s="52"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="54"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="48"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="11"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="50"/>
-      <c r="AD27" s="51"/>
-      <c r="AE27" s="52"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="54"/>
+      <c r="AC27" s="46"/>
+      <c r="AD27" s="47"/>
+      <c r="AE27" s="48"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="11"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="50"/>
-      <c r="AD28" s="51"/>
-      <c r="AE28" s="52"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="53"/>
+      <c r="AB28" s="54"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="48"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="57"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57"/>
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="52"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="46"/>
+      <c r="AD29" s="47"/>
+      <c r="AE29" s="48"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="57"/>
-      <c r="S30" s="57"/>
-      <c r="T30" s="57"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="57"/>
-      <c r="Y30" s="57"/>
-      <c r="Z30" s="57"/>
-      <c r="AA30" s="57"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="52"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AB30" s="54"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="47"/>
+      <c r="AE30" s="48"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="11"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="57"/>
-      <c r="X31" s="57"/>
-      <c r="Y31" s="57"/>
-      <c r="Z31" s="57"/>
-      <c r="AA31" s="57"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="51"/>
-      <c r="AE31" s="52"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="46"/>
+      <c r="AD31" s="47"/>
+      <c r="AE31" s="48"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="11"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="57"/>
-      <c r="S32" s="57"/>
-      <c r="T32" s="57"/>
-      <c r="U32" s="57"/>
-      <c r="V32" s="57"/>
-      <c r="W32" s="57"/>
-      <c r="X32" s="57"/>
-      <c r="Y32" s="57"/>
-      <c r="Z32" s="57"/>
-      <c r="AA32" s="57"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="50"/>
-      <c r="AD32" s="51"/>
-      <c r="AE32" s="52"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="53"/>
+      <c r="AA32" s="53"/>
+      <c r="AB32" s="54"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="47"/>
+      <c r="AE32" s="48"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="11"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="57"/>
-      <c r="S33" s="57"/>
-      <c r="T33" s="57"/>
-      <c r="U33" s="57"/>
-      <c r="V33" s="57"/>
-      <c r="W33" s="57"/>
-      <c r="X33" s="57"/>
-      <c r="Y33" s="57"/>
-      <c r="Z33" s="57"/>
-      <c r="AA33" s="57"/>
-      <c r="AB33" s="58"/>
-      <c r="AC33" s="50"/>
-      <c r="AD33" s="51"/>
-      <c r="AE33" s="52"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="53"/>
+      <c r="AA33" s="53"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="46"/>
+      <c r="AD33" s="47"/>
+      <c r="AE33" s="48"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="11"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="57"/>
-      <c r="S34" s="57"/>
-      <c r="T34" s="57"/>
-      <c r="U34" s="57"/>
-      <c r="V34" s="57"/>
-      <c r="W34" s="57"/>
-      <c r="X34" s="57"/>
-      <c r="Y34" s="57"/>
-      <c r="Z34" s="57"/>
-      <c r="AA34" s="57"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="50"/>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="52"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="53"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="53"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="53"/>
+      <c r="AA34" s="53"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="46"/>
+      <c r="AD34" s="47"/>
+      <c r="AE34" s="48"/>
       <c r="AF34" s="12"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="57"/>
-      <c r="T35" s="57"/>
-      <c r="U35" s="57"/>
-      <c r="V35" s="57"/>
-      <c r="W35" s="57"/>
-      <c r="X35" s="57"/>
-      <c r="Y35" s="57"/>
-      <c r="Z35" s="57"/>
-      <c r="AA35" s="57"/>
-      <c r="AB35" s="58"/>
-      <c r="AC35" s="50"/>
-      <c r="AD35" s="51"/>
-      <c r="AE35" s="52"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="53"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="53"/>
+      <c r="Y35" s="53"/>
+      <c r="Z35" s="53"/>
+      <c r="AA35" s="53"/>
+      <c r="AB35" s="54"/>
+      <c r="AC35" s="46"/>
+      <c r="AD35" s="47"/>
+      <c r="AE35" s="48"/>
       <c r="AF35" s="12"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="57"/>
-      <c r="S36" s="57"/>
-      <c r="T36" s="57"/>
-      <c r="U36" s="57"/>
-      <c r="V36" s="57"/>
-      <c r="W36" s="57"/>
-      <c r="X36" s="57"/>
-      <c r="Y36" s="57"/>
-      <c r="Z36" s="57"/>
-      <c r="AA36" s="57"/>
-      <c r="AB36" s="58"/>
-      <c r="AC36" s="50"/>
-      <c r="AD36" s="51"/>
-      <c r="AE36" s="52"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="53"/>
+      <c r="AB36" s="54"/>
+      <c r="AC36" s="46"/>
+      <c r="AD36" s="47"/>
+      <c r="AE36" s="48"/>
       <c r="AF36" s="12"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57"/>
-      <c r="S37" s="57"/>
-      <c r="T37" s="57"/>
-      <c r="U37" s="57"/>
-      <c r="V37" s="57"/>
-      <c r="W37" s="57"/>
-      <c r="X37" s="57"/>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57"/>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="58"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="51"/>
-      <c r="AE37" s="52"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="53"/>
+      <c r="W37" s="53"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="53"/>
+      <c r="Z37" s="53"/>
+      <c r="AA37" s="53"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="47"/>
+      <c r="AE37" s="48"/>
       <c r="AF37" s="12"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -13497,6 +13497,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="J22:AB22"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="AC21:AE21"/>
@@ -13513,74 +13581,6 @@
     <mergeCell ref="B8:E9"/>
     <mergeCell ref="F8:Q9"/>
     <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="J22:AB22"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -13600,14 +13600,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="26.08984375" style="33" customWidth="1"/>
-    <col min="3" max="3" width="36.453125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="18.36328125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="50.7265625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="33" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="36.5" style="33" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="33" customWidth="1"/>
+    <col min="6" max="6" width="50.75" style="33" customWidth="1"/>
     <col min="7" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
@@ -13711,15 +13711,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AN20" sqref="AN20"/>
+    <sheetView tabSelected="1" topLeftCell="S14" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AN34" sqref="AN34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.08984375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.08984375" style="16" customWidth="1"/>
-    <col min="7" max="38" width="4.08984375" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="16" customWidth="1"/>
+    <col min="7" max="38" width="4.125" style="1" customWidth="1"/>
     <col min="39" max="42" width="4" style="1" customWidth="1"/>
     <col min="43" max="16384" width="9" style="1"/>
   </cols>
@@ -14026,7 +14026,7 @@
       <c r="AK7" s="5"/>
       <c r="AL7" s="12"/>
     </row>
-    <row r="8" spans="1:38" ht="12.5" customHeight="1">
+    <row r="8" spans="1:38" ht="12.6" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -14626,7 +14626,7 @@
       <c r="AK23" s="5"/>
       <c r="AL23" s="12"/>
     </row>
-    <row r="24" spans="1:38" ht="12.5" customHeight="1">
+    <row r="24" spans="1:38" ht="12.6" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -15358,7 +15358,7 @@
       <c r="AK43" s="5"/>
       <c r="AL43" s="12"/>
     </row>
-    <row r="44" spans="1:38" ht="12.5" customHeight="1">
+    <row r="44" spans="1:38" ht="12.6" customHeight="1">
       <c r="A44" s="11"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -15711,9 +15711,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.08984375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.08984375" style="16" customWidth="1"/>
-    <col min="7" max="33" width="4.08984375" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="16" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="9" style="1"/>
   </cols>
@@ -17329,6 +17329,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2B0453A4F97AA4594841E00C62E1F84" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b4ec096b6f6caeabb13d9a32e416b02d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a400ae294e8a05ebb5f0513890681b30" ns2:_="">
     <xsd:import namespace="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
@@ -17500,15 +17509,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -17520,6 +17520,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82CC02B3-FCE5-4223-8B61-A8382C5BF06A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17537,14 +17545,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2943A47C-3A6D-4AAA-B52D-79C0E305302C}">
   <ds:schemaRefs>

--- a/02_画面設計書・モックアップ/画面遷移図.xlsx
+++ b/02_画面設計書・モックアップ/画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\desktop-tutorial\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C466D3D-9F13-4084-AB03-3748A81236A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177D2A4F-B46C-4E08-92F1-1150A2B98227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -956,6 +956,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -964,9 +976,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -976,6 +994,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -996,15 +1017,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1030,18 +1042,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6059,13 +6059,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>122114</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>27271</xdr:rowOff>
+      <xdr:rowOff>24423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>170961</xdr:colOff>
+      <xdr:colOff>138397</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>65128</xdr:rowOff>
+      <xdr:rowOff>27271</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6079,9 +6079,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3826281" y="1793874"/>
-          <a:ext cx="5462629" cy="37857"/>
+        <a:xfrm flipH="1">
+          <a:off x="3826281" y="1791026"/>
+          <a:ext cx="5430065" cy="2848"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8464,15 +8464,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>81411</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>50184</xdr:rowOff>
+      <xdr:colOff>65129</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>40705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>268655</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>78720</xdr:rowOff>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>46156</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8483,15 +8483,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="60" idx="1"/>
-          <a:endCxn id="35" idx="3"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4925321" y="4259094"/>
-          <a:ext cx="757116" cy="28536"/>
+          <a:off x="4909039" y="4575256"/>
+          <a:ext cx="716410" cy="5451"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11776,16 +11773,16 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="77" t="s">
+      <c r="X3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="79">
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="48">
         <v>45042</v>
       </c>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="78"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="47"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="12"/>
@@ -11903,20 +11900,20 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="51"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="61"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -11934,80 +11931,80 @@
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="71" t="s">
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="73"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="77"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="77" t="s">
+      <c r="X8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="77" t="s">
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AA8" s="78"/>
-      <c r="AB8" s="77" t="s">
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AC8" s="78"/>
+      <c r="AC8" s="47"/>
       <c r="AD8" s="31"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15" customHeight="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="76"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="80"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="55" t="s">
+      <c r="X9" s="62"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="AC9" s="56"/>
+      <c r="AC9" s="63"/>
       <c r="AD9" s="31"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="12"/>
@@ -12036,12 +12033,12 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="58"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="65"/>
       <c r="AD10" s="31"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="12"/>
@@ -12070,12 +12067,12 @@
       <c r="U11" s="29"/>
       <c r="V11" s="29"/>
       <c r="W11" s="29"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="60"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="67"/>
       <c r="AD11" s="31"/>
       <c r="AE11" s="29"/>
       <c r="AF11" s="12"/>
@@ -12116,106 +12113,106 @@
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="61"/>
-      <c r="AC13" s="61"/>
-      <c r="AD13" s="61"/>
-      <c r="AE13" s="61"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="68"/>
       <c r="AF13" s="12"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="11"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="61"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
       <c r="AF14" s="12"/>
     </row>
     <row r="15" spans="1:176" ht="15" customHeight="1">
       <c r="A15" s="11"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="61"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="61"/>
-      <c r="AB15" s="61"/>
-      <c r="AC15" s="61"/>
-      <c r="AD15" s="61"/>
-      <c r="AE15" s="61"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="68"/>
       <c r="AF15" s="12"/>
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
@@ -12354,646 +12351,646 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="46" t="s">
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="46" t="s">
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="46" t="s">
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="48"/>
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="52"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="62">
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="53">
         <v>45042</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="52" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="46" t="s">
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="48"/>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="52"/>
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="11"/>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="62">
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53">
         <v>45047</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="52" t="s">
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="54"/>
-      <c r="AC22" s="46" t="s">
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="48"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="52"/>
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="62">
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53">
         <v>45057</v>
       </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="52" t="s">
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="54"/>
-      <c r="AC23" s="46" t="s">
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="57"/>
+      <c r="AB23" s="58"/>
+      <c r="AC23" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="48"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="52"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="54"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="47"/>
-      <c r="AE24" s="48"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="51"/>
+      <c r="AE24" s="52"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="11"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="53"/>
-      <c r="AB25" s="54"/>
-      <c r="AC25" s="46"/>
-      <c r="AD25" s="47"/>
-      <c r="AE25" s="48"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="57"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="52"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="53"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="53"/>
-      <c r="AB26" s="54"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="47"/>
-      <c r="AE26" s="48"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="52"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="11"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="54"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="47"/>
-      <c r="AE27" s="48"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="51"/>
+      <c r="AE27" s="52"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="11"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="53"/>
-      <c r="Z28" s="53"/>
-      <c r="AA28" s="53"/>
-      <c r="AB28" s="54"/>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="47"/>
-      <c r="AE28" s="48"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="52"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="53"/>
-      <c r="AA29" s="53"/>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="46"/>
-      <c r="AD29" s="47"/>
-      <c r="AE29" s="48"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="57"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="52"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="53"/>
-      <c r="AA30" s="53"/>
-      <c r="AB30" s="54"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="47"/>
-      <c r="AE30" s="48"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="57"/>
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="50"/>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="52"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="11"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="54"/>
-      <c r="AC31" s="46"/>
-      <c r="AD31" s="47"/>
-      <c r="AE31" s="48"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="57"/>
+      <c r="Z31" s="57"/>
+      <c r="AA31" s="57"/>
+      <c r="AB31" s="58"/>
+      <c r="AC31" s="50"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="52"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="11"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="53"/>
-      <c r="Z32" s="53"/>
-      <c r="AA32" s="53"/>
-      <c r="AB32" s="54"/>
-      <c r="AC32" s="46"/>
-      <c r="AD32" s="47"/>
-      <c r="AE32" s="48"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="57"/>
+      <c r="Z32" s="57"/>
+      <c r="AA32" s="57"/>
+      <c r="AB32" s="58"/>
+      <c r="AC32" s="50"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="52"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="11"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="53"/>
-      <c r="Z33" s="53"/>
-      <c r="AA33" s="53"/>
-      <c r="AB33" s="54"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="47"/>
-      <c r="AE33" s="48"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="57"/>
+      <c r="X33" s="57"/>
+      <c r="Y33" s="57"/>
+      <c r="Z33" s="57"/>
+      <c r="AA33" s="57"/>
+      <c r="AB33" s="58"/>
+      <c r="AC33" s="50"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="52"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="11"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="53"/>
-      <c r="V34" s="53"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="53"/>
-      <c r="Y34" s="53"/>
-      <c r="Z34" s="53"/>
-      <c r="AA34" s="53"/>
-      <c r="AB34" s="54"/>
-      <c r="AC34" s="46"/>
-      <c r="AD34" s="47"/>
-      <c r="AE34" s="48"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="57"/>
+      <c r="AA34" s="57"/>
+      <c r="AB34" s="58"/>
+      <c r="AC34" s="50"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="52"/>
       <c r="AF34" s="12"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="53"/>
-      <c r="V35" s="53"/>
-      <c r="W35" s="53"/>
-      <c r="X35" s="53"/>
-      <c r="Y35" s="53"/>
-      <c r="Z35" s="53"/>
-      <c r="AA35" s="53"/>
-      <c r="AB35" s="54"/>
-      <c r="AC35" s="46"/>
-      <c r="AD35" s="47"/>
-      <c r="AE35" s="48"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="57"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="57"/>
+      <c r="X35" s="57"/>
+      <c r="Y35" s="57"/>
+      <c r="Z35" s="57"/>
+      <c r="AA35" s="57"/>
+      <c r="AB35" s="58"/>
+      <c r="AC35" s="50"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="52"/>
       <c r="AF35" s="12"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="53"/>
-      <c r="W36" s="53"/>
-      <c r="X36" s="53"/>
-      <c r="Y36" s="53"/>
-      <c r="Z36" s="53"/>
-      <c r="AA36" s="53"/>
-      <c r="AB36" s="54"/>
-      <c r="AC36" s="46"/>
-      <c r="AD36" s="47"/>
-      <c r="AE36" s="48"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="57"/>
+      <c r="Y36" s="57"/>
+      <c r="Z36" s="57"/>
+      <c r="AA36" s="57"/>
+      <c r="AB36" s="58"/>
+      <c r="AC36" s="50"/>
+      <c r="AD36" s="51"/>
+      <c r="AE36" s="52"/>
       <c r="AF36" s="12"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="53"/>
-      <c r="W37" s="53"/>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="53"/>
-      <c r="Z37" s="53"/>
-      <c r="AA37" s="53"/>
-      <c r="AB37" s="54"/>
-      <c r="AC37" s="46"/>
-      <c r="AD37" s="47"/>
-      <c r="AE37" s="48"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="57"/>
+      <c r="T37" s="57"/>
+      <c r="U37" s="57"/>
+      <c r="V37" s="57"/>
+      <c r="W37" s="57"/>
+      <c r="X37" s="57"/>
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57"/>
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="58"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="51"/>
+      <c r="AE37" s="52"/>
       <c r="AF37" s="12"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -13032,53 +13029,27 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="Z9:AA11"/>
+    <mergeCell ref="AB9:AC11"/>
+    <mergeCell ref="B13:AE15"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="J20:AB20"/>
+    <mergeCell ref="J21:AB21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="F8:Q9"/>
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
     <mergeCell ref="AC37:AE37"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="J22:AB22"/>
@@ -13095,27 +13066,53 @@
     <mergeCell ref="J33:AB33"/>
     <mergeCell ref="AC33:AE33"/>
     <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="Z9:AA11"/>
-    <mergeCell ref="AB9:AC11"/>
-    <mergeCell ref="B13:AE15"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="J20:AB20"/>
-    <mergeCell ref="J21:AB21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="B8:E9"/>
-    <mergeCell ref="F8:Q9"/>
-    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -13247,7 +13244,7 @@
   <dimension ref="A1:AL51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AL6" sqref="AL6"/>
+      <selection activeCell="AI6" sqref="AI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -16864,25 +16861,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2B0453A4F97AA4594841E00C62E1F84" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b4ec096b6f6caeabb13d9a32e416b02d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a400ae294e8a05ebb5f0513890681b30" ns2:_="">
     <xsd:import namespace="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
@@ -17054,25 +17032,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2943A47C-3A6D-4AAA-B52D-79C0E305302C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82CC02B3-FCE5-4223-8B61-A8382C5BF06A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17088,4 +17067,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2943A47C-3A6D-4AAA-B52D-79C0E305302C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面遷移図.xlsx
+++ b/02_画面設計書・モックアップ/画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\desktop-tutorial\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177D2A4F-B46C-4E08-92F1-1150A2B98227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2D6677-FCAC-4BD7-8C10-DE65BE60C4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -956,18 +956,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -976,15 +964,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -994,9 +976,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1017,6 +996,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1042,6 +1030,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2192,16 +2192,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>244232</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>32564</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>89551</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>40705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>105833</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>36714</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>113974</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53405</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2217,13 +2217,13 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="11055514" y="2450449"/>
-          <a:ext cx="138396" cy="4150"/>
+        <a:xfrm>
+          <a:off x="1514230" y="1644487"/>
+          <a:ext cx="1164167" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -344121"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -2421,16 +2421,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>122115</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>89551</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>138397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>130257</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>56986</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>113974</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>156469</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2445,8 +2445,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10917115" y="1090897"/>
-          <a:ext cx="8142" cy="732692"/>
+          <a:off x="6073205" y="3533205"/>
+          <a:ext cx="24423" cy="343713"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11164,6 +11164,654 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>195386</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>154679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>48846</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>158829</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="カギ線コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F90BD60A-58CF-4D39-9B34-4E0A694D73B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5324232" y="1432820"/>
+          <a:ext cx="138396" cy="4150"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -344121"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>46568</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>103554</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>184964</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107704</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="カギ線コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C4C630E-55F2-462A-A39C-E22E08FF40D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3750735" y="1544516"/>
+          <a:ext cx="138396" cy="4150"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -344121"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>211668</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>65128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>350064</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>69278</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="カギ線コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF123E9E-5DCB-43DD-9C1F-97EEEBD79E63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="12146412" y="4111218"/>
+          <a:ext cx="138396" cy="4150"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -344121"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>160542</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>14002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>14003</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>18152</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="カギ線コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E15E9DA8-1D22-42EB-B89D-AF8E151FF7D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="6999004" y="1292143"/>
+          <a:ext cx="138396" cy="4150"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -344121"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>56987</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>48845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>81410</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BA7AE9-F0C2-4B36-8B74-3D20E89644C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1196731" y="1978268"/>
+          <a:ext cx="24423" cy="382629"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>48847</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>16281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>56987</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>89551</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F40FA314-5246-4D92-8D32-6AD922111FC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9451732" y="3573909"/>
+          <a:ext cx="8140" cy="236091"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>138398</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>162820</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>113974</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C043E42A-E182-4DBE-B0C6-BC7863F6801D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9541283" y="4770641"/>
+          <a:ext cx="24422" cy="366346"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>162820</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>97693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>203525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>81410</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09B3EE2C-F3AD-44B2-9D2A-FBB33E1375F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9565705" y="6097629"/>
+          <a:ext cx="40705" cy="309358"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>146538</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>8141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>154680</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>89550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線矢印コネクタ 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{740EFA69-EEA9-4AFC-9C22-513D74322DAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11527692" y="3077308"/>
+          <a:ext cx="8142" cy="732691"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>159097</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>75944</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>102113</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>116649</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="コネクタ: カギ線 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0825359-A147-4245-888C-BF450D6164B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="4811695" y="3132897"/>
+          <a:ext cx="40705" cy="3647183"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2741609"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>53263</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>84083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>281215</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>124788</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="コネクタ: カギ線 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{518D394D-98E2-4872-4226-E0CA573B3A33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="61" idx="2"/>
+          <a:endCxn id="60" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4420925" y="3141036"/>
+          <a:ext cx="40705" cy="3647183"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 661602"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11773,16 +12421,16 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="46" t="s">
+      <c r="X3" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="48">
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="79">
         <v>45042</v>
       </c>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="47"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="78"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="12"/>
@@ -11900,20 +12548,20 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="61"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="51"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -11931,80 +12579,80 @@
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="75" t="s">
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="77"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="73"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="46" t="s">
+      <c r="X8" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="46" t="s">
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="46" t="s">
+      <c r="AA8" s="78"/>
+      <c r="AB8" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="AC8" s="47"/>
+      <c r="AC8" s="78"/>
       <c r="AD8" s="31"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15" customHeight="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="80"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="76"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="62" t="s">
+      <c r="X9" s="55"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AC9" s="63"/>
+      <c r="AC9" s="56"/>
       <c r="AD9" s="31"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="12"/>
@@ -12033,12 +12681,12 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="65"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="58"/>
       <c r="AD10" s="31"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="12"/>
@@ -12067,12 +12715,12 @@
       <c r="U11" s="29"/>
       <c r="V11" s="29"/>
       <c r="W11" s="29"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="67"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="60"/>
       <c r="AD11" s="31"/>
       <c r="AE11" s="29"/>
       <c r="AF11" s="12"/>
@@ -12113,106 +12761,106 @@
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="68"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="61"/>
       <c r="AF13" s="12"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="11"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="68"/>
-      <c r="AC14" s="68"/>
-      <c r="AD14" s="68"/>
-      <c r="AE14" s="68"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="61"/>
       <c r="AF14" s="12"/>
     </row>
     <row r="15" spans="1:176" ht="15" customHeight="1">
       <c r="A15" s="11"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="68"/>
-      <c r="AE15" s="68"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="61"/>
       <c r="AF15" s="12"/>
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
@@ -12351,646 +12999,646 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="50" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="50" t="s">
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="50" t="s">
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AD20" s="51"/>
-      <c r="AE20" s="52"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="48"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53">
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="62">
         <v>45042</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="56" t="s">
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="50" t="s">
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="52"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="48"/>
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="11"/>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53">
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="62">
         <v>45047</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="56" t="s">
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="50" t="s">
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="52"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="48"/>
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53">
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="62">
         <v>45057</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="56" t="s">
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="57"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="57"/>
-      <c r="X23" s="57"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="57"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="50" t="s">
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AD23" s="51"/>
-      <c r="AE23" s="52"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="48"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="57"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="51"/>
-      <c r="AE24" s="52"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="54"/>
+      <c r="AC24" s="46"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="48"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="11"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="50"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="52"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="54"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="48"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="57"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="50"/>
-      <c r="AD26" s="51"/>
-      <c r="AE26" s="52"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="54"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="48"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="11"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="50"/>
-      <c r="AD27" s="51"/>
-      <c r="AE27" s="52"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="54"/>
+      <c r="AC27" s="46"/>
+      <c r="AD27" s="47"/>
+      <c r="AE27" s="48"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="11"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="50"/>
-      <c r="AD28" s="51"/>
-      <c r="AE28" s="52"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="53"/>
+      <c r="AB28" s="54"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="48"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="57"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57"/>
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="52"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="46"/>
+      <c r="AD29" s="47"/>
+      <c r="AE29" s="48"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="57"/>
-      <c r="S30" s="57"/>
-      <c r="T30" s="57"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="57"/>
-      <c r="Y30" s="57"/>
-      <c r="Z30" s="57"/>
-      <c r="AA30" s="57"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="52"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AB30" s="54"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="47"/>
+      <c r="AE30" s="48"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="11"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="57"/>
-      <c r="X31" s="57"/>
-      <c r="Y31" s="57"/>
-      <c r="Z31" s="57"/>
-      <c r="AA31" s="57"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="51"/>
-      <c r="AE31" s="52"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="46"/>
+      <c r="AD31" s="47"/>
+      <c r="AE31" s="48"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="11"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="57"/>
-      <c r="S32" s="57"/>
-      <c r="T32" s="57"/>
-      <c r="U32" s="57"/>
-      <c r="V32" s="57"/>
-      <c r="W32" s="57"/>
-      <c r="X32" s="57"/>
-      <c r="Y32" s="57"/>
-      <c r="Z32" s="57"/>
-      <c r="AA32" s="57"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="50"/>
-      <c r="AD32" s="51"/>
-      <c r="AE32" s="52"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="53"/>
+      <c r="AA32" s="53"/>
+      <c r="AB32" s="54"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="47"/>
+      <c r="AE32" s="48"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="11"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="57"/>
-      <c r="S33" s="57"/>
-      <c r="T33" s="57"/>
-      <c r="U33" s="57"/>
-      <c r="V33" s="57"/>
-      <c r="W33" s="57"/>
-      <c r="X33" s="57"/>
-      <c r="Y33" s="57"/>
-      <c r="Z33" s="57"/>
-      <c r="AA33" s="57"/>
-      <c r="AB33" s="58"/>
-      <c r="AC33" s="50"/>
-      <c r="AD33" s="51"/>
-      <c r="AE33" s="52"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="53"/>
+      <c r="AA33" s="53"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="46"/>
+      <c r="AD33" s="47"/>
+      <c r="AE33" s="48"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="11"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="57"/>
-      <c r="S34" s="57"/>
-      <c r="T34" s="57"/>
-      <c r="U34" s="57"/>
-      <c r="V34" s="57"/>
-      <c r="W34" s="57"/>
-      <c r="X34" s="57"/>
-      <c r="Y34" s="57"/>
-      <c r="Z34" s="57"/>
-      <c r="AA34" s="57"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="50"/>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="52"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="53"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="53"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="53"/>
+      <c r="AA34" s="53"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="46"/>
+      <c r="AD34" s="47"/>
+      <c r="AE34" s="48"/>
       <c r="AF34" s="12"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="57"/>
-      <c r="T35" s="57"/>
-      <c r="U35" s="57"/>
-      <c r="V35" s="57"/>
-      <c r="W35" s="57"/>
-      <c r="X35" s="57"/>
-      <c r="Y35" s="57"/>
-      <c r="Z35" s="57"/>
-      <c r="AA35" s="57"/>
-      <c r="AB35" s="58"/>
-      <c r="AC35" s="50"/>
-      <c r="AD35" s="51"/>
-      <c r="AE35" s="52"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="53"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="53"/>
+      <c r="Y35" s="53"/>
+      <c r="Z35" s="53"/>
+      <c r="AA35" s="53"/>
+      <c r="AB35" s="54"/>
+      <c r="AC35" s="46"/>
+      <c r="AD35" s="47"/>
+      <c r="AE35" s="48"/>
       <c r="AF35" s="12"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="57"/>
-      <c r="S36" s="57"/>
-      <c r="T36" s="57"/>
-      <c r="U36" s="57"/>
-      <c r="V36" s="57"/>
-      <c r="W36" s="57"/>
-      <c r="X36" s="57"/>
-      <c r="Y36" s="57"/>
-      <c r="Z36" s="57"/>
-      <c r="AA36" s="57"/>
-      <c r="AB36" s="58"/>
-      <c r="AC36" s="50"/>
-      <c r="AD36" s="51"/>
-      <c r="AE36" s="52"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="53"/>
+      <c r="AB36" s="54"/>
+      <c r="AC36" s="46"/>
+      <c r="AD36" s="47"/>
+      <c r="AE36" s="48"/>
       <c r="AF36" s="12"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57"/>
-      <c r="S37" s="57"/>
-      <c r="T37" s="57"/>
-      <c r="U37" s="57"/>
-      <c r="V37" s="57"/>
-      <c r="W37" s="57"/>
-      <c r="X37" s="57"/>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57"/>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="58"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="51"/>
-      <c r="AE37" s="52"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="53"/>
+      <c r="W37" s="53"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="53"/>
+      <c r="Z37" s="53"/>
+      <c r="AA37" s="53"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="47"/>
+      <c r="AE37" s="48"/>
       <c r="AF37" s="12"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -13029,6 +13677,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="J22:AB22"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="AC21:AE21"/>
@@ -13045,74 +13761,6 @@
     <mergeCell ref="B8:E9"/>
     <mergeCell ref="F8:Q9"/>
     <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="J22:AB22"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -13244,7 +13892,7 @@
   <dimension ref="A1:AL51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AI6" sqref="AI6"/>
+      <selection activeCell="Z30" sqref="Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -16861,6 +17509,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2B0453A4F97AA4594841E00C62E1F84" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b4ec096b6f6caeabb13d9a32e416b02d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a400ae294e8a05ebb5f0513890681b30" ns2:_="">
     <xsd:import namespace="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
@@ -17032,26 +17699,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2943A47C-3A6D-4AAA-B52D-79C0E305302C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82CC02B3-FCE5-4223-8B61-A8382C5BF06A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17067,22 +17733,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2943A47C-3A6D-4AAA-B52D-79C0E305302C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面遷移図.xlsx
+++ b/02_画面設計書・モックアップ/画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\desktop-tutorial\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2D6677-FCAC-4BD7-8C10-DE65BE60C4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D7176A-5DCC-4DEE-83FE-592CFEAF74CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -956,6 +956,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -964,9 +976,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -976,6 +994,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -996,15 +1017,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1030,18 +1042,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2192,16 +2192,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>89551</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>40705</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>81409</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>122116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>113974</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>53405</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>618717</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>134816</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2218,7 +2218,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1514230" y="1644487"/>
+          <a:off x="12016153" y="4656667"/>
           <a:ext cx="1164167" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -2422,13 +2422,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>89551</xdr:colOff>
+      <xdr:colOff>89550</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>138397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>113974</xdr:colOff>
+      <xdr:colOff>89550</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>156469</xdr:rowOff>
     </xdr:to>
@@ -2445,8 +2445,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6073205" y="3533205"/>
-          <a:ext cx="24423" cy="343713"/>
+          <a:off x="6073204" y="3533205"/>
+          <a:ext cx="0" cy="343713"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2647,16 +2647,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>245536</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>25729</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>121083</xdr:rowOff>
+      <xdr:rowOff>112942</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>133190</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>198318</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>107641</xdr:rowOff>
+      <xdr:rowOff>99500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2671,8 +2671,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9363485" y="4655634"/>
-          <a:ext cx="742461" cy="312199"/>
+          <a:off x="8288870" y="4810314"/>
+          <a:ext cx="1312333" cy="312199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2819,13 +2819,13 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>239086</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>22768</xdr:rowOff>
+      <xdr:rowOff>22767</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>144260</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>36769</xdr:rowOff>
+      <xdr:rowOff>22767</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2843,8 +2843,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7077548" y="1138089"/>
-          <a:ext cx="475045" cy="14001"/>
+          <a:off x="7077548" y="1138088"/>
+          <a:ext cx="475045" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3289,13 +3289,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>162820</xdr:colOff>
+      <xdr:colOff>162819</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>154680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>170961</xdr:colOff>
+      <xdr:colOff>162819</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>81410</xdr:rowOff>
     </xdr:to>
@@ -3312,8 +3312,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2727243" y="3386667"/>
-          <a:ext cx="8141" cy="415192"/>
+          <a:off x="2727242" y="3549488"/>
+          <a:ext cx="0" cy="415191"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3352,7 +3352,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>211526</xdr:colOff>
+      <xdr:colOff>203526</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>68711</xdr:rowOff>
     </xdr:to>
@@ -3371,8 +3371,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7611859" y="3345962"/>
-          <a:ext cx="8000" cy="2885505"/>
+          <a:off x="7611859" y="3508783"/>
+          <a:ext cx="0" cy="2885505"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3970,13 +3970,13 @@
       <xdr:col>30</xdr:col>
       <xdr:colOff>179102</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>138397</xdr:rowOff>
+      <xdr:rowOff>138396</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>162820</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>146538</xdr:rowOff>
+      <xdr:rowOff>138396</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3991,8 +3991,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8727179" y="1253718"/>
-          <a:ext cx="553590" cy="8141"/>
+          <a:off x="8727179" y="1253717"/>
+          <a:ext cx="553590" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4530,16 +4530,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>154679</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>252371</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>122114</xdr:rowOff>
+      <xdr:rowOff>138397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>42333</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>32564</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>108672</xdr:rowOff>
+      <xdr:rowOff>116814</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4554,8 +4554,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9272628" y="3354101"/>
-          <a:ext cx="742461" cy="312199"/>
+          <a:off x="8515512" y="3533205"/>
+          <a:ext cx="635001" cy="304058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4699,16 +4699,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>195385</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>130256</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>130256</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>16282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>87694</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>109102</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>22566</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>157948</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4723,7 +4723,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5324231" y="1896859"/>
+          <a:off x="6968718" y="1294423"/>
           <a:ext cx="747117" cy="304487"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5272,7 +5272,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>252371</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>65128</xdr:rowOff>
+      <xdr:rowOff>48846</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5288,7 +5288,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3810000" y="1326987"/>
-          <a:ext cx="431474" cy="16282"/>
+          <a:ext cx="431474" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6005,7 +6005,7 @@
       <xdr:col>30</xdr:col>
       <xdr:colOff>147840</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>91343</xdr:rowOff>
+      <xdr:rowOff>82063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6023,8 +6023,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8202290" y="6733281"/>
-          <a:ext cx="493627" cy="9280"/>
+          <a:off x="8202290" y="6896101"/>
+          <a:ext cx="493627" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6063,9 +6063,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>138397</xdr:colOff>
+      <xdr:colOff>180332</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>27271</xdr:rowOff>
+      <xdr:rowOff>24423</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6081,7 +6081,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="3826281" y="1791026"/>
-          <a:ext cx="5430065" cy="2848"/>
+          <a:ext cx="5472000" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8114,13 +8114,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>70990</xdr:colOff>
+      <xdr:colOff>70989</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>73269</xdr:colOff>
+      <xdr:colOff>70989</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>73268</xdr:rowOff>
     </xdr:to>
@@ -8137,8 +8137,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2920349" y="3384386"/>
-          <a:ext cx="2279" cy="409331"/>
+          <a:off x="2920348" y="3547207"/>
+          <a:ext cx="0" cy="409330"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8350,13 +8350,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>97112</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>146130</xdr:rowOff>
+      <xdr:rowOff>146129</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>118137</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>624</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>146129</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8371,8 +8371,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1521791" y="1424271"/>
-          <a:ext cx="1160769" cy="17315"/>
+          <a:off x="1521791" y="1424270"/>
+          <a:ext cx="1160769" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8466,13 +8466,13 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>65129</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>40705</xdr:rowOff>
+      <xdr:rowOff>40704</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>211667</xdr:colOff>
+      <xdr:colOff>251257</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>46156</xdr:rowOff>
+      <xdr:rowOff>40704</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8487,8 +8487,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4909039" y="4575256"/>
-          <a:ext cx="716410" cy="5451"/>
+          <a:off x="4909039" y="4575255"/>
+          <a:ext cx="756000" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8521,15 +8521,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>138397</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>16281</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>154679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>150956</xdr:colOff>
+      <xdr:colOff>16281</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>113975</xdr:rowOff>
+      <xdr:rowOff>117038</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8540,14 +8540,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="105" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9256346" y="3394808"/>
-          <a:ext cx="12559" cy="276795"/>
+          <a:off x="9134230" y="3549487"/>
+          <a:ext cx="0" cy="288000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9711,16 +9709,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>8141</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>16282</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>162820</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>24423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>180730</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>2840</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>50474</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>10981</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9735,7 +9733,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7986346" y="1945705"/>
+          <a:off x="6431410" y="1791026"/>
           <a:ext cx="742461" cy="312199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10947,7 +10945,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>211667</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>128151</xdr:rowOff>
+      <xdr:rowOff>113973</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10965,7 +10963,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="5384800" y="1229294"/>
-          <a:ext cx="525585" cy="14178"/>
+          <a:ext cx="525585" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11000,13 +10998,13 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>127976</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>160540</xdr:rowOff>
+      <xdr:rowOff>160539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>15629</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>147098</xdr:rowOff>
+      <xdr:rowOff>122898</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11021,8 +11019,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5256822" y="787399"/>
-          <a:ext cx="742461" cy="312199"/>
+          <a:off x="5256822" y="787398"/>
+          <a:ext cx="742461" cy="288000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11167,9 +11165,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>195386</xdr:colOff>
+      <xdr:colOff>225782</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>154679</xdr:rowOff>
+      <xdr:rowOff>158829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
@@ -11192,8 +11190,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="5324232" y="1432820"/>
-          <a:ext cx="138396" cy="4150"/>
+          <a:off x="5354628" y="1436970"/>
+          <a:ext cx="108000" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -11228,9 +11226,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>46568</xdr:colOff>
+      <xdr:colOff>76964</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>103554</xdr:rowOff>
+      <xdr:rowOff>107704</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -11253,8 +11251,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3750735" y="1544516"/>
-          <a:ext cx="138396" cy="4150"/>
+          <a:off x="3781131" y="1548666"/>
+          <a:ext cx="108000" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -11350,15 +11348,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>160542</xdr:colOff>
+      <xdr:colOff>223502</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>14002</xdr:rowOff>
+      <xdr:rowOff>10011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>14003</xdr:colOff>
+      <xdr:colOff>46567</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>18152</xdr:rowOff>
+      <xdr:rowOff>10011</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11375,8 +11373,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="6999004" y="1292143"/>
-          <a:ext cx="138396" cy="4150"/>
+          <a:off x="7061964" y="1288152"/>
+          <a:ext cx="108000" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -11417,9 +11415,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>81410</xdr:colOff>
+      <xdr:colOff>56987</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>105833</xdr:rowOff>
+      <xdr:rowOff>155204</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11435,7 +11433,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="1196731" y="1978268"/>
-          <a:ext cx="24423" cy="382629"/>
+          <a:ext cx="0" cy="432000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11469,14 +11467,14 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>48847</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>16281</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>56987</xdr:colOff>
+      <xdr:colOff>48847</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>89551</xdr:rowOff>
+      <xdr:rowOff>100754</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11491,8 +11489,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="9451732" y="3573909"/>
-          <a:ext cx="8140" cy="236091"/>
+          <a:off x="9451732" y="3533203"/>
+          <a:ext cx="0" cy="288000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11531,7 +11529,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>162820</xdr:colOff>
+      <xdr:colOff>138398</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>113974</xdr:rowOff>
     </xdr:to>
@@ -11549,7 +11547,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="9541283" y="4770641"/>
-          <a:ext cx="24422" cy="366346"/>
+          <a:ext cx="0" cy="366346"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11588,7 +11586,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>203525</xdr:colOff>
+      <xdr:colOff>162820</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>81410</xdr:rowOff>
     </xdr:to>
@@ -11606,7 +11604,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="9565705" y="6097629"/>
-          <a:ext cx="40705" cy="309358"/>
+          <a:ext cx="0" cy="309358"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11696,15 +11694,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>159097</xdr:colOff>
+      <xdr:colOff>20699</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>75944</xdr:rowOff>
+      <xdr:rowOff>84085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>102113</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>248651</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>116649</xdr:rowOff>
+      <xdr:rowOff>124790</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11719,7 +11717,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
-          <a:off x="4811695" y="3132897"/>
+          <a:off x="4673297" y="3141038"/>
           <a:ext cx="40705" cy="3647183"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -11810,6 +11808,739 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>70990</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>81410</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28036129-49FB-4635-A81A-E71E2157DF9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1495669" y="1316566"/>
+          <a:ext cx="1150164" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>44709</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>131247</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A18DB6E-F91E-403E-920F-D6CCBB28BB89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5281246" y="1430542"/>
+          <a:ext cx="747117" cy="304487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>54707</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>227296</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B73E87A6-1B37-4010-9CE7-9B2D0E3D3D2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7747976" y="2106246"/>
+          <a:ext cx="742461" cy="312199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>移行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>3582</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>180828</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>145249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A83CA42A-055F-4A9A-AF62-F601CCD2AEBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9406467" y="3561211"/>
+          <a:ext cx="747117" cy="304487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>32563</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>209809</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>141666</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8A9F59-90A8-41FA-A867-0C687E52AFAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9435448" y="4860192"/>
+          <a:ext cx="747117" cy="304487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12421,16 +13152,16 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="77" t="s">
+      <c r="X3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="79">
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="48">
         <v>45042</v>
       </c>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="78"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="47"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="12"/>
@@ -12548,20 +13279,20 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="51"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="61"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -12579,80 +13310,80 @@
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="71" t="s">
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="73"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="77"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="77" t="s">
+      <c r="X8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="77" t="s">
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AA8" s="78"/>
-      <c r="AB8" s="77" t="s">
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AC8" s="78"/>
+      <c r="AC8" s="47"/>
       <c r="AD8" s="31"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15" customHeight="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="76"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="80"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="55" t="s">
+      <c r="X9" s="62"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="AC9" s="56"/>
+      <c r="AC9" s="63"/>
       <c r="AD9" s="31"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="12"/>
@@ -12681,12 +13412,12 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="58"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="65"/>
       <c r="AD10" s="31"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="12"/>
@@ -12715,12 +13446,12 @@
       <c r="U11" s="29"/>
       <c r="V11" s="29"/>
       <c r="W11" s="29"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="60"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="67"/>
       <c r="AD11" s="31"/>
       <c r="AE11" s="29"/>
       <c r="AF11" s="12"/>
@@ -12761,106 +13492,106 @@
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="61"/>
-      <c r="AC13" s="61"/>
-      <c r="AD13" s="61"/>
-      <c r="AE13" s="61"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="68"/>
       <c r="AF13" s="12"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="11"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="61"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
       <c r="AF14" s="12"/>
     </row>
     <row r="15" spans="1:176" ht="15" customHeight="1">
       <c r="A15" s="11"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="61"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="61"/>
-      <c r="AB15" s="61"/>
-      <c r="AC15" s="61"/>
-      <c r="AD15" s="61"/>
-      <c r="AE15" s="61"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="68"/>
       <c r="AF15" s="12"/>
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
@@ -12999,646 +13730,646 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="46" t="s">
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="46" t="s">
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="46" t="s">
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="48"/>
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="52"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="62">
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="53">
         <v>45042</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="52" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="46" t="s">
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="48"/>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="52"/>
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="11"/>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="62">
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53">
         <v>45047</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="52" t="s">
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="54"/>
-      <c r="AC22" s="46" t="s">
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="48"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="52"/>
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="62">
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53">
         <v>45057</v>
       </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="52" t="s">
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="54"/>
-      <c r="AC23" s="46" t="s">
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="57"/>
+      <c r="AB23" s="58"/>
+      <c r="AC23" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="48"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="52"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="54"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="47"/>
-      <c r="AE24" s="48"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="51"/>
+      <c r="AE24" s="52"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="11"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="53"/>
-      <c r="AB25" s="54"/>
-      <c r="AC25" s="46"/>
-      <c r="AD25" s="47"/>
-      <c r="AE25" s="48"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="57"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="52"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="53"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="53"/>
-      <c r="AB26" s="54"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="47"/>
-      <c r="AE26" s="48"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="52"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="11"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="54"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="47"/>
-      <c r="AE27" s="48"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="51"/>
+      <c r="AE27" s="52"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="11"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="53"/>
-      <c r="Z28" s="53"/>
-      <c r="AA28" s="53"/>
-      <c r="AB28" s="54"/>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="47"/>
-      <c r="AE28" s="48"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="52"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="53"/>
-      <c r="AA29" s="53"/>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="46"/>
-      <c r="AD29" s="47"/>
-      <c r="AE29" s="48"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="57"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="52"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="53"/>
-      <c r="AA30" s="53"/>
-      <c r="AB30" s="54"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="47"/>
-      <c r="AE30" s="48"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="57"/>
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="50"/>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="52"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="11"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="54"/>
-      <c r="AC31" s="46"/>
-      <c r="AD31" s="47"/>
-      <c r="AE31" s="48"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="57"/>
+      <c r="Z31" s="57"/>
+      <c r="AA31" s="57"/>
+      <c r="AB31" s="58"/>
+      <c r="AC31" s="50"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="52"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="11"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="53"/>
-      <c r="Z32" s="53"/>
-      <c r="AA32" s="53"/>
-      <c r="AB32" s="54"/>
-      <c r="AC32" s="46"/>
-      <c r="AD32" s="47"/>
-      <c r="AE32" s="48"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="57"/>
+      <c r="Z32" s="57"/>
+      <c r="AA32" s="57"/>
+      <c r="AB32" s="58"/>
+      <c r="AC32" s="50"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="52"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="11"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="53"/>
-      <c r="Z33" s="53"/>
-      <c r="AA33" s="53"/>
-      <c r="AB33" s="54"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="47"/>
-      <c r="AE33" s="48"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="57"/>
+      <c r="X33" s="57"/>
+      <c r="Y33" s="57"/>
+      <c r="Z33" s="57"/>
+      <c r="AA33" s="57"/>
+      <c r="AB33" s="58"/>
+      <c r="AC33" s="50"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="52"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="11"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="53"/>
-      <c r="V34" s="53"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="53"/>
-      <c r="Y34" s="53"/>
-      <c r="Z34" s="53"/>
-      <c r="AA34" s="53"/>
-      <c r="AB34" s="54"/>
-      <c r="AC34" s="46"/>
-      <c r="AD34" s="47"/>
-      <c r="AE34" s="48"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="57"/>
+      <c r="AA34" s="57"/>
+      <c r="AB34" s="58"/>
+      <c r="AC34" s="50"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="52"/>
       <c r="AF34" s="12"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="53"/>
-      <c r="V35" s="53"/>
-      <c r="W35" s="53"/>
-      <c r="X35" s="53"/>
-      <c r="Y35" s="53"/>
-      <c r="Z35" s="53"/>
-      <c r="AA35" s="53"/>
-      <c r="AB35" s="54"/>
-      <c r="AC35" s="46"/>
-      <c r="AD35" s="47"/>
-      <c r="AE35" s="48"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="57"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="57"/>
+      <c r="X35" s="57"/>
+      <c r="Y35" s="57"/>
+      <c r="Z35" s="57"/>
+      <c r="AA35" s="57"/>
+      <c r="AB35" s="58"/>
+      <c r="AC35" s="50"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="52"/>
       <c r="AF35" s="12"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="53"/>
-      <c r="W36" s="53"/>
-      <c r="X36" s="53"/>
-      <c r="Y36" s="53"/>
-      <c r="Z36" s="53"/>
-      <c r="AA36" s="53"/>
-      <c r="AB36" s="54"/>
-      <c r="AC36" s="46"/>
-      <c r="AD36" s="47"/>
-      <c r="AE36" s="48"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="57"/>
+      <c r="Y36" s="57"/>
+      <c r="Z36" s="57"/>
+      <c r="AA36" s="57"/>
+      <c r="AB36" s="58"/>
+      <c r="AC36" s="50"/>
+      <c r="AD36" s="51"/>
+      <c r="AE36" s="52"/>
       <c r="AF36" s="12"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="53"/>
-      <c r="W37" s="53"/>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="53"/>
-      <c r="Z37" s="53"/>
-      <c r="AA37" s="53"/>
-      <c r="AB37" s="54"/>
-      <c r="AC37" s="46"/>
-      <c r="AD37" s="47"/>
-      <c r="AE37" s="48"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="57"/>
+      <c r="T37" s="57"/>
+      <c r="U37" s="57"/>
+      <c r="V37" s="57"/>
+      <c r="W37" s="57"/>
+      <c r="X37" s="57"/>
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57"/>
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="58"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="51"/>
+      <c r="AE37" s="52"/>
       <c r="AF37" s="12"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -13677,53 +14408,27 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="Z9:AA11"/>
+    <mergeCell ref="AB9:AC11"/>
+    <mergeCell ref="B13:AE15"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="J20:AB20"/>
+    <mergeCell ref="J21:AB21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="F8:Q9"/>
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
     <mergeCell ref="AC37:AE37"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="J22:AB22"/>
@@ -13740,27 +14445,53 @@
     <mergeCell ref="J33:AB33"/>
     <mergeCell ref="AC33:AE33"/>
     <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="Z9:AA11"/>
-    <mergeCell ref="AB9:AC11"/>
-    <mergeCell ref="B13:AE15"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="J20:AB20"/>
-    <mergeCell ref="J21:AB21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="B8:E9"/>
-    <mergeCell ref="F8:Q9"/>
-    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -13891,8 +14622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z30" sqref="Z30"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AK22" sqref="AK22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -17509,25 +18240,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2B0453A4F97AA4594841E00C62E1F84" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b4ec096b6f6caeabb13d9a32e416b02d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a400ae294e8a05ebb5f0513890681b30" ns2:_="">
     <xsd:import namespace="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
@@ -17699,25 +18411,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2943A47C-3A6D-4AAA-B52D-79C0E305302C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82CC02B3-FCE5-4223-8B61-A8382C5BF06A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17733,4 +18446,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2943A47C-3A6D-4AAA-B52D-79C0E305302C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面遷移図.xlsx
+++ b/02_画面設計書・モックアップ/画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\desktop-tutorial\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D7176A-5DCC-4DEE-83FE-592CFEAF74CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821E1347-7931-473F-9D67-102318BB2F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">画面遷移図!$A$1:$AG$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面遷移図()'!$A$1:$AL$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面遷移図()'!$A$1:$AL$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">記述様式!$A$1:$F$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$38</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">画面遷移図!$1:$4</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -584,6 +584,13 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>ヘッダーのホーム、ユーザー、ログイン、ログアウトは省略しています。</t>
+    <rPh sb="25" eb="27">
+      <t>ショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -864,7 +871,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
@@ -956,18 +963,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -976,15 +971,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -994,9 +983,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1017,6 +1003,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1042,6 +1037,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1133,6 +1140,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1825,13 +1853,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>178866</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>149447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>276794</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>135838</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2026,14 +2054,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>87922</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95158</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>138398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>186263</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>80536</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>268653</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>116815</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2048,8 +2076,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3507153" y="1861761"/>
-          <a:ext cx="953148" cy="311019"/>
+          <a:off x="3507153" y="2067821"/>
+          <a:ext cx="750603" cy="304058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2192,76 +2220,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>81409</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>122116</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>618717</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>134816</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="カギ線コネクタ 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AEC80B3-205D-48B6-B5A6-DE8D746B2FB0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12016153" y="4656667"/>
-          <a:ext cx="1164167" cy="12700"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>84940</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>53011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>159937</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>27786</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2423,13 +2390,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>89550</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>138397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>89550</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>156469</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2478,16 +2445,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>42644</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>130362</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>205465</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>154786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>162902</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>109208</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>97775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133632</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2502,7 +2469,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12661234" y="1896965"/>
+          <a:off x="1060273" y="2084209"/>
           <a:ext cx="747117" cy="304487"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2649,13 +2616,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>25729</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>112942</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>198318</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>99500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2818,13 +2785,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>239086</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>22767</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>144260</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>22767</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2878,13 +2845,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>48847</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>122113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>64549</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>123360</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3091,13 +3058,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>195383</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>40705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>211085</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>130256</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3290,13 +3257,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>162819</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>154680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>162819</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>81410</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3347,13 +3314,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>203526</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>113975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>203526</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>68711</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3406,13 +3373,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>16283</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>154680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>24423</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>154680</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3463,14 +3430,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>65822</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>78720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>34449</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>90889</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>78720</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3488,8 +3455,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3200117" y="4287630"/>
-          <a:ext cx="823435" cy="12169"/>
+          <a:off x="3200117" y="4450451"/>
+          <a:ext cx="823435" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3522,15 +3489,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>268655</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>138398</xdr:rowOff>
+      <xdr:colOff>260512</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>16283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>8838</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>124789</xdr:rowOff>
+      <xdr:colOff>695</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2673</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3545,8 +3512,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5682437" y="3696026"/>
-          <a:ext cx="1164863" cy="1126135"/>
+          <a:off x="5674294" y="3899552"/>
+          <a:ext cx="1164863" cy="1126134"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3746,13 +3713,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>40703</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>97692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>65822</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>84084</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3969,13 +3936,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>179102</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>138396</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>162820</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>138396</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4026,13 +3993,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>146539</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>130256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>146539</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>146538</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4081,72 +4048,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>398909</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>24423</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>407051</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>81410</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="84" name="直線矢印コネクタ 83">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A1DFFC-C518-4270-86BA-CD0C9F3ACD00}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11763781" y="1139744"/>
-          <a:ext cx="8142" cy="708269"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>138396</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>113975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>163515</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>100367</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4361,16 +4271,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>146538</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>122116</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>32563</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>89551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>34192</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>108674</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>56986</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>67968</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4385,8 +4295,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9264487" y="5959231"/>
-          <a:ext cx="742461" cy="312199"/>
+          <a:off x="8580640" y="6089487"/>
+          <a:ext cx="594295" cy="304058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4532,13 +4442,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>252371</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>138397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>32564</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>116814</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4701,13 +4611,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>130256</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>16282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>22566</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>157948</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4868,16 +4778,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>317501</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>32565</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>437759</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>35833</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>209811</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4892,8 +4802,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11682373" y="683846"/>
-          <a:ext cx="747117" cy="304487"/>
+          <a:off x="9435450" y="6146475"/>
+          <a:ext cx="747117" cy="284936"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4902,7 +4812,7 @@
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
+          <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle>
           <a:defPPr>
@@ -5039,13 +4949,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>130255</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>154680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28491</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>133097</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5208,13 +5118,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>65129</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>146539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>73270</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>154679</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5265,13 +5175,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>105833</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>48846</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>252371</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>48846</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5322,13 +5232,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>89551</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>32564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>262140</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>19122</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5491,13 +5401,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>211667</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>122116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>99321</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>108673</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5660,13 +5570,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>97693</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>16282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>270283</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5829,13 +5739,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>32565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>177246</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>11411</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5998,13 +5908,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>224085</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>82063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>147840</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>82063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6058,13 +5968,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>122114</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>24423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>180332</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>24423</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6115,13 +6025,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>56987</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>65128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>72689</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>66375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6328,13 +6238,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>56987</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>146538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>72689</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>147786</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6541,13 +6451,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>93714</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>44638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>109415</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>52235</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6754,13 +6664,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>144260</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>103555</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>159961</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>104801</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6953,13 +6863,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>223385</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>117556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>239086</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>118802</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7152,13 +7062,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>34449</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>156331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>81411</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>1108</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7365,13 +7275,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>144258</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>111696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>169377</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>98088</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7577,13 +7487,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>198965</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>68711</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>224085</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>113975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7789,13 +7699,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>147840</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>82715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>172959</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>81412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8001,13 +7911,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>136117</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>46566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>138397</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>122115</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8056,72 +7966,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>252081</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>155926</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>260513</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>56986</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE09EFB9-0C2D-4D8C-A893-96DB5D93A168}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11063363" y="1434067"/>
-          <a:ext cx="8432" cy="389522"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>70989</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>70989</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>73268</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8172,13 +8025,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>166402</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>44286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>168681</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>127976</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8229,13 +8082,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>56698</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>147786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>64838</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>122113</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8289,13 +8142,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>64838</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>66375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>64838</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>146538</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8349,13 +8202,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>97112</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>146129</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>118137</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>146129</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8406,13 +8259,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>64549</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>113975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>252371</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>41326</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8465,13 +8318,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>65129</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>40704</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>251257</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>40704</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8522,13 +8375,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>16281</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>154679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>16281</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>117038</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8579,13 +8432,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>150956</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>100367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>156818</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>111696</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8639,13 +8492,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>156818</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>98088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>160400</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>82715</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8699,13 +8552,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>76799</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>61152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>151795</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>35927</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8867,13 +8720,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>50097</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>10027</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>125093</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>147622</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9035,13 +8888,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>48846</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>105833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>221435</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>92391</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9204,13 +9057,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>170962</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>130256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>58615</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>116814</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9373,13 +9226,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>203525</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>65128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>91178</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>51686</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9542,13 +9395,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>89551</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>105833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>262140</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>92391</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9711,13 +9564,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>162820</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>24423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>50474</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>10981</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9880,13 +9733,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>244231</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>146539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>131884</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>133097</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10049,13 +9902,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>203527</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>40705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>91180</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>27263</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10218,13 +10071,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>24424</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>197013</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>149378</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10387,13 +10240,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>48846</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>8141</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>221435</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>157519</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10556,13 +10409,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>8141</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>73269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180731</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>59827</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10725,13 +10578,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>240252</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>126047</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>255954</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>130255</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10938,13 +10791,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>255954</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>113973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>211667</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>113973</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10997,13 +10850,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>127976</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>160539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>15629</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>122898</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11166,13 +11019,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>225782</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>158829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>48846</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>158829</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11227,13 +11080,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>76964</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>107704</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>184964</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>107704</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11286,76 +11139,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>211668</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>65128</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>350064</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>69278</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="カギ線コネクタ 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF123E9E-5DCB-43DD-9C1F-97EEEBD79E63}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="12146412" y="4111218"/>
-          <a:ext cx="138396" cy="4150"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -344121"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>223502</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>10011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>46567</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>10011</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11410,13 +11202,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>56987</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>48845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>56987</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>155204</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11467,13 +11259,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>48847</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>138395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>48847</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>100754</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11524,13 +11316,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>138398</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>73269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>138398</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>113974</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11581,13 +11373,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>162820</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>97693</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>162820</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>81410</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11636,42 +11428,46 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>146538</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>8141</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>53263</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>84084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>154680</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>89550</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>273072</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2673</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="直線矢印コネクタ 63">
+        <xdr:cNvPr id="68" name="コネクタ: カギ線 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{740EFA69-EEA9-4AFC-9C22-513D74322DAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0825359-A147-4245-888C-BF450D6164B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="60" idx="2"/>
+          <a:endCxn id="61" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11527692" y="3077308"/>
-          <a:ext cx="8142" cy="732691"/>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="4396501" y="3165461"/>
+          <a:ext cx="81410" cy="3639040"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -840803"/>
+          </a:avLst>
         </a:prstGeom>
-        <a:ln w="28575">
+        <a:ln w="44450">
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -11694,73 +11490,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>20699</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>84085</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>248651</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>124790</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="コネクタ: カギ線 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0825359-A147-4245-888C-BF450D6164B5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1">
-          <a:off x="4673297" y="3141038"/>
-          <a:ext cx="40705" cy="3647183"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -2741609"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="50800">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>53263</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>84083</xdr:rowOff>
+      <xdr:colOff>20698</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>67803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>281215</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>124788</xdr:rowOff>
+      <xdr:colOff>45123</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>18956</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11771,26 +11509,24 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="61" idx="2"/>
-          <a:endCxn id="60" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4420925" y="3141036"/>
-          <a:ext cx="40705" cy="3647183"/>
+          <a:off x="4392430" y="3405622"/>
+          <a:ext cx="113974" cy="3158720"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 661602"/>
+            <a:gd name="adj1" fmla="val 300572"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln w="50800">
+        <a:ln w="38100">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
-          <a:tailEnd type="triangle"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -11814,13 +11550,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>70990</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>38425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>81410</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>38425</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11871,13 +11607,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>44709</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>131247</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12040,13 +11776,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>54707</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>14002</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>227296</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12209,13 +11945,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>3582</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>3583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>180828</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>145249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12378,13 +12114,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>32563</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>209809</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>141666</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12401,6 +12137,1081 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9435448" y="4860192"/>
+          <a:ext cx="747117" cy="304487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>60859</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>167239</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>27097</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="コネクタ: カギ線 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76618C66-074E-9EEF-7B76-C2CAD89FBD75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="3016955" y="1346300"/>
+          <a:ext cx="3882009" cy="3525611"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -43427"/>
+            <a:gd name="adj2" fmla="val 189768"/>
+            <a:gd name="adj3" fmla="val 105889"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>125697</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>84993</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>13351</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>71551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE55454-2D0B-48DC-8490-A1C78589F2E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="5759288"/>
+          <a:ext cx="742461" cy="312199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>移行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>236088</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>97694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>134324</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>67970</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A26D66A6-04CB-43DC-8172-A4FF9950169F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1945703" y="879232"/>
+          <a:ext cx="1037980" cy="613417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ログイン画面へ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>127978</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>70991</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>20288</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>30286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85007D49-F3FB-4B16-B8AB-2F1BDE9A094F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4117081" y="4931183"/>
+          <a:ext cx="747117" cy="284936"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>272238</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>141980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>164547</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8A655A7-591A-4D90-9B96-3F2DFE17B37B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5401084" y="3536788"/>
+          <a:ext cx="747117" cy="284936"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>253676</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>145986</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9444</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{535EA65F-0CDF-472B-A3BF-ECD28468AC2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3672907" y="1491111"/>
+          <a:ext cx="747117" cy="284936"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>264095</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>44288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>156404</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>23134</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56362BBA-EA70-4F7F-B366-0C9F2FF58498}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1688774" y="996788"/>
           <a:ext cx="747117" cy="304487"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13152,16 +13963,16 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="46" t="s">
+      <c r="X3" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="48">
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="79">
         <v>45042</v>
       </c>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="47"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="78"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="12"/>
@@ -13279,20 +14090,20 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="61"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="51"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -13310,80 +14121,80 @@
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="75" t="s">
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="77"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="73"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="46" t="s">
+      <c r="X8" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="46" t="s">
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="46" t="s">
+      <c r="AA8" s="78"/>
+      <c r="AB8" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="AC8" s="47"/>
+      <c r="AC8" s="78"/>
       <c r="AD8" s="31"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15" customHeight="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="80"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="76"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="62" t="s">
+      <c r="X9" s="55"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AC9" s="63"/>
+      <c r="AC9" s="56"/>
       <c r="AD9" s="31"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="12"/>
@@ -13412,12 +14223,12 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="65"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="58"/>
       <c r="AD10" s="31"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="12"/>
@@ -13446,12 +14257,12 @@
       <c r="U11" s="29"/>
       <c r="V11" s="29"/>
       <c r="W11" s="29"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="67"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="60"/>
       <c r="AD11" s="31"/>
       <c r="AE11" s="29"/>
       <c r="AF11" s="12"/>
@@ -13492,106 +14303,106 @@
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="68"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="61"/>
       <c r="AF13" s="12"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="11"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="68"/>
-      <c r="AC14" s="68"/>
-      <c r="AD14" s="68"/>
-      <c r="AE14" s="68"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="61"/>
       <c r="AF14" s="12"/>
     </row>
     <row r="15" spans="1:176" ht="15" customHeight="1">
       <c r="A15" s="11"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="68"/>
-      <c r="AE15" s="68"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="61"/>
       <c r="AF15" s="12"/>
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
@@ -13730,646 +14541,646 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="50" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="50" t="s">
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="50" t="s">
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AD20" s="51"/>
-      <c r="AE20" s="52"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="48"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53">
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="62">
         <v>45042</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="56" t="s">
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="50" t="s">
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="52"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="48"/>
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="11"/>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53">
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="62">
         <v>45047</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="56" t="s">
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="50" t="s">
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="52"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="48"/>
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53">
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="62">
         <v>45057</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="56" t="s">
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="57"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="57"/>
-      <c r="X23" s="57"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="57"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="50" t="s">
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AD23" s="51"/>
-      <c r="AE23" s="52"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="48"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="57"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="51"/>
-      <c r="AE24" s="52"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="54"/>
+      <c r="AC24" s="46"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="48"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="11"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="50"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="52"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="54"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="48"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="57"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="50"/>
-      <c r="AD26" s="51"/>
-      <c r="AE26" s="52"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="54"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="48"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="11"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="50"/>
-      <c r="AD27" s="51"/>
-      <c r="AE27" s="52"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="54"/>
+      <c r="AC27" s="46"/>
+      <c r="AD27" s="47"/>
+      <c r="AE27" s="48"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="11"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="50"/>
-      <c r="AD28" s="51"/>
-      <c r="AE28" s="52"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="53"/>
+      <c r="AB28" s="54"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="48"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="57"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57"/>
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="52"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="46"/>
+      <c r="AD29" s="47"/>
+      <c r="AE29" s="48"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="57"/>
-      <c r="S30" s="57"/>
-      <c r="T30" s="57"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="57"/>
-      <c r="Y30" s="57"/>
-      <c r="Z30" s="57"/>
-      <c r="AA30" s="57"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="52"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AB30" s="54"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="47"/>
+      <c r="AE30" s="48"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="11"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="57"/>
-      <c r="X31" s="57"/>
-      <c r="Y31" s="57"/>
-      <c r="Z31" s="57"/>
-      <c r="AA31" s="57"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="51"/>
-      <c r="AE31" s="52"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="46"/>
+      <c r="AD31" s="47"/>
+      <c r="AE31" s="48"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="11"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="57"/>
-      <c r="S32" s="57"/>
-      <c r="T32" s="57"/>
-      <c r="U32" s="57"/>
-      <c r="V32" s="57"/>
-      <c r="W32" s="57"/>
-      <c r="X32" s="57"/>
-      <c r="Y32" s="57"/>
-      <c r="Z32" s="57"/>
-      <c r="AA32" s="57"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="50"/>
-      <c r="AD32" s="51"/>
-      <c r="AE32" s="52"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="53"/>
+      <c r="AA32" s="53"/>
+      <c r="AB32" s="54"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="47"/>
+      <c r="AE32" s="48"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="11"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="57"/>
-      <c r="S33" s="57"/>
-      <c r="T33" s="57"/>
-      <c r="U33" s="57"/>
-      <c r="V33" s="57"/>
-      <c r="W33" s="57"/>
-      <c r="X33" s="57"/>
-      <c r="Y33" s="57"/>
-      <c r="Z33" s="57"/>
-      <c r="AA33" s="57"/>
-      <c r="AB33" s="58"/>
-      <c r="AC33" s="50"/>
-      <c r="AD33" s="51"/>
-      <c r="AE33" s="52"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="53"/>
+      <c r="AA33" s="53"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="46"/>
+      <c r="AD33" s="47"/>
+      <c r="AE33" s="48"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="11"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="57"/>
-      <c r="S34" s="57"/>
-      <c r="T34" s="57"/>
-      <c r="U34" s="57"/>
-      <c r="V34" s="57"/>
-      <c r="W34" s="57"/>
-      <c r="X34" s="57"/>
-      <c r="Y34" s="57"/>
-      <c r="Z34" s="57"/>
-      <c r="AA34" s="57"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="50"/>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="52"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="53"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="53"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="53"/>
+      <c r="AA34" s="53"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="46"/>
+      <c r="AD34" s="47"/>
+      <c r="AE34" s="48"/>
       <c r="AF34" s="12"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="57"/>
-      <c r="T35" s="57"/>
-      <c r="U35" s="57"/>
-      <c r="V35" s="57"/>
-      <c r="W35" s="57"/>
-      <c r="X35" s="57"/>
-      <c r="Y35" s="57"/>
-      <c r="Z35" s="57"/>
-      <c r="AA35" s="57"/>
-      <c r="AB35" s="58"/>
-      <c r="AC35" s="50"/>
-      <c r="AD35" s="51"/>
-      <c r="AE35" s="52"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="53"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="53"/>
+      <c r="Y35" s="53"/>
+      <c r="Z35" s="53"/>
+      <c r="AA35" s="53"/>
+      <c r="AB35" s="54"/>
+      <c r="AC35" s="46"/>
+      <c r="AD35" s="47"/>
+      <c r="AE35" s="48"/>
       <c r="AF35" s="12"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="57"/>
-      <c r="S36" s="57"/>
-      <c r="T36" s="57"/>
-      <c r="U36" s="57"/>
-      <c r="V36" s="57"/>
-      <c r="W36" s="57"/>
-      <c r="X36" s="57"/>
-      <c r="Y36" s="57"/>
-      <c r="Z36" s="57"/>
-      <c r="AA36" s="57"/>
-      <c r="AB36" s="58"/>
-      <c r="AC36" s="50"/>
-      <c r="AD36" s="51"/>
-      <c r="AE36" s="52"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="53"/>
+      <c r="AB36" s="54"/>
+      <c r="AC36" s="46"/>
+      <c r="AD36" s="47"/>
+      <c r="AE36" s="48"/>
       <c r="AF36" s="12"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57"/>
-      <c r="S37" s="57"/>
-      <c r="T37" s="57"/>
-      <c r="U37" s="57"/>
-      <c r="V37" s="57"/>
-      <c r="W37" s="57"/>
-      <c r="X37" s="57"/>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57"/>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="58"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="51"/>
-      <c r="AE37" s="52"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="53"/>
+      <c r="W37" s="53"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="53"/>
+      <c r="Z37" s="53"/>
+      <c r="AA37" s="53"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="47"/>
+      <c r="AE37" s="48"/>
       <c r="AF37" s="12"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -14408,6 +15219,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="J22:AB22"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="AC21:AE21"/>
@@ -14424,74 +15303,6 @@
     <mergeCell ref="B8:E9"/>
     <mergeCell ref="F8:Q9"/>
     <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="J22:AB22"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -14620,10 +15431,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AL51"/>
+  <dimension ref="A1:AL55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AK22" sqref="AK22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:AK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -14817,205 +15628,207 @@
       <c r="AK4" s="89"/>
       <c r="AL4" s="90"/>
     </row>
-    <row r="5" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="9"/>
-      <c r="AL5" s="10"/>
+    <row r="5" spans="1:38" ht="12">
+      <c r="A5" s="112"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="114"/>
+      <c r="S5" s="114"/>
+      <c r="T5" s="114"/>
+      <c r="U5" s="114"/>
+      <c r="V5" s="114"/>
+      <c r="W5" s="114"/>
+      <c r="X5" s="114"/>
+      <c r="Y5" s="114"/>
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="115"/>
+      <c r="AB5" s="115"/>
+      <c r="AC5" s="115"/>
+      <c r="AD5" s="115"/>
+      <c r="AE5" s="115"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="116"/>
     </row>
-    <row r="6" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="12"/>
+    <row r="6" spans="1:38" ht="12">
+      <c r="A6" s="112"/>
+      <c r="B6" s="117" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="118"/>
+      <c r="V6" s="118"/>
+      <c r="W6" s="118"/>
+      <c r="X6" s="118"/>
+      <c r="Y6" s="118"/>
+      <c r="Z6" s="118"/>
+      <c r="AA6" s="118"/>
+      <c r="AB6" s="118"/>
+      <c r="AC6" s="118"/>
+      <c r="AD6" s="118"/>
+      <c r="AE6" s="118"/>
+      <c r="AF6" s="118"/>
+      <c r="AG6" s="118"/>
+      <c r="AH6" s="118"/>
+      <c r="AI6" s="118"/>
+      <c r="AJ6" s="118"/>
+      <c r="AK6" s="118"/>
+      <c r="AL6" s="116"/>
     </row>
-    <row r="7" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="12"/>
+    <row r="7" spans="1:38" ht="12">
+      <c r="A7" s="112"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="118"/>
+      <c r="S7" s="118"/>
+      <c r="T7" s="118"/>
+      <c r="U7" s="118"/>
+      <c r="V7" s="118"/>
+      <c r="W7" s="118"/>
+      <c r="X7" s="118"/>
+      <c r="Y7" s="118"/>
+      <c r="Z7" s="118"/>
+      <c r="AA7" s="118"/>
+      <c r="AB7" s="118"/>
+      <c r="AC7" s="118"/>
+      <c r="AD7" s="118"/>
+      <c r="AE7" s="118"/>
+      <c r="AF7" s="118"/>
+      <c r="AG7" s="118"/>
+      <c r="AH7" s="118"/>
+      <c r="AI7" s="118"/>
+      <c r="AJ7" s="118"/>
+      <c r="AK7" s="118"/>
+      <c r="AL7" s="116"/>
     </row>
-    <row r="8" spans="1:38" ht="12.5" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="12"/>
+    <row r="8" spans="1:38" ht="12">
+      <c r="A8" s="112"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="114"/>
+      <c r="W8" s="114"/>
+      <c r="X8" s="114"/>
+      <c r="Y8" s="114"/>
+      <c r="Z8" s="115"/>
+      <c r="AA8" s="115"/>
+      <c r="AB8" s="115"/>
+      <c r="AC8" s="115"/>
+      <c r="AD8" s="115"/>
+      <c r="AE8" s="115"/>
+      <c r="AF8" s="113"/>
+      <c r="AG8" s="113"/>
+      <c r="AH8" s="113"/>
+      <c r="AI8" s="113"/>
+      <c r="AJ8" s="113"/>
+      <c r="AK8" s="113"/>
+      <c r="AL8" s="116"/>
     </row>
     <row r="9" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="12"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="10"/>
     </row>
     <row r="10" spans="1:38" ht="12.75" customHeight="1">
       <c r="A10" s="11"/>
@@ -15097,7 +15910,7 @@
       <c r="AK11" s="5"/>
       <c r="AL11" s="12"/>
     </row>
-    <row r="12" spans="1:38" ht="12.75" customHeight="1">
+    <row r="12" spans="1:38" ht="12.5" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -15193,6 +16006,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
@@ -15232,8 +16046,16 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
@@ -15264,9 +16086,16 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
@@ -15297,9 +16126,16 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
@@ -15330,8 +16166,15 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
@@ -15364,13 +16207,6 @@
       <c r="O19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
@@ -15404,12 +16240,6 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
@@ -15443,10 +16273,6 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
@@ -15477,15 +16303,8 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="Q22" s="5"/>
+      <c r="P22" s="5"/>
       <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
@@ -15514,6 +16333,8 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
@@ -15537,7 +16358,7 @@
       <c r="AK23" s="5"/>
       <c r="AL23" s="12"/>
     </row>
-    <row r="24" spans="1:38" ht="12.5" customHeight="1">
+    <row r="24" spans="1:38" ht="12.75" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -15594,10 +16415,9 @@
       <c r="O25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
@@ -15636,6 +16456,7 @@
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
@@ -15666,10 +16487,15 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
@@ -15684,7 +16510,7 @@
       <c r="AK27" s="5"/>
       <c r="AL27" s="12"/>
     </row>
-    <row r="28" spans="1:38" ht="12.75" customHeight="1">
+    <row r="28" spans="1:38" ht="12.5" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -15703,6 +16529,12 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
@@ -15735,6 +16567,12 @@
       <c r="O29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
@@ -15767,6 +16605,12 @@
       <c r="O30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
@@ -15831,6 +16675,7 @@
       <c r="O32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
@@ -15925,16 +16770,8 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
@@ -15965,16 +16802,8 @@
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
@@ -16005,16 +16834,8 @@
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
@@ -16045,16 +16866,8 @@
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
@@ -16269,7 +17082,7 @@
       <c r="AK43" s="5"/>
       <c r="AL43" s="12"/>
     </row>
-    <row r="44" spans="1:38" ht="12.5" customHeight="1">
+    <row r="44" spans="1:38" ht="12.75" customHeight="1">
       <c r="A44" s="11"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -16429,7 +17242,7 @@
       <c r="AK47" s="5"/>
       <c r="AL47" s="12"/>
     </row>
-    <row r="48" spans="1:38" ht="12.75" customHeight="1">
+    <row r="48" spans="1:38" ht="12.5" customHeight="1">
       <c r="A48" s="11"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -16550,47 +17363,208 @@
       <c r="AL50" s="12"/>
     </row>
     <row r="51" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="14"/>
-      <c r="T51" s="14"/>
-      <c r="U51" s="14"/>
-      <c r="V51" s="14"/>
-      <c r="W51" s="14"/>
-      <c r="X51" s="14"/>
-      <c r="Y51" s="14"/>
-      <c r="Z51" s="14"/>
-      <c r="AA51" s="14"/>
-      <c r="AB51" s="14"/>
-      <c r="AC51" s="14"/>
-      <c r="AD51" s="14"/>
-      <c r="AE51" s="14"/>
-      <c r="AF51" s="14"/>
-      <c r="AG51" s="14"/>
-      <c r="AH51" s="14"/>
-      <c r="AI51" s="14"/>
-      <c r="AJ51" s="14"/>
-      <c r="AK51" s="14"/>
-      <c r="AL51" s="15"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="5"/>
+      <c r="AI51" s="5"/>
+      <c r="AJ51" s="5"/>
+      <c r="AK51" s="5"/>
+      <c r="AL51" s="12"/>
+    </row>
+    <row r="52" spans="1:38" ht="12.75" customHeight="1">
+      <c r="A52" s="11"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="5"/>
+      <c r="AK52" s="5"/>
+      <c r="AL52" s="12"/>
+    </row>
+    <row r="53" spans="1:38" ht="12.75" customHeight="1">
+      <c r="A53" s="11"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="5"/>
+      <c r="AI53" s="5"/>
+      <c r="AJ53" s="5"/>
+      <c r="AK53" s="5"/>
+      <c r="AL53" s="12"/>
+    </row>
+    <row r="54" spans="1:38" ht="12.75" customHeight="1">
+      <c r="A54" s="11"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="5"/>
+      <c r="AJ54" s="5"/>
+      <c r="AK54" s="5"/>
+      <c r="AL54" s="12"/>
+    </row>
+    <row r="55" spans="1:38" ht="12.75" customHeight="1">
+      <c r="A55" s="13"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="14"/>
+      <c r="V55" s="14"/>
+      <c r="W55" s="14"/>
+      <c r="X55" s="14"/>
+      <c r="Y55" s="14"/>
+      <c r="Z55" s="14"/>
+      <c r="AA55" s="14"/>
+      <c r="AB55" s="14"/>
+      <c r="AC55" s="14"/>
+      <c r="AD55" s="14"/>
+      <c r="AE55" s="14"/>
+      <c r="AF55" s="14"/>
+      <c r="AG55" s="14"/>
+      <c r="AH55" s="14"/>
+      <c r="AI55" s="14"/>
+      <c r="AJ55" s="14"/>
+      <c r="AK55" s="14"/>
+      <c r="AL55" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="B6:AK7"/>
     <mergeCell ref="A1:AL1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
@@ -18240,6 +19214,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2B0453A4F97AA4594841E00C62E1F84" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b4ec096b6f6caeabb13d9a32e416b02d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a400ae294e8a05ebb5f0513890681b30" ns2:_="">
     <xsd:import namespace="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
@@ -18411,26 +19404,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2943A47C-3A6D-4AAA-B52D-79C0E305302C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82CC02B3-FCE5-4223-8B61-A8382C5BF06A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18446,22 +19438,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2943A47C-3A6D-4AAA-B52D-79C0E305302C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面遷移図.xlsx
+++ b/02_画面設計書・モックアップ/画面遷移図.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\desktop-tutorial\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821E1347-7931-473F-9D67-102318BB2F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2874E5-FF94-4B7F-869E-8DEE357AD8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -600,7 +600,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -701,6 +701,20 @@
     <font>
       <sz val="9"/>
       <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -962,6 +976,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1142,25 +1171,10 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1851,14 +1865,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>178866</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>170725</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>149447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>276794</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>268654</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>135838</xdr:rowOff>
     </xdr:to>
@@ -1875,8 +1889,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1888481" y="2241691"/>
-          <a:ext cx="8076134" cy="1126134"/>
+          <a:off x="2450212" y="3023229"/>
+          <a:ext cx="8076134" cy="1126135"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3429,15 +3443,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>65822</xdr:colOff>
+      <xdr:colOff>139091</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>78720</xdr:rowOff>
+      <xdr:rowOff>78719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>34449</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>78720</xdr:rowOff>
+      <xdr:rowOff>99029</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3455,8 +3469,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3200117" y="4450451"/>
-          <a:ext cx="823435" cy="0"/>
+          <a:off x="3273386" y="5069168"/>
+          <a:ext cx="750166" cy="20310"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3712,15 +3726,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>40703</xdr:colOff>
+      <xdr:colOff>113972</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>97692</xdr:rowOff>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>65822</xdr:colOff>
+      <xdr:colOff>139091</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>84084</xdr:rowOff>
+      <xdr:rowOff>92225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3735,7 +3749,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2035254" y="3818141"/>
+          <a:off x="2108523" y="4607820"/>
           <a:ext cx="1164863" cy="963315"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4947,14 +4961,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>130255</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>24421</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>154680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>28491</xdr:colOff>
+      <xdr:colOff>207593</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>133097</xdr:rowOff>
     </xdr:to>
@@ -4971,7 +4985,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1839870" y="1921283"/>
+          <a:off x="2018972" y="2702821"/>
           <a:ext cx="1037980" cy="304058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7443,7 +7457,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>G1-8-1</a:t>
+            <a:t>G1-8-2</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7655,7 +7669,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>G1-8-1</a:t>
+            <a:t>G1-8-4</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7867,7 +7881,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>G1-8-1</a:t>
+            <a:t>G1-8-3</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -8257,65 +8271,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>64549</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>113975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>252371</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>41326</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="直線矢印コネクタ 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E8EF54-0C6D-4F9A-BFF6-F9620DC07A8D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1489228" y="3345962"/>
-          <a:ext cx="472758" cy="741454"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>65129</xdr:colOff>
       <xdr:row>32</xdr:row>
@@ -9900,16 +9855,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>203527</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>260513</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>40705</xdr:rowOff>
+      <xdr:rowOff>16282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>91180</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>148167</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>27263</xdr:rowOff>
+      <xdr:rowOff>2840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9924,7 +9879,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1628206" y="1481667"/>
+          <a:off x="1400257" y="2238782"/>
           <a:ext cx="742461" cy="312199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11428,16 +11383,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>53263</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85827</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>84084</xdr:rowOff>
+      <xdr:rowOff>59661</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>273072</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>2673</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>175380</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>157353</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11448,19 +11403,16 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="60" idx="2"/>
-          <a:endCxn id="61" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
-          <a:off x="4396501" y="3165461"/>
-          <a:ext cx="81410" cy="3639040"/>
+          <a:off x="4355796" y="4117961"/>
+          <a:ext cx="97692" cy="2938912"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -840803"/>
+            <a:gd name="adj1" fmla="val -234001"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="44450">
@@ -11489,16 +11441,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>20698</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>126532</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>67803</xdr:rowOff>
+      <xdr:rowOff>92224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>45123</xdr:colOff>
+      <xdr:colOff>273072</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>18956</xdr:rowOff>
+      <xdr:rowOff>2672</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11509,16 +11461,19 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="61" idx="2"/>
+          <a:endCxn id="60" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4392430" y="3405622"/>
-          <a:ext cx="113974" cy="3158720"/>
+          <a:off x="4437206" y="3824883"/>
+          <a:ext cx="73269" cy="3565771"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 300572"/>
+            <a:gd name="adj1" fmla="val 1056448"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="38100">
@@ -13352,6 +13307,67 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>64549</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>93714</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>41327</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="コネクタ: カギ線 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F02F8B39-5465-9EF3-3D96-ADBD97E1A243}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1489228" y="2189526"/>
+          <a:ext cx="1168909" cy="2679429"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 43035"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -13963,16 +13979,16 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="77" t="s">
+      <c r="X3" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="79">
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="84">
         <v>45042</v>
       </c>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="78"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="83"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="12"/>
@@ -14090,20 +14106,20 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="51"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="56"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -14121,80 +14137,80 @@
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="71" t="s">
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="73"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="78"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="77" t="s">
+      <c r="X8" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="77" t="s">
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="AA8" s="78"/>
-      <c r="AB8" s="77" t="s">
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="AC8" s="78"/>
+      <c r="AC8" s="83"/>
       <c r="AD8" s="31"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15" customHeight="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="76"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="81"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="55" t="s">
+      <c r="X9" s="60"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="AC9" s="56"/>
+      <c r="AC9" s="61"/>
       <c r="AD9" s="31"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="12"/>
@@ -14223,12 +14239,12 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="58"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="63"/>
       <c r="AD10" s="31"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="12"/>
@@ -14257,12 +14273,12 @@
       <c r="U11" s="29"/>
       <c r="V11" s="29"/>
       <c r="W11" s="29"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="60"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="65"/>
       <c r="AD11" s="31"/>
       <c r="AE11" s="29"/>
       <c r="AF11" s="12"/>
@@ -14303,106 +14319,106 @@
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="61"/>
-      <c r="AC13" s="61"/>
-      <c r="AD13" s="61"/>
-      <c r="AE13" s="61"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="66"/>
       <c r="AF13" s="12"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="11"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="61"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="66"/>
+      <c r="AD14" s="66"/>
+      <c r="AE14" s="66"/>
       <c r="AF14" s="12"/>
     </row>
     <row r="15" spans="1:176" ht="15" customHeight="1">
       <c r="A15" s="11"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="61"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="61"/>
-      <c r="AB15" s="61"/>
-      <c r="AC15" s="61"/>
-      <c r="AD15" s="61"/>
-      <c r="AE15" s="61"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="66"/>
+      <c r="AC15" s="66"/>
+      <c r="AD15" s="66"/>
+      <c r="AE15" s="66"/>
       <c r="AF15" s="12"/>
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
@@ -14541,646 +14557,646 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="46" t="s">
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="46" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="46" t="s">
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="48"/>
+      <c r="AD20" s="52"/>
+      <c r="AE20" s="53"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="62">
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="67">
         <v>45042</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="52" t="s">
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="46" t="s">
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="48"/>
+      <c r="AD21" s="52"/>
+      <c r="AE21" s="53"/>
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="11"/>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="62">
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="67">
         <v>45047</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="52" t="s">
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="54"/>
-      <c r="AC22" s="46" t="s">
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="48"/>
+      <c r="AD22" s="52"/>
+      <c r="AE22" s="53"/>
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="62">
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="67">
         <v>45057</v>
       </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="52" t="s">
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="54"/>
-      <c r="AC23" s="46" t="s">
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="58"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="59"/>
+      <c r="AC23" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="48"/>
+      <c r="AD23" s="52"/>
+      <c r="AE23" s="53"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="54"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="47"/>
-      <c r="AE24" s="48"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="51"/>
+      <c r="AD24" s="52"/>
+      <c r="AE24" s="53"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="11"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="53"/>
-      <c r="AB25" s="54"/>
-      <c r="AC25" s="46"/>
-      <c r="AD25" s="47"/>
-      <c r="AE25" s="48"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="58"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="51"/>
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="53"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="53"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="53"/>
-      <c r="AB26" s="54"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="47"/>
-      <c r="AE26" s="48"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="58"/>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="52"/>
+      <c r="AE26" s="53"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="11"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="54"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="47"/>
-      <c r="AE27" s="48"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="51"/>
+      <c r="AD27" s="52"/>
+      <c r="AE27" s="53"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="11"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="53"/>
-      <c r="Z28" s="53"/>
-      <c r="AA28" s="53"/>
-      <c r="AB28" s="54"/>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="47"/>
-      <c r="AE28" s="48"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="51"/>
+      <c r="AD28" s="52"/>
+      <c r="AE28" s="53"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="53"/>
-      <c r="AA29" s="53"/>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="46"/>
-      <c r="AD29" s="47"/>
-      <c r="AE29" s="48"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="59"/>
+      <c r="AC29" s="51"/>
+      <c r="AD29" s="52"/>
+      <c r="AE29" s="53"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="53"/>
-      <c r="AA30" s="53"/>
-      <c r="AB30" s="54"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="47"/>
-      <c r="AE30" s="48"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="58"/>
+      <c r="AA30" s="58"/>
+      <c r="AB30" s="59"/>
+      <c r="AC30" s="51"/>
+      <c r="AD30" s="52"/>
+      <c r="AE30" s="53"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="11"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="54"/>
-      <c r="AC31" s="46"/>
-      <c r="AD31" s="47"/>
-      <c r="AE31" s="48"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="58"/>
+      <c r="Z31" s="58"/>
+      <c r="AA31" s="58"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="52"/>
+      <c r="AE31" s="53"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="11"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="53"/>
-      <c r="Z32" s="53"/>
-      <c r="AA32" s="53"/>
-      <c r="AB32" s="54"/>
-      <c r="AC32" s="46"/>
-      <c r="AD32" s="47"/>
-      <c r="AE32" s="48"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="58"/>
+      <c r="Z32" s="58"/>
+      <c r="AA32" s="58"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="51"/>
+      <c r="AD32" s="52"/>
+      <c r="AE32" s="53"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="11"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="53"/>
-      <c r="Z33" s="53"/>
-      <c r="AA33" s="53"/>
-      <c r="AB33" s="54"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="47"/>
-      <c r="AE33" s="48"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="58"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="58"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="58"/>
+      <c r="Y33" s="58"/>
+      <c r="Z33" s="58"/>
+      <c r="AA33" s="58"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="52"/>
+      <c r="AE33" s="53"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="11"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="53"/>
-      <c r="V34" s="53"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="53"/>
-      <c r="Y34" s="53"/>
-      <c r="Z34" s="53"/>
-      <c r="AA34" s="53"/>
-      <c r="AB34" s="54"/>
-      <c r="AC34" s="46"/>
-      <c r="AD34" s="47"/>
-      <c r="AE34" s="48"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="58"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="58"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="58"/>
+      <c r="Z34" s="58"/>
+      <c r="AA34" s="58"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="51"/>
+      <c r="AD34" s="52"/>
+      <c r="AE34" s="53"/>
       <c r="AF34" s="12"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="53"/>
-      <c r="V35" s="53"/>
-      <c r="W35" s="53"/>
-      <c r="X35" s="53"/>
-      <c r="Y35" s="53"/>
-      <c r="Z35" s="53"/>
-      <c r="AA35" s="53"/>
-      <c r="AB35" s="54"/>
-      <c r="AC35" s="46"/>
-      <c r="AD35" s="47"/>
-      <c r="AE35" s="48"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="58"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="58"/>
+      <c r="Y35" s="58"/>
+      <c r="Z35" s="58"/>
+      <c r="AA35" s="58"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="52"/>
+      <c r="AE35" s="53"/>
       <c r="AF35" s="12"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="53"/>
-      <c r="W36" s="53"/>
-      <c r="X36" s="53"/>
-      <c r="Y36" s="53"/>
-      <c r="Z36" s="53"/>
-      <c r="AA36" s="53"/>
-      <c r="AB36" s="54"/>
-      <c r="AC36" s="46"/>
-      <c r="AD36" s="47"/>
-      <c r="AE36" s="48"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="58"/>
+      <c r="R36" s="58"/>
+      <c r="S36" s="58"/>
+      <c r="T36" s="58"/>
+      <c r="U36" s="58"/>
+      <c r="V36" s="58"/>
+      <c r="W36" s="58"/>
+      <c r="X36" s="58"/>
+      <c r="Y36" s="58"/>
+      <c r="Z36" s="58"/>
+      <c r="AA36" s="58"/>
+      <c r="AB36" s="59"/>
+      <c r="AC36" s="51"/>
+      <c r="AD36" s="52"/>
+      <c r="AE36" s="53"/>
       <c r="AF36" s="12"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="53"/>
-      <c r="W37" s="53"/>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="53"/>
-      <c r="Z37" s="53"/>
-      <c r="AA37" s="53"/>
-      <c r="AB37" s="54"/>
-      <c r="AC37" s="46"/>
-      <c r="AD37" s="47"/>
-      <c r="AE37" s="48"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="58"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="58"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="58"/>
+      <c r="U37" s="58"/>
+      <c r="V37" s="58"/>
+      <c r="W37" s="58"/>
+      <c r="X37" s="58"/>
+      <c r="Y37" s="58"/>
+      <c r="Z37" s="58"/>
+      <c r="AA37" s="58"/>
+      <c r="AB37" s="59"/>
+      <c r="AC37" s="51"/>
+      <c r="AD37" s="52"/>
+      <c r="AE37" s="53"/>
       <c r="AF37" s="12"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -15433,7 +15449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:AK7"/>
     </sheetView>
   </sheetViews>
@@ -15447,229 +15463,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="81"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
     </row>
     <row r="2" spans="1:38" ht="12">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="82" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="82" t="s">
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="91" t="s">
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="92"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="82" t="s">
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="83"/>
-      <c r="AJ2" s="83"/>
-      <c r="AK2" s="83"/>
-      <c r="AL2" s="84"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="88"/>
+      <c r="AK2" s="88"/>
+      <c r="AL2" s="89"/>
     </row>
     <row r="3" spans="1:38" ht="12">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="85" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="100" t="s">
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
-      <c r="U3" s="101"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="102"/>
-      <c r="Z3" s="94" t="s">
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="85" t="s">
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="100"/>
+      <c r="AD3" s="100"/>
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="86"/>
-      <c r="AJ3" s="86"/>
-      <c r="AK3" s="86"/>
-      <c r="AL3" s="87"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="91"/>
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="92"/>
     </row>
     <row r="4" spans="1:38" ht="12">
-      <c r="A4" s="88"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="105"/>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="98"/>
-      <c r="AD4" s="98"/>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="89"/>
-      <c r="AL4" s="90"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="109"/>
+      <c r="Y4" s="110"/>
+      <c r="Z4" s="102"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="103"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="94"/>
+      <c r="AL4" s="95"/>
     </row>
     <row r="5" spans="1:38" ht="12">
-      <c r="A5" s="112"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
-      <c r="X5" s="114"/>
-      <c r="Y5" s="114"/>
-      <c r="Z5" s="115"/>
-      <c r="AA5" s="115"/>
-      <c r="AB5" s="115"/>
-      <c r="AC5" s="115"/>
-      <c r="AD5" s="115"/>
-      <c r="AE5" s="115"/>
-      <c r="AF5" s="113"/>
-      <c r="AG5" s="113"/>
-      <c r="AH5" s="113"/>
-      <c r="AI5" s="113"/>
-      <c r="AJ5" s="113"/>
-      <c r="AK5" s="113"/>
-      <c r="AL5" s="116"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="50"/>
     </row>
     <row r="6" spans="1:38" ht="12">
-      <c r="A6" s="112"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="117" t="s">
         <v>51</v>
       </c>
@@ -15708,10 +15724,10 @@
       <c r="AI6" s="118"/>
       <c r="AJ6" s="118"/>
       <c r="AK6" s="118"/>
-      <c r="AL6" s="116"/>
+      <c r="AL6" s="50"/>
     </row>
     <row r="7" spans="1:38" ht="12">
-      <c r="A7" s="112"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="118"/>
       <c r="C7" s="118"/>
       <c r="D7" s="118"/>
@@ -15748,47 +15764,47 @@
       <c r="AI7" s="118"/>
       <c r="AJ7" s="118"/>
       <c r="AK7" s="118"/>
-      <c r="AL7" s="116"/>
+      <c r="AL7" s="50"/>
     </row>
     <row r="8" spans="1:38" ht="12">
-      <c r="A8" s="112"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
-      <c r="Y8" s="114"/>
-      <c r="Z8" s="115"/>
-      <c r="AA8" s="115"/>
-      <c r="AB8" s="115"/>
-      <c r="AC8" s="115"/>
-      <c r="AD8" s="115"/>
-      <c r="AE8" s="115"/>
-      <c r="AF8" s="113"/>
-      <c r="AG8" s="113"/>
-      <c r="AH8" s="113"/>
-      <c r="AI8" s="113"/>
-      <c r="AJ8" s="113"/>
-      <c r="AK8" s="113"/>
-      <c r="AL8" s="116"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="47"/>
+      <c r="AJ8" s="47"/>
+      <c r="AK8" s="47"/>
+      <c r="AL8" s="50"/>
     </row>
     <row r="9" spans="1:38" ht="12.75" customHeight="1">
       <c r="A9" s="8"/>
@@ -17604,158 +17620,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="82" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="82" t="s">
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="91" t="s">
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="92"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="82" t="s">
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="AG2" s="84"/>
+      <c r="AG2" s="89"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="94" t="s">
+      <c r="A3" s="90"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="112"/>
+      <c r="Y3" s="113"/>
+      <c r="Z3" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="87"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="100"/>
+      <c r="AD3" s="100"/>
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="92"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="88"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="111"/>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="98"/>
-      <c r="AD4" s="98"/>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="90"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
+      <c r="R4" s="115"/>
+      <c r="S4" s="115"/>
+      <c r="T4" s="115"/>
+      <c r="U4" s="115"/>
+      <c r="V4" s="115"/>
+      <c r="W4" s="115"/>
+      <c r="X4" s="115"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="102"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="103"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="95"/>
     </row>
     <row r="5" spans="1:177" s="7" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="2"/>
